--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B117A1C0-FF75-7641-A755-A00846A3C45C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37214355-6952-6244-AFB0-D8B6C93EC24C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="859" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="393">
   <si>
     <t>AGORAPHOBE</t>
   </si>
@@ -157,12 +157,6 @@
     <t>Once per round, you may force a player to card share with you.</t>
   </si>
   <si>
-    <t>Don't leave the house</t>
-  </si>
-  <si>
-    <t>The rules don’t apply to me</t>
-  </si>
-  <si>
     <t>I don’t know who I am</t>
   </si>
   <si>
@@ -170,12 +164,6 @@
   </si>
   <si>
     <t>Do your best to never open your eyes during the game.</t>
-  </si>
-  <si>
-    <t>Help!</t>
-  </si>
-  <si>
-    <t>Stay on target</t>
   </si>
   <si>
     <t>If you are in the same room as the Red Fist at the end of the last round, blue team wins.</t>
@@ -190,13 +178,7 @@
     <t>Announce that you are the Ambassador. You can move whenever you want between the rooms. You can’t vote or be forced to change rooms.</t>
   </si>
   <si>
-    <t>You are under arrest</t>
-  </si>
-  <si>
     <t>Where did that body go?</t>
-  </si>
-  <si>
-    <t>BOOM</t>
   </si>
   <si>
     <t>If you are a leader at the end of the last round, you win.</t>
@@ -242,12 +224,6 @@
   </si>
   <si>
     <t>Prude</t>
-  </si>
-  <si>
-    <t>Arm the bomber</t>
-  </si>
-  <si>
-    <t>Live, damn you! live!</t>
   </si>
   <si>
     <t>ALIEN</t>
@@ -650,9 +626,6 @@
   </si>
   <si>
     <t>Cleaning is what I do</t>
-  </si>
-  <si>
-    <t>Smile at all times!</t>
   </si>
   <si>
     <t>I will turn you</t>
@@ -1140,6 +1113,105 @@
   <si>
     <t>ZOMBIE</t>
   </si>
+  <si>
+    <t>Baby, it's cold outside</t>
+  </si>
+  <si>
+    <t>No one's above the law, except me</t>
+  </si>
+  <si>
+    <t>Stop in the name of the Law!</t>
+  </si>
+  <si>
+    <t>Take me to your leader!</t>
+  </si>
+  <si>
+    <t>Who turned off the lights?!</t>
+  </si>
+  <si>
+    <t>How might I be of service?</t>
+  </si>
+  <si>
+    <t>Attack of the…</t>
+  </si>
+  <si>
+    <t>Shot by a smooth...</t>
+  </si>
+  <si>
+    <t>Shot by a smooth…</t>
+  </si>
+  <si>
+    <t>Swear to drunk I'm not God!</t>
+  </si>
+  <si>
+    <t>Look, I am your…</t>
+  </si>
+  <si>
+    <t>Aww heck, why not?</t>
+  </si>
+  <si>
+    <t>I need a…</t>
+  </si>
+  <si>
+    <t>Somebody call a doctor?</t>
+  </si>
+  <si>
+    <t>To die is gain</t>
+  </si>
+  <si>
+    <t>You can't handle the truth</t>
+  </si>
+  <si>
+    <t>Ducktape will do</t>
+  </si>
+  <si>
+    <t>Scotch tape will do</t>
+  </si>
+  <si>
+    <t>I live to serve</t>
+  </si>
+  <si>
+    <t>Cake, cake</t>
+  </si>
+  <si>
+    <t>Always bet on black</t>
+  </si>
+  <si>
+    <t>It's alive!</t>
+  </si>
+  <si>
+    <t>Wherefore art thou, Romeo?</t>
+  </si>
+  <si>
+    <t>…</t>
+  </si>
+  <si>
+    <t>One shot. One kill.</t>
+  </si>
+  <si>
+    <t>I have a target on my back</t>
+  </si>
+  <si>
+    <t>Do your best to smile at all times.</t>
+  </si>
+  <si>
+    <t>Target Acquired</t>
+  </si>
+  <si>
+    <t>Here comes the BOOM</t>
+  </si>
+  <si>
+    <t>Beauty is in the eye of the</t>
+  </si>
+  <si>
+    <t>Pick a winner</t>
+  </si>
+  <si>
+    <t>Hot! Hot! Hot!</t>
+  </si>
+  <si>
+    <t>The name's Bond.</t>
+  </si>
 </sst>
 </file>
 
@@ -1512,8 +1584,9 @@
   <dimension ref="A1:WHQ206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A195" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D214" sqref="D214"/>
+      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="C197" sqref="C197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1527,25 +1600,25 @@
   <sheetData>
     <row r="1" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>36</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
     </row>
     <row r="2" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1556,13 +1629,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1576,13 +1649,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>52</v>
+        <v>362</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>40</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1593,13 +1666,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>41</v>
+        <v>360</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>35</v>
@@ -1613,13 +1686,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -1633,16 +1706,16 @@
     </row>
     <row r="6" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>187</v>
+        <v>179</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64478,16 +64551,19 @@
     </row>
     <row r="7" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C7" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D7" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64495,16 +64571,19 @@
     </row>
     <row r="8" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C8" s="1" t="s">
+        <v>363</v>
+      </c>
       <c r="D8" s="1" t="s">
-        <v>184</v>
+        <v>176</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64518,13 +64597,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -64538,13 +64617,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>361</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -64558,7 +64637,7 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>38</v>
@@ -64569,19 +64648,19 @@
     </row>
     <row r="12" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>193</v>
+        <v>185</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -64595,13 +64674,13 @@
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -64615,13 +64694,13 @@
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -64629,16 +64708,16 @@
     </row>
     <row r="15" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -64646,16 +64725,19 @@
     </row>
     <row r="16" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>389</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -64663,13 +64745,13 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -64683,13 +64765,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -64703,13 +64785,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>46</v>
+        <v>364</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -64723,16 +64805,16 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>47</v>
+        <v>387</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -64740,16 +64822,16 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>198</v>
+        <v>190</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -64763,13 +64845,13 @@
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -64783,13 +64865,13 @@
         <v>5</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -64803,13 +64885,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>183</v>
+        <v>175</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -64823,13 +64905,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>54</v>
+        <v>388</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -64840,16 +64922,16 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="G26" s="1">
         <v>3</v>
@@ -64863,16 +64945,16 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -64886,16 +64968,16 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -64903,19 +64985,19 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -64923,19 +65005,19 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -64943,16 +65025,19 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>365</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -64966,13 +65051,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -64986,13 +65071,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65006,13 +65091,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -65023,16 +65108,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65040,19 +65125,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65060,19 +65145,19 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -65080,33 +65165,36 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>366</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -65114,19 +65202,19 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>206</v>
+        <v>386</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65134,19 +65222,19 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65154,19 +65242,19 @@
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>207</v>
+        <v>198</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65174,19 +65262,19 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65194,19 +65282,19 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65219,11 +65307,14 @@
       <c r="B45" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C45" s="1" t="s">
+        <v>367</v>
+      </c>
       <c r="D45" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65236,11 +65327,14 @@
       <c r="B46" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C46" s="1" t="s">
+        <v>368</v>
+      </c>
       <c r="D46" s="1" t="s">
-        <v>186</v>
+        <v>178</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65248,19 +65342,19 @@
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65268,16 +65362,16 @@
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65285,19 +65379,19 @@
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65305,19 +65399,19 @@
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -65328,19 +65422,19 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="F51" s="1" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -65348,16 +65442,19 @@
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C52" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="D52" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65365,16 +65462,19 @@
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C53" s="1" t="s">
+        <v>375</v>
+      </c>
       <c r="D53" s="1" t="s">
-        <v>225</v>
+        <v>216</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65388,13 +65488,13 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>71</v>
+        <v>373</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -65402,16 +65502,16 @@
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65419,16 +65519,16 @@
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65436,16 +65536,16 @@
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65453,10 +65553,13 @@
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>8</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>369</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -65464,19 +65567,19 @@
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -65484,16 +65587,19 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C60" s="1" t="s">
+        <v>377</v>
+      </c>
       <c r="D60" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -65507,10 +65613,10 @@
         <v>5</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -65524,10 +65630,10 @@
         <v>6</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -65541,13 +65647,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>70</v>
+        <v>376</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -65555,19 +65661,19 @@
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -65575,19 +65681,19 @@
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -65595,16 +65701,16 @@
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -65618,13 +65724,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -65638,13 +65744,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -65652,16 +65758,19 @@
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C69" s="1" t="s">
+        <v>378</v>
+      </c>
       <c r="D69" s="1" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -65669,16 +65778,19 @@
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -65686,16 +65798,19 @@
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>379</v>
+      </c>
       <c r="D71" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -65703,16 +65818,16 @@
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -65725,11 +65840,14 @@
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="D73" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -65742,11 +65860,14 @@
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C74" s="1" t="s">
+        <v>371</v>
+      </c>
       <c r="D74" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -65757,7 +65878,7 @@
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>32</v>
@@ -65774,16 +65895,16 @@
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -65794,19 +65915,19 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F77" s="1" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="G77" s="1">
         <v>1</v>
@@ -65814,16 +65935,19 @@
     </row>
     <row r="78" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="D78" s="3" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="G78" s="1">
         <v>3</v>
@@ -65831,16 +65955,16 @@
     </row>
     <row r="79" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -65848,16 +65972,16 @@
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -65865,16 +65989,16 @@
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -65882,16 +66006,16 @@
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -65899,16 +66023,19 @@
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C83" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -65919,10 +66046,10 @@
         <v>5</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
@@ -65936,10 +66063,10 @@
         <v>6</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>191</v>
+        <v>183</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -65947,16 +66074,19 @@
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C86" s="1" t="s">
+        <v>372</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -65964,16 +66094,19 @@
     </row>
     <row r="87" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C87" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -65981,19 +66114,19 @@
     </row>
     <row r="88" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -66001,19 +66134,19 @@
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -66021,16 +66154,16 @@
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -66038,16 +66171,16 @@
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66055,16 +66188,16 @@
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66072,16 +66205,16 @@
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66089,16 +66222,16 @@
     </row>
     <row r="94" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -66106,16 +66239,16 @@
     </row>
     <row r="95" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66123,16 +66256,16 @@
     </row>
     <row r="96" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66140,16 +66273,16 @@
     </row>
     <row r="97" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66157,16 +66290,16 @@
     </row>
     <row r="98" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -66174,16 +66307,16 @@
     </row>
     <row r="99" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66191,16 +66324,19 @@
     </row>
     <row r="100" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66208,16 +66344,16 @@
     </row>
     <row r="101" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66225,16 +66361,16 @@
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -66242,16 +66378,16 @@
     </row>
     <row r="103" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66259,16 +66395,16 @@
     </row>
     <row r="104" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66276,16 +66412,16 @@
     </row>
     <row r="105" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66293,16 +66429,16 @@
     </row>
     <row r="106" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66310,16 +66446,19 @@
     </row>
     <row r="107" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C107" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="D107" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -66327,16 +66466,19 @@
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C108" s="1" t="s">
+        <v>381</v>
+      </c>
       <c r="D108" s="1" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -66344,16 +66486,16 @@
     </row>
     <row r="109" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -66361,16 +66503,16 @@
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
@@ -66378,10 +66520,10 @@
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -66389,16 +66531,19 @@
     </row>
     <row r="112" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C112" s="1" t="s">
+        <v>374</v>
+      </c>
       <c r="D112" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -66406,16 +66551,16 @@
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
@@ -66423,16 +66568,16 @@
     </row>
     <row r="114" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
@@ -66440,16 +66585,19 @@
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -66457,16 +66605,19 @@
     </row>
     <row r="116" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C116" s="1" t="s">
+        <v>372</v>
+      </c>
       <c r="D116" s="1" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -66474,16 +66625,16 @@
     </row>
     <row r="117" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -66491,16 +66642,19 @@
     </row>
     <row r="118" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C118" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="D118" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -66508,16 +66662,19 @@
     </row>
     <row r="119" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C119" s="1" t="s">
+        <v>383</v>
+      </c>
       <c r="D119" s="1" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G119" s="1">
         <v>1</v>
@@ -66525,13 +66682,13 @@
     </row>
     <row r="120" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E120" s="1" t="s">
         <v>31</v>
@@ -66542,16 +66699,16 @@
     </row>
     <row r="121" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -66562,13 +66719,13 @@
         <v>37</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -66576,16 +66733,16 @@
     </row>
     <row r="123" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -66593,16 +66750,16 @@
     </row>
     <row r="124" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -66610,16 +66767,16 @@
     </row>
     <row r="125" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
       <c r="E125" s="2" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -66627,16 +66784,16 @@
     </row>
     <row r="126" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -66644,16 +66801,16 @@
     </row>
     <row r="127" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -66661,13 +66818,13 @@
     </row>
     <row r="128" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -66675,13 +66832,13 @@
     </row>
     <row r="129" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -66689,16 +66846,16 @@
     </row>
     <row r="130" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="E130" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -66706,16 +66863,16 @@
     </row>
     <row r="131" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -66723,16 +66880,16 @@
     </row>
     <row r="132" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E132" s="2" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -66740,16 +66897,16 @@
     </row>
     <row r="133" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -66757,16 +66914,16 @@
     </row>
     <row r="134" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -66774,16 +66931,16 @@
     </row>
     <row r="135" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -66791,16 +66948,16 @@
     </row>
     <row r="136" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -66808,16 +66965,16 @@
     </row>
     <row r="137" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -66825,16 +66982,16 @@
     </row>
     <row r="138" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -66842,16 +66999,16 @@
     </row>
     <row r="139" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -66859,19 +67016,19 @@
     </row>
     <row r="140" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -66879,19 +67036,19 @@
     </row>
     <row r="141" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G141" s="1">
         <v>1</v>
@@ -66899,16 +67056,16 @@
     </row>
     <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G142" s="1">
         <v>1</v>
@@ -66916,16 +67073,16 @@
     </row>
     <row r="143" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>142</v>
+        <v>134</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -66933,16 +67090,16 @@
     </row>
     <row r="144" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>143</v>
+        <v>135</v>
       </c>
       <c r="B144" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -66950,16 +67107,16 @@
     </row>
     <row r="145" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -66967,16 +67124,16 @@
     </row>
     <row r="146" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -66984,16 +67141,16 @@
     </row>
     <row r="147" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67001,16 +67158,16 @@
     </row>
     <row r="148" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67018,16 +67175,16 @@
     </row>
     <row r="149" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>145</v>
+        <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67035,16 +67192,16 @@
     </row>
     <row r="150" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67052,16 +67209,16 @@
     </row>
     <row r="151" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>147</v>
+        <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67069,16 +67226,16 @@
     </row>
     <row r="152" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -67086,16 +67243,16 @@
     </row>
     <row r="153" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -67103,16 +67260,16 @@
     </row>
     <row r="154" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -67120,16 +67277,16 @@
     </row>
     <row r="155" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>149</v>
+        <v>141</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67137,16 +67294,16 @@
     </row>
     <row r="156" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67154,16 +67311,16 @@
     </row>
     <row r="157" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>150</v>
+        <v>142</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G157" s="1">
         <v>1</v>
@@ -67171,7 +67328,7 @@
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>151</v>
+        <v>143</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>6</v>
@@ -67180,10 +67337,10 @@
         <v>9</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G158" s="1">
         <v>10</v>
@@ -67191,16 +67348,16 @@
     </row>
     <row r="159" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>152</v>
+        <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -67208,16 +67365,16 @@
     </row>
     <row r="160" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -67225,16 +67382,16 @@
     </row>
     <row r="161" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G161" s="1">
         <v>1</v>
@@ -67242,16 +67399,16 @@
     </row>
     <row r="162" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>155</v>
+        <v>147</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -67259,16 +67416,16 @@
     </row>
     <row r="163" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>156</v>
+        <v>148</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -67276,16 +67433,19 @@
     </row>
     <row r="164" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -67293,16 +67453,16 @@
     </row>
     <row r="165" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -67310,16 +67470,16 @@
     </row>
     <row r="166" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>158</v>
+        <v>150</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -67327,16 +67487,16 @@
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -67344,16 +67504,16 @@
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="B168" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -67361,16 +67521,16 @@
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -67378,16 +67538,16 @@
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -67395,16 +67555,16 @@
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -67412,16 +67572,16 @@
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>161</v>
+        <v>153</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -67429,16 +67589,16 @@
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G173" s="1">
         <v>1</v>
@@ -67446,16 +67606,19 @@
     </row>
     <row r="174" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B174" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C174" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="D174" s="1" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -67463,16 +67626,19 @@
     </row>
     <row r="175" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>163</v>
+        <v>155</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C175" s="1" t="s">
+        <v>392</v>
+      </c>
       <c r="D175" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -67480,16 +67646,16 @@
     </row>
     <row r="176" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>164</v>
+        <v>156</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E176" s="3" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -67497,16 +67663,16 @@
     </row>
     <row r="177" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E177" s="3" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
@@ -67514,16 +67680,16 @@
     </row>
     <row r="178" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -67531,16 +67697,16 @@
     </row>
     <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -67548,16 +67714,16 @@
     </row>
     <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -67565,16 +67731,16 @@
     </row>
     <row r="181" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>168</v>
+        <v>160</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -67582,16 +67748,16 @@
     </row>
     <row r="182" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -67599,16 +67765,16 @@
     </row>
     <row r="183" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -67616,13 +67782,13 @@
     </row>
     <row r="184" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>170</v>
+        <v>162</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -67630,16 +67796,16 @@
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
@@ -67647,16 +67813,16 @@
     </row>
     <row r="186" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
@@ -67664,16 +67830,16 @@
     </row>
     <row r="187" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -67681,16 +67847,16 @@
     </row>
     <row r="188" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>173</v>
+        <v>165</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
@@ -67698,16 +67864,16 @@
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -67715,16 +67881,16 @@
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>174</v>
+        <v>166</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -67732,16 +67898,16 @@
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D191" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -67749,16 +67915,16 @@
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D192" s="3" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -67766,16 +67932,19 @@
     </row>
     <row r="193" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>176</v>
+        <v>168</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
+      </c>
+      <c r="C193" s="1" t="s">
+        <v>385</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -67783,16 +67952,16 @@
     </row>
     <row r="194" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>177</v>
+        <v>169</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E194" s="3" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -67800,16 +67969,16 @@
     </row>
     <row r="195" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -67817,16 +67986,16 @@
     </row>
     <row r="196" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>178</v>
+        <v>170</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -67834,16 +68003,16 @@
     </row>
     <row r="197" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -67851,16 +68020,16 @@
     </row>
     <row r="198" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>179</v>
+        <v>171</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -67868,16 +68037,16 @@
     </row>
     <row r="199" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>180</v>
+        <v>172</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
@@ -67885,16 +68054,16 @@
     </row>
     <row r="200" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -67902,13 +68071,13 @@
     </row>
     <row r="201" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -67916,16 +68085,16 @@
     </row>
     <row r="202" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
       <c r="G202" s="1">
         <v>1</v>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37214355-6952-6244-AFB0-D8B6C93EC24C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F30769CB-A40C-334F-82E8-B60E0E814370}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="80" yWindow="460" windowWidth="28040" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
+    <workbookView xWindow="80" yWindow="460" windowWidth="31840" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="419">
   <si>
     <t>AGORAPHOBE</t>
   </si>
@@ -787,12 +787,6 @@
     <t>You are getting sleepy</t>
   </si>
   <si>
-    <t>You have the "hypnotist" power. Any player that card shares with you gains the "hypnotized" condition. They must act as if they are the character that you suggest. You start by saying, "You think you are the __." "Hypnotized" players do not gain nor lose their power or allegiance.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you trades cards with you and then acquires the "shy" condition. The "shy" condition means that can't reveal any part of their card to any player. They assume the allegiance of the Identity Thief card, and you assume the powers, allegiance, win objectives, and all starting conditions of the newly stolen card as if you were dealt that character card at the beginning of the game.</t>
-  </si>
-  <si>
     <t>You begin with the "immune" condition. Players with the "immune" condition are immune to all powers and conditions without exception.</t>
   </si>
   <si>
@@ -814,16 +808,10 @@
     <t>If you are in the same room as Romeo and the Bomber at the end of the game, you win.</t>
   </si>
   <si>
-    <t>You have the "switch-a-roo" power. During any round but the last, you may publicly reveal your card. You must then leave your current room. Upon entering the opposing room, you must IMMEDIATELY choose any player, show them your publicly revealed card and verbally tell them, “I’m kicking you out.” You stay, but your target player must leave the current room and go into the opposing room.</t>
-  </si>
-  <si>
     <t>If you have this card at the end of the game, you win.</t>
   </si>
   <si>
     <t>You are immune to the “traitor” condition. Moreover, if anyone card shares with you they lose the “traitor” condition.</t>
-  </si>
-  <si>
-    <t>You have the "mad scientist" power. Once per game, you may privately reveal your card to two players. You  verbally say to the players, "You MUST trade cards." Those two players must trade character cards. You can not use this power on yourself.</t>
   </si>
   <si>
     <t>If you are in the same room as the Butler and the President at the end of the game, you win.</t>
@@ -916,12 +904,6 @@
     <t>If the President gains the “dead” condition and you don’t, you win.</t>
   </si>
   <si>
-    <t>If you... (1) are a room’s leader (2) have already selected your hostages (3) are between rounds (4) and are waiting for the other room’s leader... you may begin yelling "I’m a raging one! I’m a raging two! ..." continuing till either the other leader shows up or you get to "I’m a raging ten!" If you finish "I’m a raging ten!" then you win and all other players lose.</t>
-  </si>
-  <si>
-    <t>You have the "rat" power: once per game you may publicly reveal your card, then go to the opposing room. While in the other room, you have the “immune” condition and are immune to all powers and conditions without exception. While in the other room Rats can never take part in any vote and can never be transferred into another room. You must return to your original room before the end of the round or you automatically lose.</t>
-  </si>
-  <si>
     <t>If you are NOT in the same room as the President at the end of the game, you win.</t>
   </si>
   <si>
@@ -961,9 +943,6 @@
     <t>If another player color shares with you, you win and everyone else loses immediately.</t>
   </si>
   <si>
-    <t xml:space="preserve">Money, Money </t>
-  </si>
-  <si>
     <t>You may privately reveal your card to two players and say "You are in LOVE with each other". Their objective is replaced with: be in the same room with the player with whom you are in love at the end.</t>
   </si>
   <si>
@@ -974,9 +953,6 @@
   </si>
   <si>
     <t>If the King gains the “toasty” condition, Blue Team loses.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You begin with the "foolish" condition and can never turn down an offer to card share or color share. You also have the "leprechaun" power. Any player that card shares or color shares with you immediately trades cards with you. Both you and the other player assume the powers and the allegiance of the newly acquired cards. </t>
   </si>
   <si>
     <t>You are the backup character for the Bomber. If the Bomber gains the "dead" condition during the game or is buried, you take the role of the Bomber.</t>
@@ -1007,12 +983,6 @@
   </si>
   <si>
     <t>You begin with the "shy" condition. Players with the "shy" condition may not reveal any part of their card to any player.</t>
-  </si>
-  <si>
-    <t>Before the game begins, but after character cards have been dealt, everyone is to close their eyes and publicly reveal their cards for about 30 seconds. Only the Seer characters may open their eyes and move freely throughout the play areas. Seer characters begin the game with the "shy" condition and may not reveal any part of their card to any player.</t>
-  </si>
-  <si>
-    <t>You have the "tackle" power. You may publicly reveal your Security card, pick any player in the room and verbally tell them, "You're going nowhere." If the target of your "tackle" power is not on the same team as you, they gain the "tackled" condition and can't leave as a hostage this round. If they are a member of your own team, then that teammate player gains the “torn” condition, and must permanently publicly reveal their card regardless of any powers or acquired conditions.</t>
   </si>
   <si>
     <t>If you catch players engaging in anything that could be considered gameplay between rounds then you yell “Secret Police! You’re under arrest!”.</t>
@@ -1081,13 +1051,10 @@
     <t>If you card share with the Marshal, the game immediately ends, red team wins</t>
   </si>
   <si>
-    <t>You are considered one of the two alpha wolves and have the "werewolf" power. Any player that card shares or color shares with you gains the "bitten" condition. Any player that card shares or color shares with a "bitten" player is then also "bitten." All “bitten” players must answer any question EITHER of the alpha wolves ask as honestly and informatively as possible.</t>
+    <t>If all players without the “dead” condition at the end of the game are on Team Zombie, Team Zombie wins.</t>
   </si>
   <si>
-    <t>You begin with the "zombie" condition. The "zombie" condition changes a player’s allegiance to Team Zombie. Any player that card shares or color shares with a member of Team Zombie gains the "zombie" condition. New members of Team Zombie maintain their powers and conditions, but their allegiance (and win condition) changes to Team Zombie.</t>
-  </si>
-  <si>
-    <t>If all players without the “dead” condition at the end of the game are on Team Zombie, Team Zombie wins.</t>
+    <t>X</t>
   </si>
   <si>
     <t>Clone</t>
@@ -1115,9 +1082,6 @@
   </si>
   <si>
     <t>Baby, it's cold outside</t>
-  </si>
-  <si>
-    <t>No one's above the law, except me</t>
   </si>
   <si>
     <t>Stop in the name of the Law!</t>
@@ -1211,6 +1175,120 @@
   </si>
   <si>
     <t>The name's Bond.</t>
+  </si>
+  <si>
+    <t>BRAINS!</t>
+  </si>
+  <si>
+    <t>I saw everything</t>
+  </si>
+  <si>
+    <t>Is it a full moon?</t>
+  </si>
+  <si>
+    <t>Next in line</t>
+  </si>
+  <si>
+    <t>Keep your head down</t>
+  </si>
+  <si>
+    <t>Let's talk</t>
+  </si>
+  <si>
+    <t>No one's above the law, but me</t>
+  </si>
+  <si>
+    <t>Lucky me</t>
+  </si>
+  <si>
+    <t>I just want to live</t>
+  </si>
+  <si>
+    <t>I don’t want to be shot</t>
+  </si>
+  <si>
+    <t>I do as the master says</t>
+  </si>
+  <si>
+    <t>What should we create today?</t>
+  </si>
+  <si>
+    <t>Don't hold on too long, or do</t>
+  </si>
+  <si>
+    <t>Let's make toast</t>
+  </si>
+  <si>
+    <t>*crack*</t>
+  </si>
+  <si>
+    <t>Instant BOOM</t>
+  </si>
+  <si>
+    <t>Do as I say</t>
+  </si>
+  <si>
+    <t>I create hate</t>
+  </si>
+  <si>
+    <t>Money, Money, Money!</t>
+  </si>
+  <si>
+    <t>Everyone is equal</t>
+  </si>
+  <si>
+    <t>Why should I share?</t>
+  </si>
+  <si>
+    <t>I know things you dream of</t>
+  </si>
+  <si>
+    <t>We are always watching you</t>
+  </si>
+  <si>
+    <t>Grab and Hold</t>
+  </si>
+  <si>
+    <t>So, how are you feeling today?</t>
+  </si>
+  <si>
+    <t>Watch the world BURN</t>
+  </si>
+  <si>
+    <t>Off with their heads.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You begin with the "foolish" condition and can never turn down an offer to share. You also have the "leprechaun" power. Any player that card shares or color shares with you immediately trades cards with you. Both players assume the powers and the allegiance of the newly acquired cards. </t>
+  </si>
+  <si>
+    <t>You have the "mad scientist" power. Once per game, you may privately reveal your card to two players. You say to the players, "You MUST trade cards." Those two players must trade character cards. You can not use this power on yourself.</t>
+  </si>
+  <si>
+    <t>You have the "hypnotist" power. Any player that card shares with you gains the "hypnotized" condition. They must act as if they are the character that you suggest. You start by saying, "You think you are the _." "Hypnotized" players do not gain nor lose their power or allegiance.</t>
+  </si>
+  <si>
+    <t>You are one of the two alpha wolves and have the "werewolf" power. Any player that card shares or color shares with you or someone with the "bitten" condition gains the "bitten" condition. All “bitten” players must answer any question EITHER of the alpha wolves ask as honestly and informatively as possible.</t>
+  </si>
+  <si>
+    <t>You begin with the "zombie" condition. This changes a player’s allegiance to Team Zombie. Any player that card shares or color shares with a member of Team Zombie gains the "zombie" condition. Members maintain their powers and conditions, but their win condition changes to Team Zombie.</t>
+  </si>
+  <si>
+    <t>Before the game begins, but after character cards have been dealt, everyone is to close their eyes and publicly reveal their cards. Only the Seers may open their eyes and move freely throughout the play areas. You begin the game with the "shy" condition and may not reveal any part of their card.</t>
+  </si>
+  <si>
+    <t>You have the "rat" power. Once per game you publicly reveal your card, then go to the opposing room. There, you are immune to all powers and conditions. In the other room Rats can not take part in votes and can not be a hostage. You must return to your original room before the end of the round or you lose.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you trades cards with you and then acquires the "shy" condition, meaning they can't reveal any part of their card. They assume the allegiance of the Identity Thief card, and you assume the powers, allegiance, win objectives, and all starting conditions of the newly stolen card.</t>
+  </si>
+  <si>
+    <t>You have the "switch-a-roo" power. During any round but the last, you publicly reveal your card. Then leave your current room, and IMMEDIATELY choose a player, show them your card and tell them, “I’m kicking you out.” You stay, but your target player must leave the current room and go into the opposing room.</t>
+  </si>
+  <si>
+    <t>You have the "tackle" power. You may publicly reveal your card, pick any player in the room and tell them, "You're going nowhere." If the target you "tackle" is not on the same team as you, they gain the "tackled" condition and can't leave as a hostage this round. If they are a member of your own team, then they gain the “torn” condition, and must permanently publicly reveal their card.</t>
+  </si>
+  <si>
+    <t>If you... (1) are a room’s leader (2) have selected hostages (3) are between rounds (4) and are waiting for the other room’s leader... you may yell "I’m a raging one! I’m a raging two! ..." continuing till the leader shows up or you say "I’m a raging ten!" If you finish "I’m a raging ten!" then you win and all other players lose.</t>
   </si>
 </sst>
 </file>
@@ -1581,24 +1659,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1319201-7300-864A-9EB3-B86618CE3873}">
-  <dimension ref="A1:WHQ206"/>
+  <dimension ref="A1:WHR206"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A184" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C197" sqref="C197"/>
+      <selection pane="bottomLeft" activeCell="E168" sqref="E168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="7.5" customWidth="1"/>
-    <col min="3" max="3" width="20.33203125" customWidth="1"/>
-    <col min="4" max="4" width="112.6640625" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="3" max="3" width="30.1640625" customWidth="1"/>
+    <col min="4" max="4" width="7.83203125" customWidth="1"/>
+    <col min="5" max="5" width="112.6640625" customWidth="1"/>
+    <col min="6" max="6" width="60.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>219</v>
       </c>
@@ -1608,20 +1687,20 @@
       <c r="C1" s="1" t="s">
         <v>220</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>221</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>222</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="2" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1629,19 +1708,19 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D2" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -1649,19 +1728,19 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>362</v>
-      </c>
-      <c r="D3" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="F3" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G3" s="1">
+      <c r="H3" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -1669,19 +1748,19 @@
         <v>224</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="D4" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1691,41 +1770,40 @@
       <c r="C5" s="1" t="s">
         <v>208</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="E5" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="G5" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>71</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="C6" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>226</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <v>1</v>
       </c>
-      <c r="BO6" s="1" t="str">
-        <f t="shared" ref="BO6:DZ6" si="0">UPPER(BN6)</f>
-        <v/>
-      </c>
       <c r="BP6" s="1" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="BP6:EA6" si="0">UPPER(BO6)</f>
         <v/>
       </c>
       <c r="BQ6" s="1" t="str">
@@ -1977,11 +2055,11 @@
         <v/>
       </c>
       <c r="EA6" s="1" t="str">
-        <f t="shared" ref="EA6:GL6" si="1">UPPER(DZ6)</f>
+        <f t="shared" si="0"/>
         <v/>
       </c>
       <c r="EB6" s="1" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="EB6:GM6" si="1">UPPER(EA6)</f>
         <v/>
       </c>
       <c r="EC6" s="1" t="str">
@@ -2233,11 +2311,11 @@
         <v/>
       </c>
       <c r="GM6" s="1" t="str">
-        <f t="shared" ref="GM6:IX6" si="2">UPPER(GL6)</f>
+        <f t="shared" si="1"/>
         <v/>
       </c>
       <c r="GN6" s="1" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="GN6:IY6" si="2">UPPER(GM6)</f>
         <v/>
       </c>
       <c r="GO6" s="1" t="str">
@@ -2489,11 +2567,11 @@
         <v/>
       </c>
       <c r="IY6" s="1" t="str">
-        <f t="shared" ref="IY6:LJ6" si="3">UPPER(IX6)</f>
+        <f t="shared" si="2"/>
         <v/>
       </c>
       <c r="IZ6" s="1" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="IZ6:LK6" si="3">UPPER(IY6)</f>
         <v/>
       </c>
       <c r="JA6" s="1" t="str">
@@ -2745,11 +2823,11 @@
         <v/>
       </c>
       <c r="LK6" s="1" t="str">
-        <f t="shared" ref="LK6:NV6" si="4">UPPER(LJ6)</f>
+        <f t="shared" si="3"/>
         <v/>
       </c>
       <c r="LL6" s="1" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" ref="LL6:NW6" si="4">UPPER(LK6)</f>
         <v/>
       </c>
       <c r="LM6" s="1" t="str">
@@ -3001,11 +3079,11 @@
         <v/>
       </c>
       <c r="NW6" s="1" t="str">
-        <f t="shared" ref="NW6:QH6" si="5">UPPER(NV6)</f>
+        <f t="shared" si="4"/>
         <v/>
       </c>
       <c r="NX6" s="1" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="NX6:QI6" si="5">UPPER(NW6)</f>
         <v/>
       </c>
       <c r="NY6" s="1" t="str">
@@ -3257,11 +3335,11 @@
         <v/>
       </c>
       <c r="QI6" s="1" t="str">
-        <f t="shared" ref="QI6:ST6" si="6">UPPER(QH6)</f>
+        <f t="shared" si="5"/>
         <v/>
       </c>
       <c r="QJ6" s="1" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="QJ6:SU6" si="6">UPPER(QI6)</f>
         <v/>
       </c>
       <c r="QK6" s="1" t="str">
@@ -3513,11 +3591,11 @@
         <v/>
       </c>
       <c r="SU6" s="1" t="str">
-        <f t="shared" ref="SU6:VF6" si="7">UPPER(ST6)</f>
+        <f t="shared" si="6"/>
         <v/>
       </c>
       <c r="SV6" s="1" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" ref="SV6:VG6" si="7">UPPER(SU6)</f>
         <v/>
       </c>
       <c r="SW6" s="1" t="str">
@@ -3769,11 +3847,11 @@
         <v/>
       </c>
       <c r="VG6" s="1" t="str">
-        <f t="shared" ref="VG6:XR6" si="8">UPPER(VF6)</f>
+        <f t="shared" si="7"/>
         <v/>
       </c>
       <c r="VH6" s="1" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="VH6:XS6" si="8">UPPER(VG6)</f>
         <v/>
       </c>
       <c r="VI6" s="1" t="str">
@@ -4025,11 +4103,11 @@
         <v/>
       </c>
       <c r="XS6" s="1" t="str">
-        <f t="shared" ref="XS6:AAD6" si="9">UPPER(XR6)</f>
+        <f t="shared" si="8"/>
         <v/>
       </c>
       <c r="XT6" s="1" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" ref="XT6:AAE6" si="9">UPPER(XS6)</f>
         <v/>
       </c>
       <c r="XU6" s="1" t="str">
@@ -4281,11 +4359,11 @@
         <v/>
       </c>
       <c r="AAE6" s="1" t="str">
-        <f t="shared" ref="AAE6:ACP6" si="10">UPPER(AAD6)</f>
+        <f t="shared" si="9"/>
         <v/>
       </c>
       <c r="AAF6" s="1" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="AAF6:ACQ6" si="10">UPPER(AAE6)</f>
         <v/>
       </c>
       <c r="AAG6" s="1" t="str">
@@ -4537,11 +4615,11 @@
         <v/>
       </c>
       <c r="ACQ6" s="1" t="str">
-        <f t="shared" ref="ACQ6:AFB6" si="11">UPPER(ACP6)</f>
+        <f t="shared" si="10"/>
         <v/>
       </c>
       <c r="ACR6" s="1" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" ref="ACR6:AFC6" si="11">UPPER(ACQ6)</f>
         <v/>
       </c>
       <c r="ACS6" s="1" t="str">
@@ -4793,11 +4871,11 @@
         <v/>
       </c>
       <c r="AFC6" s="1" t="str">
-        <f t="shared" ref="AFC6:AHN6" si="12">UPPER(AFB6)</f>
+        <f t="shared" si="11"/>
         <v/>
       </c>
       <c r="AFD6" s="1" t="str">
-        <f t="shared" si="12"/>
+        <f t="shared" ref="AFD6:AHO6" si="12">UPPER(AFC6)</f>
         <v/>
       </c>
       <c r="AFE6" s="1" t="str">
@@ -5049,11 +5127,11 @@
         <v/>
       </c>
       <c r="AHO6" s="1" t="str">
-        <f t="shared" ref="AHO6:AJZ6" si="13">UPPER(AHN6)</f>
+        <f t="shared" si="12"/>
         <v/>
       </c>
       <c r="AHP6" s="1" t="str">
-        <f t="shared" si="13"/>
+        <f t="shared" ref="AHP6:AKA6" si="13">UPPER(AHO6)</f>
         <v/>
       </c>
       <c r="AHQ6" s="1" t="str">
@@ -5305,11 +5383,11 @@
         <v/>
       </c>
       <c r="AKA6" s="1" t="str">
-        <f t="shared" ref="AKA6:AML6" si="14">UPPER(AJZ6)</f>
+        <f t="shared" si="13"/>
         <v/>
       </c>
       <c r="AKB6" s="1" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" ref="AKB6:AMM6" si="14">UPPER(AKA6)</f>
         <v/>
       </c>
       <c r="AKC6" s="1" t="str">
@@ -5561,11 +5639,11 @@
         <v/>
       </c>
       <c r="AMM6" s="1" t="str">
-        <f t="shared" ref="AMM6:AOX6" si="15">UPPER(AML6)</f>
+        <f t="shared" si="14"/>
         <v/>
       </c>
       <c r="AMN6" s="1" t="str">
-        <f t="shared" si="15"/>
+        <f t="shared" ref="AMN6:AOY6" si="15">UPPER(AMM6)</f>
         <v/>
       </c>
       <c r="AMO6" s="1" t="str">
@@ -5817,11 +5895,11 @@
         <v/>
       </c>
       <c r="AOY6" s="1" t="str">
-        <f t="shared" ref="AOY6:ARJ6" si="16">UPPER(AOX6)</f>
+        <f t="shared" si="15"/>
         <v/>
       </c>
       <c r="AOZ6" s="1" t="str">
-        <f t="shared" si="16"/>
+        <f t="shared" ref="AOZ6:ARK6" si="16">UPPER(AOY6)</f>
         <v/>
       </c>
       <c r="APA6" s="1" t="str">
@@ -6073,11 +6151,11 @@
         <v/>
       </c>
       <c r="ARK6" s="1" t="str">
-        <f t="shared" ref="ARK6:ATV6" si="17">UPPER(ARJ6)</f>
+        <f t="shared" si="16"/>
         <v/>
       </c>
       <c r="ARL6" s="1" t="str">
-        <f t="shared" si="17"/>
+        <f t="shared" ref="ARL6:ATW6" si="17">UPPER(ARK6)</f>
         <v/>
       </c>
       <c r="ARM6" s="1" t="str">
@@ -6329,11 +6407,11 @@
         <v/>
       </c>
       <c r="ATW6" s="1" t="str">
-        <f t="shared" ref="ATW6:AWH6" si="18">UPPER(ATV6)</f>
+        <f t="shared" si="17"/>
         <v/>
       </c>
       <c r="ATX6" s="1" t="str">
-        <f t="shared" si="18"/>
+        <f t="shared" ref="ATX6:AWI6" si="18">UPPER(ATW6)</f>
         <v/>
       </c>
       <c r="ATY6" s="1" t="str">
@@ -6585,11 +6663,11 @@
         <v/>
       </c>
       <c r="AWI6" s="1" t="str">
-        <f t="shared" ref="AWI6:AYT6" si="19">UPPER(AWH6)</f>
+        <f t="shared" si="18"/>
         <v/>
       </c>
       <c r="AWJ6" s="1" t="str">
-        <f t="shared" si="19"/>
+        <f t="shared" ref="AWJ6:AYU6" si="19">UPPER(AWI6)</f>
         <v/>
       </c>
       <c r="AWK6" s="1" t="str">
@@ -6841,11 +6919,11 @@
         <v/>
       </c>
       <c r="AYU6" s="1" t="str">
-        <f t="shared" ref="AYU6:BBF6" si="20">UPPER(AYT6)</f>
+        <f t="shared" si="19"/>
         <v/>
       </c>
       <c r="AYV6" s="1" t="str">
-        <f t="shared" si="20"/>
+        <f t="shared" ref="AYV6:BBG6" si="20">UPPER(AYU6)</f>
         <v/>
       </c>
       <c r="AYW6" s="1" t="str">
@@ -7097,11 +7175,11 @@
         <v/>
       </c>
       <c r="BBG6" s="1" t="str">
-        <f t="shared" ref="BBG6:BDR6" si="21">UPPER(BBF6)</f>
+        <f t="shared" si="20"/>
         <v/>
       </c>
       <c r="BBH6" s="1" t="str">
-        <f t="shared" si="21"/>
+        <f t="shared" ref="BBH6:BDS6" si="21">UPPER(BBG6)</f>
         <v/>
       </c>
       <c r="BBI6" s="1" t="str">
@@ -7353,11 +7431,11 @@
         <v/>
       </c>
       <c r="BDS6" s="1" t="str">
-        <f t="shared" ref="BDS6:BGD6" si="22">UPPER(BDR6)</f>
+        <f t="shared" si="21"/>
         <v/>
       </c>
       <c r="BDT6" s="1" t="str">
-        <f t="shared" si="22"/>
+        <f t="shared" ref="BDT6:BGE6" si="22">UPPER(BDS6)</f>
         <v/>
       </c>
       <c r="BDU6" s="1" t="str">
@@ -7609,11 +7687,11 @@
         <v/>
       </c>
       <c r="BGE6" s="1" t="str">
-        <f t="shared" ref="BGE6:BIP6" si="23">UPPER(BGD6)</f>
+        <f t="shared" si="22"/>
         <v/>
       </c>
       <c r="BGF6" s="1" t="str">
-        <f t="shared" si="23"/>
+        <f t="shared" ref="BGF6:BIQ6" si="23">UPPER(BGE6)</f>
         <v/>
       </c>
       <c r="BGG6" s="1" t="str">
@@ -7865,11 +7943,11 @@
         <v/>
       </c>
       <c r="BIQ6" s="1" t="str">
-        <f t="shared" ref="BIQ6:BLB6" si="24">UPPER(BIP6)</f>
+        <f t="shared" si="23"/>
         <v/>
       </c>
       <c r="BIR6" s="1" t="str">
-        <f t="shared" si="24"/>
+        <f t="shared" ref="BIR6:BLC6" si="24">UPPER(BIQ6)</f>
         <v/>
       </c>
       <c r="BIS6" s="1" t="str">
@@ -8121,11 +8199,11 @@
         <v/>
       </c>
       <c r="BLC6" s="1" t="str">
-        <f t="shared" ref="BLC6:BNN6" si="25">UPPER(BLB6)</f>
+        <f t="shared" si="24"/>
         <v/>
       </c>
       <c r="BLD6" s="1" t="str">
-        <f t="shared" si="25"/>
+        <f t="shared" ref="BLD6:BNO6" si="25">UPPER(BLC6)</f>
         <v/>
       </c>
       <c r="BLE6" s="1" t="str">
@@ -8377,11 +8455,11 @@
         <v/>
       </c>
       <c r="BNO6" s="1" t="str">
-        <f t="shared" ref="BNO6:BPZ6" si="26">UPPER(BNN6)</f>
+        <f t="shared" si="25"/>
         <v/>
       </c>
       <c r="BNP6" s="1" t="str">
-        <f t="shared" si="26"/>
+        <f t="shared" ref="BNP6:BQA6" si="26">UPPER(BNO6)</f>
         <v/>
       </c>
       <c r="BNQ6" s="1" t="str">
@@ -8633,11 +8711,11 @@
         <v/>
       </c>
       <c r="BQA6" s="1" t="str">
-        <f t="shared" ref="BQA6:BSL6" si="27">UPPER(BPZ6)</f>
+        <f t="shared" si="26"/>
         <v/>
       </c>
       <c r="BQB6" s="1" t="str">
-        <f t="shared" si="27"/>
+        <f t="shared" ref="BQB6:BSM6" si="27">UPPER(BQA6)</f>
         <v/>
       </c>
       <c r="BQC6" s="1" t="str">
@@ -8889,11 +8967,11 @@
         <v/>
       </c>
       <c r="BSM6" s="1" t="str">
-        <f t="shared" ref="BSM6:BUX6" si="28">UPPER(BSL6)</f>
+        <f t="shared" si="27"/>
         <v/>
       </c>
       <c r="BSN6" s="1" t="str">
-        <f t="shared" si="28"/>
+        <f t="shared" ref="BSN6:BUY6" si="28">UPPER(BSM6)</f>
         <v/>
       </c>
       <c r="BSO6" s="1" t="str">
@@ -9145,11 +9223,11 @@
         <v/>
       </c>
       <c r="BUY6" s="1" t="str">
-        <f t="shared" ref="BUY6:BXJ6" si="29">UPPER(BUX6)</f>
+        <f t="shared" si="28"/>
         <v/>
       </c>
       <c r="BUZ6" s="1" t="str">
-        <f t="shared" si="29"/>
+        <f t="shared" ref="BUZ6:BXK6" si="29">UPPER(BUY6)</f>
         <v/>
       </c>
       <c r="BVA6" s="1" t="str">
@@ -9401,11 +9479,11 @@
         <v/>
       </c>
       <c r="BXK6" s="1" t="str">
-        <f t="shared" ref="BXK6:BZV6" si="30">UPPER(BXJ6)</f>
+        <f t="shared" si="29"/>
         <v/>
       </c>
       <c r="BXL6" s="1" t="str">
-        <f t="shared" si="30"/>
+        <f t="shared" ref="BXL6:BZW6" si="30">UPPER(BXK6)</f>
         <v/>
       </c>
       <c r="BXM6" s="1" t="str">
@@ -9657,11 +9735,11 @@
         <v/>
       </c>
       <c r="BZW6" s="1" t="str">
-        <f t="shared" ref="BZW6:CCH6" si="31">UPPER(BZV6)</f>
+        <f t="shared" si="30"/>
         <v/>
       </c>
       <c r="BZX6" s="1" t="str">
-        <f t="shared" si="31"/>
+        <f t="shared" ref="BZX6:CCI6" si="31">UPPER(BZW6)</f>
         <v/>
       </c>
       <c r="BZY6" s="1" t="str">
@@ -9913,11 +9991,11 @@
         <v/>
       </c>
       <c r="CCI6" s="1" t="str">
-        <f t="shared" ref="CCI6:CET6" si="32">UPPER(CCH6)</f>
+        <f t="shared" si="31"/>
         <v/>
       </c>
       <c r="CCJ6" s="1" t="str">
-        <f t="shared" si="32"/>
+        <f t="shared" ref="CCJ6:CEU6" si="32">UPPER(CCI6)</f>
         <v/>
       </c>
       <c r="CCK6" s="1" t="str">
@@ -10169,11 +10247,11 @@
         <v/>
       </c>
       <c r="CEU6" s="1" t="str">
-        <f t="shared" ref="CEU6:CHF6" si="33">UPPER(CET6)</f>
+        <f t="shared" si="32"/>
         <v/>
       </c>
       <c r="CEV6" s="1" t="str">
-        <f t="shared" si="33"/>
+        <f t="shared" ref="CEV6:CHG6" si="33">UPPER(CEU6)</f>
         <v/>
       </c>
       <c r="CEW6" s="1" t="str">
@@ -10425,11 +10503,11 @@
         <v/>
       </c>
       <c r="CHG6" s="1" t="str">
-        <f t="shared" ref="CHG6:CJR6" si="34">UPPER(CHF6)</f>
+        <f t="shared" si="33"/>
         <v/>
       </c>
       <c r="CHH6" s="1" t="str">
-        <f t="shared" si="34"/>
+        <f t="shared" ref="CHH6:CJS6" si="34">UPPER(CHG6)</f>
         <v/>
       </c>
       <c r="CHI6" s="1" t="str">
@@ -10681,11 +10759,11 @@
         <v/>
       </c>
       <c r="CJS6" s="1" t="str">
-        <f t="shared" ref="CJS6:CMD6" si="35">UPPER(CJR6)</f>
+        <f t="shared" si="34"/>
         <v/>
       </c>
       <c r="CJT6" s="1" t="str">
-        <f t="shared" si="35"/>
+        <f t="shared" ref="CJT6:CME6" si="35">UPPER(CJS6)</f>
         <v/>
       </c>
       <c r="CJU6" s="1" t="str">
@@ -10937,11 +11015,11 @@
         <v/>
       </c>
       <c r="CME6" s="1" t="str">
-        <f t="shared" ref="CME6:COP6" si="36">UPPER(CMD6)</f>
+        <f t="shared" si="35"/>
         <v/>
       </c>
       <c r="CMF6" s="1" t="str">
-        <f t="shared" si="36"/>
+        <f t="shared" ref="CMF6:COQ6" si="36">UPPER(CME6)</f>
         <v/>
       </c>
       <c r="CMG6" s="1" t="str">
@@ -11193,11 +11271,11 @@
         <v/>
       </c>
       <c r="COQ6" s="1" t="str">
-        <f t="shared" ref="COQ6:CRB6" si="37">UPPER(COP6)</f>
+        <f t="shared" si="36"/>
         <v/>
       </c>
       <c r="COR6" s="1" t="str">
-        <f t="shared" si="37"/>
+        <f t="shared" ref="COR6:CRC6" si="37">UPPER(COQ6)</f>
         <v/>
       </c>
       <c r="COS6" s="1" t="str">
@@ -11449,11 +11527,11 @@
         <v/>
       </c>
       <c r="CRC6" s="1" t="str">
-        <f t="shared" ref="CRC6:CTN6" si="38">UPPER(CRB6)</f>
+        <f t="shared" si="37"/>
         <v/>
       </c>
       <c r="CRD6" s="1" t="str">
-        <f t="shared" si="38"/>
+        <f t="shared" ref="CRD6:CTO6" si="38">UPPER(CRC6)</f>
         <v/>
       </c>
       <c r="CRE6" s="1" t="str">
@@ -11705,11 +11783,11 @@
         <v/>
       </c>
       <c r="CTO6" s="1" t="str">
-        <f t="shared" ref="CTO6:CVZ6" si="39">UPPER(CTN6)</f>
+        <f t="shared" si="38"/>
         <v/>
       </c>
       <c r="CTP6" s="1" t="str">
-        <f t="shared" si="39"/>
+        <f t="shared" ref="CTP6:CWA6" si="39">UPPER(CTO6)</f>
         <v/>
       </c>
       <c r="CTQ6" s="1" t="str">
@@ -11961,11 +12039,11 @@
         <v/>
       </c>
       <c r="CWA6" s="1" t="str">
-        <f t="shared" ref="CWA6:CYL6" si="40">UPPER(CVZ6)</f>
+        <f t="shared" si="39"/>
         <v/>
       </c>
       <c r="CWB6" s="1" t="str">
-        <f t="shared" si="40"/>
+        <f t="shared" ref="CWB6:CYM6" si="40">UPPER(CWA6)</f>
         <v/>
       </c>
       <c r="CWC6" s="1" t="str">
@@ -12217,11 +12295,11 @@
         <v/>
       </c>
       <c r="CYM6" s="1" t="str">
-        <f t="shared" ref="CYM6:DAX6" si="41">UPPER(CYL6)</f>
+        <f t="shared" si="40"/>
         <v/>
       </c>
       <c r="CYN6" s="1" t="str">
-        <f t="shared" si="41"/>
+        <f t="shared" ref="CYN6:DAY6" si="41">UPPER(CYM6)</f>
         <v/>
       </c>
       <c r="CYO6" s="1" t="str">
@@ -12473,11 +12551,11 @@
         <v/>
       </c>
       <c r="DAY6" s="1" t="str">
-        <f t="shared" ref="DAY6:DDJ6" si="42">UPPER(DAX6)</f>
+        <f t="shared" si="41"/>
         <v/>
       </c>
       <c r="DAZ6" s="1" t="str">
-        <f t="shared" si="42"/>
+        <f t="shared" ref="DAZ6:DDK6" si="42">UPPER(DAY6)</f>
         <v/>
       </c>
       <c r="DBA6" s="1" t="str">
@@ -12729,11 +12807,11 @@
         <v/>
       </c>
       <c r="DDK6" s="1" t="str">
-        <f t="shared" ref="DDK6:DFV6" si="43">UPPER(DDJ6)</f>
+        <f t="shared" si="42"/>
         <v/>
       </c>
       <c r="DDL6" s="1" t="str">
-        <f t="shared" si="43"/>
+        <f t="shared" ref="DDL6:DFW6" si="43">UPPER(DDK6)</f>
         <v/>
       </c>
       <c r="DDM6" s="1" t="str">
@@ -12985,11 +13063,11 @@
         <v/>
       </c>
       <c r="DFW6" s="1" t="str">
-        <f t="shared" ref="DFW6:DIH6" si="44">UPPER(DFV6)</f>
+        <f t="shared" si="43"/>
         <v/>
       </c>
       <c r="DFX6" s="1" t="str">
-        <f t="shared" si="44"/>
+        <f t="shared" ref="DFX6:DII6" si="44">UPPER(DFW6)</f>
         <v/>
       </c>
       <c r="DFY6" s="1" t="str">
@@ -13241,11 +13319,11 @@
         <v/>
       </c>
       <c r="DII6" s="1" t="str">
-        <f t="shared" ref="DII6:DKT6" si="45">UPPER(DIH6)</f>
+        <f t="shared" si="44"/>
         <v/>
       </c>
       <c r="DIJ6" s="1" t="str">
-        <f t="shared" si="45"/>
+        <f t="shared" ref="DIJ6:DKU6" si="45">UPPER(DII6)</f>
         <v/>
       </c>
       <c r="DIK6" s="1" t="str">
@@ -13497,11 +13575,11 @@
         <v/>
       </c>
       <c r="DKU6" s="1" t="str">
-        <f t="shared" ref="DKU6:DNF6" si="46">UPPER(DKT6)</f>
+        <f t="shared" si="45"/>
         <v/>
       </c>
       <c r="DKV6" s="1" t="str">
-        <f t="shared" si="46"/>
+        <f t="shared" ref="DKV6:DNG6" si="46">UPPER(DKU6)</f>
         <v/>
       </c>
       <c r="DKW6" s="1" t="str">
@@ -13753,11 +13831,11 @@
         <v/>
       </c>
       <c r="DNG6" s="1" t="str">
-        <f t="shared" ref="DNG6:DPR6" si="47">UPPER(DNF6)</f>
+        <f t="shared" si="46"/>
         <v/>
       </c>
       <c r="DNH6" s="1" t="str">
-        <f t="shared" si="47"/>
+        <f t="shared" ref="DNH6:DPS6" si="47">UPPER(DNG6)</f>
         <v/>
       </c>
       <c r="DNI6" s="1" t="str">
@@ -14009,11 +14087,11 @@
         <v/>
       </c>
       <c r="DPS6" s="1" t="str">
-        <f t="shared" ref="DPS6:DSD6" si="48">UPPER(DPR6)</f>
+        <f t="shared" si="47"/>
         <v/>
       </c>
       <c r="DPT6" s="1" t="str">
-        <f t="shared" si="48"/>
+        <f t="shared" ref="DPT6:DSE6" si="48">UPPER(DPS6)</f>
         <v/>
       </c>
       <c r="DPU6" s="1" t="str">
@@ -14265,11 +14343,11 @@
         <v/>
       </c>
       <c r="DSE6" s="1" t="str">
-        <f t="shared" ref="DSE6:DUP6" si="49">UPPER(DSD6)</f>
+        <f t="shared" si="48"/>
         <v/>
       </c>
       <c r="DSF6" s="1" t="str">
-        <f t="shared" si="49"/>
+        <f t="shared" ref="DSF6:DUQ6" si="49">UPPER(DSE6)</f>
         <v/>
       </c>
       <c r="DSG6" s="1" t="str">
@@ -14521,11 +14599,11 @@
         <v/>
       </c>
       <c r="DUQ6" s="1" t="str">
-        <f t="shared" ref="DUQ6:DXB6" si="50">UPPER(DUP6)</f>
+        <f t="shared" si="49"/>
         <v/>
       </c>
       <c r="DUR6" s="1" t="str">
-        <f t="shared" si="50"/>
+        <f t="shared" ref="DUR6:DXC6" si="50">UPPER(DUQ6)</f>
         <v/>
       </c>
       <c r="DUS6" s="1" t="str">
@@ -14777,11 +14855,11 @@
         <v/>
       </c>
       <c r="DXC6" s="1" t="str">
-        <f t="shared" ref="DXC6:DZN6" si="51">UPPER(DXB6)</f>
+        <f t="shared" si="50"/>
         <v/>
       </c>
       <c r="DXD6" s="1" t="str">
-        <f t="shared" si="51"/>
+        <f t="shared" ref="DXD6:DZO6" si="51">UPPER(DXC6)</f>
         <v/>
       </c>
       <c r="DXE6" s="1" t="str">
@@ -15033,11 +15111,11 @@
         <v/>
       </c>
       <c r="DZO6" s="1" t="str">
-        <f t="shared" ref="DZO6:EBZ6" si="52">UPPER(DZN6)</f>
+        <f t="shared" si="51"/>
         <v/>
       </c>
       <c r="DZP6" s="1" t="str">
-        <f t="shared" si="52"/>
+        <f t="shared" ref="DZP6:ECA6" si="52">UPPER(DZO6)</f>
         <v/>
       </c>
       <c r="DZQ6" s="1" t="str">
@@ -15289,11 +15367,11 @@
         <v/>
       </c>
       <c r="ECA6" s="1" t="str">
-        <f t="shared" ref="ECA6:EEL6" si="53">UPPER(EBZ6)</f>
+        <f t="shared" si="52"/>
         <v/>
       </c>
       <c r="ECB6" s="1" t="str">
-        <f t="shared" si="53"/>
+        <f t="shared" ref="ECB6:EEM6" si="53">UPPER(ECA6)</f>
         <v/>
       </c>
       <c r="ECC6" s="1" t="str">
@@ -15545,11 +15623,11 @@
         <v/>
       </c>
       <c r="EEM6" s="1" t="str">
-        <f t="shared" ref="EEM6:EGX6" si="54">UPPER(EEL6)</f>
+        <f t="shared" si="53"/>
         <v/>
       </c>
       <c r="EEN6" s="1" t="str">
-        <f t="shared" si="54"/>
+        <f t="shared" ref="EEN6:EGY6" si="54">UPPER(EEM6)</f>
         <v/>
       </c>
       <c r="EEO6" s="1" t="str">
@@ -15801,11 +15879,11 @@
         <v/>
       </c>
       <c r="EGY6" s="1" t="str">
-        <f t="shared" ref="EGY6:EJJ6" si="55">UPPER(EGX6)</f>
+        <f t="shared" si="54"/>
         <v/>
       </c>
       <c r="EGZ6" s="1" t="str">
-        <f t="shared" si="55"/>
+        <f t="shared" ref="EGZ6:EJK6" si="55">UPPER(EGY6)</f>
         <v/>
       </c>
       <c r="EHA6" s="1" t="str">
@@ -16057,11 +16135,11 @@
         <v/>
       </c>
       <c r="EJK6" s="1" t="str">
-        <f t="shared" ref="EJK6:ELV6" si="56">UPPER(EJJ6)</f>
+        <f t="shared" si="55"/>
         <v/>
       </c>
       <c r="EJL6" s="1" t="str">
-        <f t="shared" si="56"/>
+        <f t="shared" ref="EJL6:ELW6" si="56">UPPER(EJK6)</f>
         <v/>
       </c>
       <c r="EJM6" s="1" t="str">
@@ -16313,11 +16391,11 @@
         <v/>
       </c>
       <c r="ELW6" s="1" t="str">
-        <f t="shared" ref="ELW6:EOH6" si="57">UPPER(ELV6)</f>
+        <f t="shared" si="56"/>
         <v/>
       </c>
       <c r="ELX6" s="1" t="str">
-        <f t="shared" si="57"/>
+        <f t="shared" ref="ELX6:EOI6" si="57">UPPER(ELW6)</f>
         <v/>
       </c>
       <c r="ELY6" s="1" t="str">
@@ -16569,11 +16647,11 @@
         <v/>
       </c>
       <c r="EOI6" s="1" t="str">
-        <f t="shared" ref="EOI6:EQT6" si="58">UPPER(EOH6)</f>
+        <f t="shared" si="57"/>
         <v/>
       </c>
       <c r="EOJ6" s="1" t="str">
-        <f t="shared" si="58"/>
+        <f t="shared" ref="EOJ6:EQU6" si="58">UPPER(EOI6)</f>
         <v/>
       </c>
       <c r="EOK6" s="1" t="str">
@@ -16825,11 +16903,11 @@
         <v/>
       </c>
       <c r="EQU6" s="1" t="str">
-        <f t="shared" ref="EQU6:ETF6" si="59">UPPER(EQT6)</f>
+        <f t="shared" si="58"/>
         <v/>
       </c>
       <c r="EQV6" s="1" t="str">
-        <f t="shared" si="59"/>
+        <f t="shared" ref="EQV6:ETG6" si="59">UPPER(EQU6)</f>
         <v/>
       </c>
       <c r="EQW6" s="1" t="str">
@@ -17081,11 +17159,11 @@
         <v/>
       </c>
       <c r="ETG6" s="1" t="str">
-        <f t="shared" ref="ETG6:EVR6" si="60">UPPER(ETF6)</f>
+        <f t="shared" si="59"/>
         <v/>
       </c>
       <c r="ETH6" s="1" t="str">
-        <f t="shared" si="60"/>
+        <f t="shared" ref="ETH6:EVS6" si="60">UPPER(ETG6)</f>
         <v/>
       </c>
       <c r="ETI6" s="1" t="str">
@@ -17337,11 +17415,11 @@
         <v/>
       </c>
       <c r="EVS6" s="1" t="str">
-        <f t="shared" ref="EVS6:EYD6" si="61">UPPER(EVR6)</f>
+        <f t="shared" si="60"/>
         <v/>
       </c>
       <c r="EVT6" s="1" t="str">
-        <f t="shared" si="61"/>
+        <f t="shared" ref="EVT6:EYE6" si="61">UPPER(EVS6)</f>
         <v/>
       </c>
       <c r="EVU6" s="1" t="str">
@@ -17593,11 +17671,11 @@
         <v/>
       </c>
       <c r="EYE6" s="1" t="str">
-        <f t="shared" ref="EYE6:FAP6" si="62">UPPER(EYD6)</f>
+        <f t="shared" si="61"/>
         <v/>
       </c>
       <c r="EYF6" s="1" t="str">
-        <f t="shared" si="62"/>
+        <f t="shared" ref="EYF6:FAQ6" si="62">UPPER(EYE6)</f>
         <v/>
       </c>
       <c r="EYG6" s="1" t="str">
@@ -17849,11 +17927,11 @@
         <v/>
       </c>
       <c r="FAQ6" s="1" t="str">
-        <f t="shared" ref="FAQ6:FDB6" si="63">UPPER(FAP6)</f>
+        <f t="shared" si="62"/>
         <v/>
       </c>
       <c r="FAR6" s="1" t="str">
-        <f t="shared" si="63"/>
+        <f t="shared" ref="FAR6:FDC6" si="63">UPPER(FAQ6)</f>
         <v/>
       </c>
       <c r="FAS6" s="1" t="str">
@@ -18105,11 +18183,11 @@
         <v/>
       </c>
       <c r="FDC6" s="1" t="str">
-        <f t="shared" ref="FDC6:FFN6" si="64">UPPER(FDB6)</f>
+        <f t="shared" si="63"/>
         <v/>
       </c>
       <c r="FDD6" s="1" t="str">
-        <f t="shared" si="64"/>
+        <f t="shared" ref="FDD6:FFO6" si="64">UPPER(FDC6)</f>
         <v/>
       </c>
       <c r="FDE6" s="1" t="str">
@@ -18361,11 +18439,11 @@
         <v/>
       </c>
       <c r="FFO6" s="1" t="str">
-        <f t="shared" ref="FFO6:FHZ6" si="65">UPPER(FFN6)</f>
+        <f t="shared" si="64"/>
         <v/>
       </c>
       <c r="FFP6" s="1" t="str">
-        <f t="shared" si="65"/>
+        <f t="shared" ref="FFP6:FIA6" si="65">UPPER(FFO6)</f>
         <v/>
       </c>
       <c r="FFQ6" s="1" t="str">
@@ -18617,11 +18695,11 @@
         <v/>
       </c>
       <c r="FIA6" s="1" t="str">
-        <f t="shared" ref="FIA6:FKL6" si="66">UPPER(FHZ6)</f>
+        <f t="shared" si="65"/>
         <v/>
       </c>
       <c r="FIB6" s="1" t="str">
-        <f t="shared" si="66"/>
+        <f t="shared" ref="FIB6:FKM6" si="66">UPPER(FIA6)</f>
         <v/>
       </c>
       <c r="FIC6" s="1" t="str">
@@ -18873,11 +18951,11 @@
         <v/>
       </c>
       <c r="FKM6" s="1" t="str">
-        <f t="shared" ref="FKM6:FMX6" si="67">UPPER(FKL6)</f>
+        <f t="shared" si="66"/>
         <v/>
       </c>
       <c r="FKN6" s="1" t="str">
-        <f t="shared" si="67"/>
+        <f t="shared" ref="FKN6:FMY6" si="67">UPPER(FKM6)</f>
         <v/>
       </c>
       <c r="FKO6" s="1" t="str">
@@ -19129,11 +19207,11 @@
         <v/>
       </c>
       <c r="FMY6" s="1" t="str">
-        <f t="shared" ref="FMY6:FPJ6" si="68">UPPER(FMX6)</f>
+        <f t="shared" si="67"/>
         <v/>
       </c>
       <c r="FMZ6" s="1" t="str">
-        <f t="shared" si="68"/>
+        <f t="shared" ref="FMZ6:FPK6" si="68">UPPER(FMY6)</f>
         <v/>
       </c>
       <c r="FNA6" s="1" t="str">
@@ -19385,11 +19463,11 @@
         <v/>
       </c>
       <c r="FPK6" s="1" t="str">
-        <f t="shared" ref="FPK6:FRV6" si="69">UPPER(FPJ6)</f>
+        <f t="shared" si="68"/>
         <v/>
       </c>
       <c r="FPL6" s="1" t="str">
-        <f t="shared" si="69"/>
+        <f t="shared" ref="FPL6:FRW6" si="69">UPPER(FPK6)</f>
         <v/>
       </c>
       <c r="FPM6" s="1" t="str">
@@ -19641,11 +19719,11 @@
         <v/>
       </c>
       <c r="FRW6" s="1" t="str">
-        <f t="shared" ref="FRW6:FUH6" si="70">UPPER(FRV6)</f>
+        <f t="shared" si="69"/>
         <v/>
       </c>
       <c r="FRX6" s="1" t="str">
-        <f t="shared" si="70"/>
+        <f t="shared" ref="FRX6:FUI6" si="70">UPPER(FRW6)</f>
         <v/>
       </c>
       <c r="FRY6" s="1" t="str">
@@ -19897,11 +19975,11 @@
         <v/>
       </c>
       <c r="FUI6" s="1" t="str">
-        <f t="shared" ref="FUI6:FWT6" si="71">UPPER(FUH6)</f>
+        <f t="shared" si="70"/>
         <v/>
       </c>
       <c r="FUJ6" s="1" t="str">
-        <f t="shared" si="71"/>
+        <f t="shared" ref="FUJ6:FWU6" si="71">UPPER(FUI6)</f>
         <v/>
       </c>
       <c r="FUK6" s="1" t="str">
@@ -20153,11 +20231,11 @@
         <v/>
       </c>
       <c r="FWU6" s="1" t="str">
-        <f t="shared" ref="FWU6:FZF6" si="72">UPPER(FWT6)</f>
+        <f t="shared" si="71"/>
         <v/>
       </c>
       <c r="FWV6" s="1" t="str">
-        <f t="shared" si="72"/>
+        <f t="shared" ref="FWV6:FZG6" si="72">UPPER(FWU6)</f>
         <v/>
       </c>
       <c r="FWW6" s="1" t="str">
@@ -20409,11 +20487,11 @@
         <v/>
       </c>
       <c r="FZG6" s="1" t="str">
-        <f t="shared" ref="FZG6:GBR6" si="73">UPPER(FZF6)</f>
+        <f t="shared" si="72"/>
         <v/>
       </c>
       <c r="FZH6" s="1" t="str">
-        <f t="shared" si="73"/>
+        <f t="shared" ref="FZH6:GBS6" si="73">UPPER(FZG6)</f>
         <v/>
       </c>
       <c r="FZI6" s="1" t="str">
@@ -20665,11 +20743,11 @@
         <v/>
       </c>
       <c r="GBS6" s="1" t="str">
-        <f t="shared" ref="GBS6:GED6" si="74">UPPER(GBR6)</f>
+        <f t="shared" si="73"/>
         <v/>
       </c>
       <c r="GBT6" s="1" t="str">
-        <f t="shared" si="74"/>
+        <f t="shared" ref="GBT6:GEE6" si="74">UPPER(GBS6)</f>
         <v/>
       </c>
       <c r="GBU6" s="1" t="str">
@@ -20921,11 +20999,11 @@
         <v/>
       </c>
       <c r="GEE6" s="1" t="str">
-        <f t="shared" ref="GEE6:GGP6" si="75">UPPER(GED6)</f>
+        <f t="shared" si="74"/>
         <v/>
       </c>
       <c r="GEF6" s="1" t="str">
-        <f t="shared" si="75"/>
+        <f t="shared" ref="GEF6:GGQ6" si="75">UPPER(GEE6)</f>
         <v/>
       </c>
       <c r="GEG6" s="1" t="str">
@@ -21177,11 +21255,11 @@
         <v/>
       </c>
       <c r="GGQ6" s="1" t="str">
-        <f t="shared" ref="GGQ6:GJB6" si="76">UPPER(GGP6)</f>
+        <f t="shared" si="75"/>
         <v/>
       </c>
       <c r="GGR6" s="1" t="str">
-        <f t="shared" si="76"/>
+        <f t="shared" ref="GGR6:GJC6" si="76">UPPER(GGQ6)</f>
         <v/>
       </c>
       <c r="GGS6" s="1" t="str">
@@ -21433,11 +21511,11 @@
         <v/>
       </c>
       <c r="GJC6" s="1" t="str">
-        <f t="shared" ref="GJC6:GLN6" si="77">UPPER(GJB6)</f>
+        <f t="shared" si="76"/>
         <v/>
       </c>
       <c r="GJD6" s="1" t="str">
-        <f t="shared" si="77"/>
+        <f t="shared" ref="GJD6:GLO6" si="77">UPPER(GJC6)</f>
         <v/>
       </c>
       <c r="GJE6" s="1" t="str">
@@ -21689,11 +21767,11 @@
         <v/>
       </c>
       <c r="GLO6" s="1" t="str">
-        <f t="shared" ref="GLO6:GNZ6" si="78">UPPER(GLN6)</f>
+        <f t="shared" si="77"/>
         <v/>
       </c>
       <c r="GLP6" s="1" t="str">
-        <f t="shared" si="78"/>
+        <f t="shared" ref="GLP6:GOA6" si="78">UPPER(GLO6)</f>
         <v/>
       </c>
       <c r="GLQ6" s="1" t="str">
@@ -21945,11 +22023,11 @@
         <v/>
       </c>
       <c r="GOA6" s="1" t="str">
-        <f t="shared" ref="GOA6:GQL6" si="79">UPPER(GNZ6)</f>
+        <f t="shared" si="78"/>
         <v/>
       </c>
       <c r="GOB6" s="1" t="str">
-        <f t="shared" si="79"/>
+        <f t="shared" ref="GOB6:GQM6" si="79">UPPER(GOA6)</f>
         <v/>
       </c>
       <c r="GOC6" s="1" t="str">
@@ -22201,11 +22279,11 @@
         <v/>
       </c>
       <c r="GQM6" s="1" t="str">
-        <f t="shared" ref="GQM6:GSX6" si="80">UPPER(GQL6)</f>
+        <f t="shared" si="79"/>
         <v/>
       </c>
       <c r="GQN6" s="1" t="str">
-        <f t="shared" si="80"/>
+        <f t="shared" ref="GQN6:GSY6" si="80">UPPER(GQM6)</f>
         <v/>
       </c>
       <c r="GQO6" s="1" t="str">
@@ -22457,11 +22535,11 @@
         <v/>
       </c>
       <c r="GSY6" s="1" t="str">
-        <f t="shared" ref="GSY6:GVJ6" si="81">UPPER(GSX6)</f>
+        <f t="shared" si="80"/>
         <v/>
       </c>
       <c r="GSZ6" s="1" t="str">
-        <f t="shared" si="81"/>
+        <f t="shared" ref="GSZ6:GVK6" si="81">UPPER(GSY6)</f>
         <v/>
       </c>
       <c r="GTA6" s="1" t="str">
@@ -22713,11 +22791,11 @@
         <v/>
       </c>
       <c r="GVK6" s="1" t="str">
-        <f t="shared" ref="GVK6:GXV6" si="82">UPPER(GVJ6)</f>
+        <f t="shared" si="81"/>
         <v/>
       </c>
       <c r="GVL6" s="1" t="str">
-        <f t="shared" si="82"/>
+        <f t="shared" ref="GVL6:GXW6" si="82">UPPER(GVK6)</f>
         <v/>
       </c>
       <c r="GVM6" s="1" t="str">
@@ -22969,11 +23047,11 @@
         <v/>
       </c>
       <c r="GXW6" s="1" t="str">
-        <f t="shared" ref="GXW6:HAH6" si="83">UPPER(GXV6)</f>
+        <f t="shared" si="82"/>
         <v/>
       </c>
       <c r="GXX6" s="1" t="str">
-        <f t="shared" si="83"/>
+        <f t="shared" ref="GXX6:HAI6" si="83">UPPER(GXW6)</f>
         <v/>
       </c>
       <c r="GXY6" s="1" t="str">
@@ -23225,11 +23303,11 @@
         <v/>
       </c>
       <c r="HAI6" s="1" t="str">
-        <f t="shared" ref="HAI6:HCT6" si="84">UPPER(HAH6)</f>
+        <f t="shared" si="83"/>
         <v/>
       </c>
       <c r="HAJ6" s="1" t="str">
-        <f t="shared" si="84"/>
+        <f t="shared" ref="HAJ6:HCU6" si="84">UPPER(HAI6)</f>
         <v/>
       </c>
       <c r="HAK6" s="1" t="str">
@@ -23481,11 +23559,11 @@
         <v/>
       </c>
       <c r="HCU6" s="1" t="str">
-        <f t="shared" ref="HCU6:HFF6" si="85">UPPER(HCT6)</f>
+        <f t="shared" si="84"/>
         <v/>
       </c>
       <c r="HCV6" s="1" t="str">
-        <f t="shared" si="85"/>
+        <f t="shared" ref="HCV6:HFG6" si="85">UPPER(HCU6)</f>
         <v/>
       </c>
       <c r="HCW6" s="1" t="str">
@@ -23737,11 +23815,11 @@
         <v/>
       </c>
       <c r="HFG6" s="1" t="str">
-        <f t="shared" ref="HFG6:HHR6" si="86">UPPER(HFF6)</f>
+        <f t="shared" si="85"/>
         <v/>
       </c>
       <c r="HFH6" s="1" t="str">
-        <f t="shared" si="86"/>
+        <f t="shared" ref="HFH6:HHS6" si="86">UPPER(HFG6)</f>
         <v/>
       </c>
       <c r="HFI6" s="1" t="str">
@@ -23993,11 +24071,11 @@
         <v/>
       </c>
       <c r="HHS6" s="1" t="str">
-        <f t="shared" ref="HHS6:HKD6" si="87">UPPER(HHR6)</f>
+        <f t="shared" si="86"/>
         <v/>
       </c>
       <c r="HHT6" s="1" t="str">
-        <f t="shared" si="87"/>
+        <f t="shared" ref="HHT6:HKE6" si="87">UPPER(HHS6)</f>
         <v/>
       </c>
       <c r="HHU6" s="1" t="str">
@@ -24249,11 +24327,11 @@
         <v/>
       </c>
       <c r="HKE6" s="1" t="str">
-        <f t="shared" ref="HKE6:HMP6" si="88">UPPER(HKD6)</f>
+        <f t="shared" si="87"/>
         <v/>
       </c>
       <c r="HKF6" s="1" t="str">
-        <f t="shared" si="88"/>
+        <f t="shared" ref="HKF6:HMQ6" si="88">UPPER(HKE6)</f>
         <v/>
       </c>
       <c r="HKG6" s="1" t="str">
@@ -24505,11 +24583,11 @@
         <v/>
       </c>
       <c r="HMQ6" s="1" t="str">
-        <f t="shared" ref="HMQ6:HPB6" si="89">UPPER(HMP6)</f>
+        <f t="shared" si="88"/>
         <v/>
       </c>
       <c r="HMR6" s="1" t="str">
-        <f t="shared" si="89"/>
+        <f t="shared" ref="HMR6:HPC6" si="89">UPPER(HMQ6)</f>
         <v/>
       </c>
       <c r="HMS6" s="1" t="str">
@@ -24761,11 +24839,11 @@
         <v/>
       </c>
       <c r="HPC6" s="1" t="str">
-        <f t="shared" ref="HPC6:HRN6" si="90">UPPER(HPB6)</f>
+        <f t="shared" si="89"/>
         <v/>
       </c>
       <c r="HPD6" s="1" t="str">
-        <f t="shared" si="90"/>
+        <f t="shared" ref="HPD6:HRO6" si="90">UPPER(HPC6)</f>
         <v/>
       </c>
       <c r="HPE6" s="1" t="str">
@@ -25017,11 +25095,11 @@
         <v/>
       </c>
       <c r="HRO6" s="1" t="str">
-        <f t="shared" ref="HRO6:HTZ6" si="91">UPPER(HRN6)</f>
+        <f t="shared" si="90"/>
         <v/>
       </c>
       <c r="HRP6" s="1" t="str">
-        <f t="shared" si="91"/>
+        <f t="shared" ref="HRP6:HUA6" si="91">UPPER(HRO6)</f>
         <v/>
       </c>
       <c r="HRQ6" s="1" t="str">
@@ -25273,11 +25351,11 @@
         <v/>
       </c>
       <c r="HUA6" s="1" t="str">
-        <f t="shared" ref="HUA6:HWL6" si="92">UPPER(HTZ6)</f>
+        <f t="shared" si="91"/>
         <v/>
       </c>
       <c r="HUB6" s="1" t="str">
-        <f t="shared" si="92"/>
+        <f t="shared" ref="HUB6:HWM6" si="92">UPPER(HUA6)</f>
         <v/>
       </c>
       <c r="HUC6" s="1" t="str">
@@ -25529,11 +25607,11 @@
         <v/>
       </c>
       <c r="HWM6" s="1" t="str">
-        <f t="shared" ref="HWM6:HYX6" si="93">UPPER(HWL6)</f>
+        <f t="shared" si="92"/>
         <v/>
       </c>
       <c r="HWN6" s="1" t="str">
-        <f t="shared" si="93"/>
+        <f t="shared" ref="HWN6:HYY6" si="93">UPPER(HWM6)</f>
         <v/>
       </c>
       <c r="HWO6" s="1" t="str">
@@ -25785,11 +25863,11 @@
         <v/>
       </c>
       <c r="HYY6" s="1" t="str">
-        <f t="shared" ref="HYY6:IBJ6" si="94">UPPER(HYX6)</f>
+        <f t="shared" si="93"/>
         <v/>
       </c>
       <c r="HYZ6" s="1" t="str">
-        <f t="shared" si="94"/>
+        <f t="shared" ref="HYZ6:IBK6" si="94">UPPER(HYY6)</f>
         <v/>
       </c>
       <c r="HZA6" s="1" t="str">
@@ -26041,11 +26119,11 @@
         <v/>
       </c>
       <c r="IBK6" s="1" t="str">
-        <f t="shared" ref="IBK6:IDV6" si="95">UPPER(IBJ6)</f>
+        <f t="shared" si="94"/>
         <v/>
       </c>
       <c r="IBL6" s="1" t="str">
-        <f t="shared" si="95"/>
+        <f t="shared" ref="IBL6:IDW6" si="95">UPPER(IBK6)</f>
         <v/>
       </c>
       <c r="IBM6" s="1" t="str">
@@ -26297,11 +26375,11 @@
         <v/>
       </c>
       <c r="IDW6" s="1" t="str">
-        <f t="shared" ref="IDW6:IGH6" si="96">UPPER(IDV6)</f>
+        <f t="shared" si="95"/>
         <v/>
       </c>
       <c r="IDX6" s="1" t="str">
-        <f t="shared" si="96"/>
+        <f t="shared" ref="IDX6:IGI6" si="96">UPPER(IDW6)</f>
         <v/>
       </c>
       <c r="IDY6" s="1" t="str">
@@ -26553,11 +26631,11 @@
         <v/>
       </c>
       <c r="IGI6" s="1" t="str">
-        <f t="shared" ref="IGI6:IIT6" si="97">UPPER(IGH6)</f>
+        <f t="shared" si="96"/>
         <v/>
       </c>
       <c r="IGJ6" s="1" t="str">
-        <f t="shared" si="97"/>
+        <f t="shared" ref="IGJ6:IIU6" si="97">UPPER(IGI6)</f>
         <v/>
       </c>
       <c r="IGK6" s="1" t="str">
@@ -26809,11 +26887,11 @@
         <v/>
       </c>
       <c r="IIU6" s="1" t="str">
-        <f t="shared" ref="IIU6:ILF6" si="98">UPPER(IIT6)</f>
+        <f t="shared" si="97"/>
         <v/>
       </c>
       <c r="IIV6" s="1" t="str">
-        <f t="shared" si="98"/>
+        <f t="shared" ref="IIV6:ILG6" si="98">UPPER(IIU6)</f>
         <v/>
       </c>
       <c r="IIW6" s="1" t="str">
@@ -27065,11 +27143,11 @@
         <v/>
       </c>
       <c r="ILG6" s="1" t="str">
-        <f t="shared" ref="ILG6:INR6" si="99">UPPER(ILF6)</f>
+        <f t="shared" si="98"/>
         <v/>
       </c>
       <c r="ILH6" s="1" t="str">
-        <f t="shared" si="99"/>
+        <f t="shared" ref="ILH6:INS6" si="99">UPPER(ILG6)</f>
         <v/>
       </c>
       <c r="ILI6" s="1" t="str">
@@ -27321,11 +27399,11 @@
         <v/>
       </c>
       <c r="INS6" s="1" t="str">
-        <f t="shared" ref="INS6:IQD6" si="100">UPPER(INR6)</f>
+        <f t="shared" si="99"/>
         <v/>
       </c>
       <c r="INT6" s="1" t="str">
-        <f t="shared" si="100"/>
+        <f t="shared" ref="INT6:IQE6" si="100">UPPER(INS6)</f>
         <v/>
       </c>
       <c r="INU6" s="1" t="str">
@@ -27577,11 +27655,11 @@
         <v/>
       </c>
       <c r="IQE6" s="1" t="str">
-        <f t="shared" ref="IQE6:ISP6" si="101">UPPER(IQD6)</f>
+        <f t="shared" si="100"/>
         <v/>
       </c>
       <c r="IQF6" s="1" t="str">
-        <f t="shared" si="101"/>
+        <f t="shared" ref="IQF6:ISQ6" si="101">UPPER(IQE6)</f>
         <v/>
       </c>
       <c r="IQG6" s="1" t="str">
@@ -27833,11 +27911,11 @@
         <v/>
       </c>
       <c r="ISQ6" s="1" t="str">
-        <f t="shared" ref="ISQ6:IVB6" si="102">UPPER(ISP6)</f>
+        <f t="shared" si="101"/>
         <v/>
       </c>
       <c r="ISR6" s="1" t="str">
-        <f t="shared" si="102"/>
+        <f t="shared" ref="ISR6:IVC6" si="102">UPPER(ISQ6)</f>
         <v/>
       </c>
       <c r="ISS6" s="1" t="str">
@@ -28089,11 +28167,11 @@
         <v/>
       </c>
       <c r="IVC6" s="1" t="str">
-        <f t="shared" ref="IVC6:IXN6" si="103">UPPER(IVB6)</f>
+        <f t="shared" si="102"/>
         <v/>
       </c>
       <c r="IVD6" s="1" t="str">
-        <f t="shared" si="103"/>
+        <f t="shared" ref="IVD6:IXO6" si="103">UPPER(IVC6)</f>
         <v/>
       </c>
       <c r="IVE6" s="1" t="str">
@@ -28345,11 +28423,11 @@
         <v/>
       </c>
       <c r="IXO6" s="1" t="str">
-        <f t="shared" ref="IXO6:IZZ6" si="104">UPPER(IXN6)</f>
+        <f t="shared" si="103"/>
         <v/>
       </c>
       <c r="IXP6" s="1" t="str">
-        <f t="shared" si="104"/>
+        <f t="shared" ref="IXP6:JAA6" si="104">UPPER(IXO6)</f>
         <v/>
       </c>
       <c r="IXQ6" s="1" t="str">
@@ -28601,11 +28679,11 @@
         <v/>
       </c>
       <c r="JAA6" s="1" t="str">
-        <f t="shared" ref="JAA6:JCL6" si="105">UPPER(IZZ6)</f>
+        <f t="shared" si="104"/>
         <v/>
       </c>
       <c r="JAB6" s="1" t="str">
-        <f t="shared" si="105"/>
+        <f t="shared" ref="JAB6:JCM6" si="105">UPPER(JAA6)</f>
         <v/>
       </c>
       <c r="JAC6" s="1" t="str">
@@ -28857,11 +28935,11 @@
         <v/>
       </c>
       <c r="JCM6" s="1" t="str">
-        <f t="shared" ref="JCM6:JEX6" si="106">UPPER(JCL6)</f>
+        <f t="shared" si="105"/>
         <v/>
       </c>
       <c r="JCN6" s="1" t="str">
-        <f t="shared" si="106"/>
+        <f t="shared" ref="JCN6:JEY6" si="106">UPPER(JCM6)</f>
         <v/>
       </c>
       <c r="JCO6" s="1" t="str">
@@ -29113,11 +29191,11 @@
         <v/>
       </c>
       <c r="JEY6" s="1" t="str">
-        <f t="shared" ref="JEY6:JHJ6" si="107">UPPER(JEX6)</f>
+        <f t="shared" si="106"/>
         <v/>
       </c>
       <c r="JEZ6" s="1" t="str">
-        <f t="shared" si="107"/>
+        <f t="shared" ref="JEZ6:JHK6" si="107">UPPER(JEY6)</f>
         <v/>
       </c>
       <c r="JFA6" s="1" t="str">
@@ -29369,11 +29447,11 @@
         <v/>
       </c>
       <c r="JHK6" s="1" t="str">
-        <f t="shared" ref="JHK6:JJV6" si="108">UPPER(JHJ6)</f>
+        <f t="shared" si="107"/>
         <v/>
       </c>
       <c r="JHL6" s="1" t="str">
-        <f t="shared" si="108"/>
+        <f t="shared" ref="JHL6:JJW6" si="108">UPPER(JHK6)</f>
         <v/>
       </c>
       <c r="JHM6" s="1" t="str">
@@ -29625,11 +29703,11 @@
         <v/>
       </c>
       <c r="JJW6" s="1" t="str">
-        <f t="shared" ref="JJW6:JMH6" si="109">UPPER(JJV6)</f>
+        <f t="shared" si="108"/>
         <v/>
       </c>
       <c r="JJX6" s="1" t="str">
-        <f t="shared" si="109"/>
+        <f t="shared" ref="JJX6:JMI6" si="109">UPPER(JJW6)</f>
         <v/>
       </c>
       <c r="JJY6" s="1" t="str">
@@ -29881,11 +29959,11 @@
         <v/>
       </c>
       <c r="JMI6" s="1" t="str">
-        <f t="shared" ref="JMI6:JOT6" si="110">UPPER(JMH6)</f>
+        <f t="shared" si="109"/>
         <v/>
       </c>
       <c r="JMJ6" s="1" t="str">
-        <f t="shared" si="110"/>
+        <f t="shared" ref="JMJ6:JOU6" si="110">UPPER(JMI6)</f>
         <v/>
       </c>
       <c r="JMK6" s="1" t="str">
@@ -30137,11 +30215,11 @@
         <v/>
       </c>
       <c r="JOU6" s="1" t="str">
-        <f t="shared" ref="JOU6:JRF6" si="111">UPPER(JOT6)</f>
+        <f t="shared" si="110"/>
         <v/>
       </c>
       <c r="JOV6" s="1" t="str">
-        <f t="shared" si="111"/>
+        <f t="shared" ref="JOV6:JRG6" si="111">UPPER(JOU6)</f>
         <v/>
       </c>
       <c r="JOW6" s="1" t="str">
@@ -30393,11 +30471,11 @@
         <v/>
       </c>
       <c r="JRG6" s="1" t="str">
-        <f t="shared" ref="JRG6:JTR6" si="112">UPPER(JRF6)</f>
+        <f t="shared" si="111"/>
         <v/>
       </c>
       <c r="JRH6" s="1" t="str">
-        <f t="shared" si="112"/>
+        <f t="shared" ref="JRH6:JTS6" si="112">UPPER(JRG6)</f>
         <v/>
       </c>
       <c r="JRI6" s="1" t="str">
@@ -30649,11 +30727,11 @@
         <v/>
       </c>
       <c r="JTS6" s="1" t="str">
-        <f t="shared" ref="JTS6:JWD6" si="113">UPPER(JTR6)</f>
+        <f t="shared" si="112"/>
         <v/>
       </c>
       <c r="JTT6" s="1" t="str">
-        <f t="shared" si="113"/>
+        <f t="shared" ref="JTT6:JWE6" si="113">UPPER(JTS6)</f>
         <v/>
       </c>
       <c r="JTU6" s="1" t="str">
@@ -30905,11 +30983,11 @@
         <v/>
       </c>
       <c r="JWE6" s="1" t="str">
-        <f t="shared" ref="JWE6:JYP6" si="114">UPPER(JWD6)</f>
+        <f t="shared" si="113"/>
         <v/>
       </c>
       <c r="JWF6" s="1" t="str">
-        <f t="shared" si="114"/>
+        <f t="shared" ref="JWF6:JYQ6" si="114">UPPER(JWE6)</f>
         <v/>
       </c>
       <c r="JWG6" s="1" t="str">
@@ -31161,11 +31239,11 @@
         <v/>
       </c>
       <c r="JYQ6" s="1" t="str">
-        <f t="shared" ref="JYQ6:KBB6" si="115">UPPER(JYP6)</f>
+        <f t="shared" si="114"/>
         <v/>
       </c>
       <c r="JYR6" s="1" t="str">
-        <f t="shared" si="115"/>
+        <f t="shared" ref="JYR6:KBC6" si="115">UPPER(JYQ6)</f>
         <v/>
       </c>
       <c r="JYS6" s="1" t="str">
@@ -31417,11 +31495,11 @@
         <v/>
       </c>
       <c r="KBC6" s="1" t="str">
-        <f t="shared" ref="KBC6:KDN6" si="116">UPPER(KBB6)</f>
+        <f t="shared" si="115"/>
         <v/>
       </c>
       <c r="KBD6" s="1" t="str">
-        <f t="shared" si="116"/>
+        <f t="shared" ref="KBD6:KDO6" si="116">UPPER(KBC6)</f>
         <v/>
       </c>
       <c r="KBE6" s="1" t="str">
@@ -31673,11 +31751,11 @@
         <v/>
       </c>
       <c r="KDO6" s="1" t="str">
-        <f t="shared" ref="KDO6:KFZ6" si="117">UPPER(KDN6)</f>
+        <f t="shared" si="116"/>
         <v/>
       </c>
       <c r="KDP6" s="1" t="str">
-        <f t="shared" si="117"/>
+        <f t="shared" ref="KDP6:KGA6" si="117">UPPER(KDO6)</f>
         <v/>
       </c>
       <c r="KDQ6" s="1" t="str">
@@ -31929,11 +32007,11 @@
         <v/>
       </c>
       <c r="KGA6" s="1" t="str">
-        <f t="shared" ref="KGA6:KIL6" si="118">UPPER(KFZ6)</f>
+        <f t="shared" si="117"/>
         <v/>
       </c>
       <c r="KGB6" s="1" t="str">
-        <f t="shared" si="118"/>
+        <f t="shared" ref="KGB6:KIM6" si="118">UPPER(KGA6)</f>
         <v/>
       </c>
       <c r="KGC6" s="1" t="str">
@@ -32185,11 +32263,11 @@
         <v/>
       </c>
       <c r="KIM6" s="1" t="str">
-        <f t="shared" ref="KIM6:KKX6" si="119">UPPER(KIL6)</f>
+        <f t="shared" si="118"/>
         <v/>
       </c>
       <c r="KIN6" s="1" t="str">
-        <f t="shared" si="119"/>
+        <f t="shared" ref="KIN6:KKY6" si="119">UPPER(KIM6)</f>
         <v/>
       </c>
       <c r="KIO6" s="1" t="str">
@@ -32441,11 +32519,11 @@
         <v/>
       </c>
       <c r="KKY6" s="1" t="str">
-        <f t="shared" ref="KKY6:KNJ6" si="120">UPPER(KKX6)</f>
+        <f t="shared" si="119"/>
         <v/>
       </c>
       <c r="KKZ6" s="1" t="str">
-        <f t="shared" si="120"/>
+        <f t="shared" ref="KKZ6:KNK6" si="120">UPPER(KKY6)</f>
         <v/>
       </c>
       <c r="KLA6" s="1" t="str">
@@ -32697,11 +32775,11 @@
         <v/>
       </c>
       <c r="KNK6" s="1" t="str">
-        <f t="shared" ref="KNK6:KPV6" si="121">UPPER(KNJ6)</f>
+        <f t="shared" si="120"/>
         <v/>
       </c>
       <c r="KNL6" s="1" t="str">
-        <f t="shared" si="121"/>
+        <f t="shared" ref="KNL6:KPW6" si="121">UPPER(KNK6)</f>
         <v/>
       </c>
       <c r="KNM6" s="1" t="str">
@@ -32953,11 +33031,11 @@
         <v/>
       </c>
       <c r="KPW6" s="1" t="str">
-        <f t="shared" ref="KPW6:KSH6" si="122">UPPER(KPV6)</f>
+        <f t="shared" si="121"/>
         <v/>
       </c>
       <c r="KPX6" s="1" t="str">
-        <f t="shared" si="122"/>
+        <f t="shared" ref="KPX6:KSI6" si="122">UPPER(KPW6)</f>
         <v/>
       </c>
       <c r="KPY6" s="1" t="str">
@@ -33209,11 +33287,11 @@
         <v/>
       </c>
       <c r="KSI6" s="1" t="str">
-        <f t="shared" ref="KSI6:KUT6" si="123">UPPER(KSH6)</f>
+        <f t="shared" si="122"/>
         <v/>
       </c>
       <c r="KSJ6" s="1" t="str">
-        <f t="shared" si="123"/>
+        <f t="shared" ref="KSJ6:KUU6" si="123">UPPER(KSI6)</f>
         <v/>
       </c>
       <c r="KSK6" s="1" t="str">
@@ -33465,11 +33543,11 @@
         <v/>
       </c>
       <c r="KUU6" s="1" t="str">
-        <f t="shared" ref="KUU6:KXF6" si="124">UPPER(KUT6)</f>
+        <f t="shared" si="123"/>
         <v/>
       </c>
       <c r="KUV6" s="1" t="str">
-        <f t="shared" si="124"/>
+        <f t="shared" ref="KUV6:KXG6" si="124">UPPER(KUU6)</f>
         <v/>
       </c>
       <c r="KUW6" s="1" t="str">
@@ -33721,11 +33799,11 @@
         <v/>
       </c>
       <c r="KXG6" s="1" t="str">
-        <f t="shared" ref="KXG6:KZR6" si="125">UPPER(KXF6)</f>
+        <f t="shared" si="124"/>
         <v/>
       </c>
       <c r="KXH6" s="1" t="str">
-        <f t="shared" si="125"/>
+        <f t="shared" ref="KXH6:KZS6" si="125">UPPER(KXG6)</f>
         <v/>
       </c>
       <c r="KXI6" s="1" t="str">
@@ -33977,11 +34055,11 @@
         <v/>
       </c>
       <c r="KZS6" s="1" t="str">
-        <f t="shared" ref="KZS6:LCD6" si="126">UPPER(KZR6)</f>
+        <f t="shared" si="125"/>
         <v/>
       </c>
       <c r="KZT6" s="1" t="str">
-        <f t="shared" si="126"/>
+        <f t="shared" ref="KZT6:LCE6" si="126">UPPER(KZS6)</f>
         <v/>
       </c>
       <c r="KZU6" s="1" t="str">
@@ -34233,11 +34311,11 @@
         <v/>
       </c>
       <c r="LCE6" s="1" t="str">
-        <f t="shared" ref="LCE6:LEP6" si="127">UPPER(LCD6)</f>
+        <f t="shared" si="126"/>
         <v/>
       </c>
       <c r="LCF6" s="1" t="str">
-        <f t="shared" si="127"/>
+        <f t="shared" ref="LCF6:LEQ6" si="127">UPPER(LCE6)</f>
         <v/>
       </c>
       <c r="LCG6" s="1" t="str">
@@ -34489,11 +34567,11 @@
         <v/>
       </c>
       <c r="LEQ6" s="1" t="str">
-        <f t="shared" ref="LEQ6:LHB6" si="128">UPPER(LEP6)</f>
+        <f t="shared" si="127"/>
         <v/>
       </c>
       <c r="LER6" s="1" t="str">
-        <f t="shared" si="128"/>
+        <f t="shared" ref="LER6:LHC6" si="128">UPPER(LEQ6)</f>
         <v/>
       </c>
       <c r="LES6" s="1" t="str">
@@ -34745,11 +34823,11 @@
         <v/>
       </c>
       <c r="LHC6" s="1" t="str">
-        <f t="shared" ref="LHC6:LJN6" si="129">UPPER(LHB6)</f>
+        <f t="shared" si="128"/>
         <v/>
       </c>
       <c r="LHD6" s="1" t="str">
-        <f t="shared" si="129"/>
+        <f t="shared" ref="LHD6:LJO6" si="129">UPPER(LHC6)</f>
         <v/>
       </c>
       <c r="LHE6" s="1" t="str">
@@ -35001,11 +35079,11 @@
         <v/>
       </c>
       <c r="LJO6" s="1" t="str">
-        <f t="shared" ref="LJO6:LLZ6" si="130">UPPER(LJN6)</f>
+        <f t="shared" si="129"/>
         <v/>
       </c>
       <c r="LJP6" s="1" t="str">
-        <f t="shared" si="130"/>
+        <f t="shared" ref="LJP6:LMA6" si="130">UPPER(LJO6)</f>
         <v/>
       </c>
       <c r="LJQ6" s="1" t="str">
@@ -35257,11 +35335,11 @@
         <v/>
       </c>
       <c r="LMA6" s="1" t="str">
-        <f t="shared" ref="LMA6:LOL6" si="131">UPPER(LLZ6)</f>
+        <f t="shared" si="130"/>
         <v/>
       </c>
       <c r="LMB6" s="1" t="str">
-        <f t="shared" si="131"/>
+        <f t="shared" ref="LMB6:LOM6" si="131">UPPER(LMA6)</f>
         <v/>
       </c>
       <c r="LMC6" s="1" t="str">
@@ -35513,11 +35591,11 @@
         <v/>
       </c>
       <c r="LOM6" s="1" t="str">
-        <f t="shared" ref="LOM6:LQX6" si="132">UPPER(LOL6)</f>
+        <f t="shared" si="131"/>
         <v/>
       </c>
       <c r="LON6" s="1" t="str">
-        <f t="shared" si="132"/>
+        <f t="shared" ref="LON6:LQY6" si="132">UPPER(LOM6)</f>
         <v/>
       </c>
       <c r="LOO6" s="1" t="str">
@@ -35769,11 +35847,11 @@
         <v/>
       </c>
       <c r="LQY6" s="1" t="str">
-        <f t="shared" ref="LQY6:LTJ6" si="133">UPPER(LQX6)</f>
+        <f t="shared" si="132"/>
         <v/>
       </c>
       <c r="LQZ6" s="1" t="str">
-        <f t="shared" si="133"/>
+        <f t="shared" ref="LQZ6:LTK6" si="133">UPPER(LQY6)</f>
         <v/>
       </c>
       <c r="LRA6" s="1" t="str">
@@ -36025,11 +36103,11 @@
         <v/>
       </c>
       <c r="LTK6" s="1" t="str">
-        <f t="shared" ref="LTK6:LVV6" si="134">UPPER(LTJ6)</f>
+        <f t="shared" si="133"/>
         <v/>
       </c>
       <c r="LTL6" s="1" t="str">
-        <f t="shared" si="134"/>
+        <f t="shared" ref="LTL6:LVW6" si="134">UPPER(LTK6)</f>
         <v/>
       </c>
       <c r="LTM6" s="1" t="str">
@@ -36281,11 +36359,11 @@
         <v/>
       </c>
       <c r="LVW6" s="1" t="str">
-        <f t="shared" ref="LVW6:LYH6" si="135">UPPER(LVV6)</f>
+        <f t="shared" si="134"/>
         <v/>
       </c>
       <c r="LVX6" s="1" t="str">
-        <f t="shared" si="135"/>
+        <f t="shared" ref="LVX6:LYI6" si="135">UPPER(LVW6)</f>
         <v/>
       </c>
       <c r="LVY6" s="1" t="str">
@@ -36537,11 +36615,11 @@
         <v/>
       </c>
       <c r="LYI6" s="1" t="str">
-        <f t="shared" ref="LYI6:MAT6" si="136">UPPER(LYH6)</f>
+        <f t="shared" si="135"/>
         <v/>
       </c>
       <c r="LYJ6" s="1" t="str">
-        <f t="shared" si="136"/>
+        <f t="shared" ref="LYJ6:MAU6" si="136">UPPER(LYI6)</f>
         <v/>
       </c>
       <c r="LYK6" s="1" t="str">
@@ -36793,11 +36871,11 @@
         <v/>
       </c>
       <c r="MAU6" s="1" t="str">
-        <f t="shared" ref="MAU6:MDF6" si="137">UPPER(MAT6)</f>
+        <f t="shared" si="136"/>
         <v/>
       </c>
       <c r="MAV6" s="1" t="str">
-        <f t="shared" si="137"/>
+        <f t="shared" ref="MAV6:MDG6" si="137">UPPER(MAU6)</f>
         <v/>
       </c>
       <c r="MAW6" s="1" t="str">
@@ -37049,11 +37127,11 @@
         <v/>
       </c>
       <c r="MDG6" s="1" t="str">
-        <f t="shared" ref="MDG6:MFR6" si="138">UPPER(MDF6)</f>
+        <f t="shared" si="137"/>
         <v/>
       </c>
       <c r="MDH6" s="1" t="str">
-        <f t="shared" si="138"/>
+        <f t="shared" ref="MDH6:MFS6" si="138">UPPER(MDG6)</f>
         <v/>
       </c>
       <c r="MDI6" s="1" t="str">
@@ -37305,11 +37383,11 @@
         <v/>
       </c>
       <c r="MFS6" s="1" t="str">
-        <f t="shared" ref="MFS6:MID6" si="139">UPPER(MFR6)</f>
+        <f t="shared" si="138"/>
         <v/>
       </c>
       <c r="MFT6" s="1" t="str">
-        <f t="shared" si="139"/>
+        <f t="shared" ref="MFT6:MIE6" si="139">UPPER(MFS6)</f>
         <v/>
       </c>
       <c r="MFU6" s="1" t="str">
@@ -37561,11 +37639,11 @@
         <v/>
       </c>
       <c r="MIE6" s="1" t="str">
-        <f t="shared" ref="MIE6:MKP6" si="140">UPPER(MID6)</f>
+        <f t="shared" si="139"/>
         <v/>
       </c>
       <c r="MIF6" s="1" t="str">
-        <f t="shared" si="140"/>
+        <f t="shared" ref="MIF6:MKQ6" si="140">UPPER(MIE6)</f>
         <v/>
       </c>
       <c r="MIG6" s="1" t="str">
@@ -37817,11 +37895,11 @@
         <v/>
       </c>
       <c r="MKQ6" s="1" t="str">
-        <f t="shared" ref="MKQ6:MNB6" si="141">UPPER(MKP6)</f>
+        <f t="shared" si="140"/>
         <v/>
       </c>
       <c r="MKR6" s="1" t="str">
-        <f t="shared" si="141"/>
+        <f t="shared" ref="MKR6:MNC6" si="141">UPPER(MKQ6)</f>
         <v/>
       </c>
       <c r="MKS6" s="1" t="str">
@@ -38073,11 +38151,11 @@
         <v/>
       </c>
       <c r="MNC6" s="1" t="str">
-        <f t="shared" ref="MNC6:MPN6" si="142">UPPER(MNB6)</f>
+        <f t="shared" si="141"/>
         <v/>
       </c>
       <c r="MND6" s="1" t="str">
-        <f t="shared" si="142"/>
+        <f t="shared" ref="MND6:MPO6" si="142">UPPER(MNC6)</f>
         <v/>
       </c>
       <c r="MNE6" s="1" t="str">
@@ -38329,11 +38407,11 @@
         <v/>
       </c>
       <c r="MPO6" s="1" t="str">
-        <f t="shared" ref="MPO6:MRZ6" si="143">UPPER(MPN6)</f>
+        <f t="shared" si="142"/>
         <v/>
       </c>
       <c r="MPP6" s="1" t="str">
-        <f t="shared" si="143"/>
+        <f t="shared" ref="MPP6:MSA6" si="143">UPPER(MPO6)</f>
         <v/>
       </c>
       <c r="MPQ6" s="1" t="str">
@@ -38585,11 +38663,11 @@
         <v/>
       </c>
       <c r="MSA6" s="1" t="str">
-        <f t="shared" ref="MSA6:MUL6" si="144">UPPER(MRZ6)</f>
+        <f t="shared" si="143"/>
         <v/>
       </c>
       <c r="MSB6" s="1" t="str">
-        <f t="shared" si="144"/>
+        <f t="shared" ref="MSB6:MUM6" si="144">UPPER(MSA6)</f>
         <v/>
       </c>
       <c r="MSC6" s="1" t="str">
@@ -38841,11 +38919,11 @@
         <v/>
       </c>
       <c r="MUM6" s="1" t="str">
-        <f t="shared" ref="MUM6:MWX6" si="145">UPPER(MUL6)</f>
+        <f t="shared" si="144"/>
         <v/>
       </c>
       <c r="MUN6" s="1" t="str">
-        <f t="shared" si="145"/>
+        <f t="shared" ref="MUN6:MWY6" si="145">UPPER(MUM6)</f>
         <v/>
       </c>
       <c r="MUO6" s="1" t="str">
@@ -39097,11 +39175,11 @@
         <v/>
       </c>
       <c r="MWY6" s="1" t="str">
-        <f t="shared" ref="MWY6:MZJ6" si="146">UPPER(MWX6)</f>
+        <f t="shared" si="145"/>
         <v/>
       </c>
       <c r="MWZ6" s="1" t="str">
-        <f t="shared" si="146"/>
+        <f t="shared" ref="MWZ6:MZK6" si="146">UPPER(MWY6)</f>
         <v/>
       </c>
       <c r="MXA6" s="1" t="str">
@@ -39353,11 +39431,11 @@
         <v/>
       </c>
       <c r="MZK6" s="1" t="str">
-        <f t="shared" ref="MZK6:NBV6" si="147">UPPER(MZJ6)</f>
+        <f t="shared" si="146"/>
         <v/>
       </c>
       <c r="MZL6" s="1" t="str">
-        <f t="shared" si="147"/>
+        <f t="shared" ref="MZL6:NBW6" si="147">UPPER(MZK6)</f>
         <v/>
       </c>
       <c r="MZM6" s="1" t="str">
@@ -39609,11 +39687,11 @@
         <v/>
       </c>
       <c r="NBW6" s="1" t="str">
-        <f t="shared" ref="NBW6:NEH6" si="148">UPPER(NBV6)</f>
+        <f t="shared" si="147"/>
         <v/>
       </c>
       <c r="NBX6" s="1" t="str">
-        <f t="shared" si="148"/>
+        <f t="shared" ref="NBX6:NEI6" si="148">UPPER(NBW6)</f>
         <v/>
       </c>
       <c r="NBY6" s="1" t="str">
@@ -39865,11 +39943,11 @@
         <v/>
       </c>
       <c r="NEI6" s="1" t="str">
-        <f t="shared" ref="NEI6:NGT6" si="149">UPPER(NEH6)</f>
+        <f t="shared" si="148"/>
         <v/>
       </c>
       <c r="NEJ6" s="1" t="str">
-        <f t="shared" si="149"/>
+        <f t="shared" ref="NEJ6:NGU6" si="149">UPPER(NEI6)</f>
         <v/>
       </c>
       <c r="NEK6" s="1" t="str">
@@ -40121,11 +40199,11 @@
         <v/>
       </c>
       <c r="NGU6" s="1" t="str">
-        <f t="shared" ref="NGU6:NJF6" si="150">UPPER(NGT6)</f>
+        <f t="shared" si="149"/>
         <v/>
       </c>
       <c r="NGV6" s="1" t="str">
-        <f t="shared" si="150"/>
+        <f t="shared" ref="NGV6:NJG6" si="150">UPPER(NGU6)</f>
         <v/>
       </c>
       <c r="NGW6" s="1" t="str">
@@ -40377,11 +40455,11 @@
         <v/>
       </c>
       <c r="NJG6" s="1" t="str">
-        <f t="shared" ref="NJG6:NLR6" si="151">UPPER(NJF6)</f>
+        <f t="shared" si="150"/>
         <v/>
       </c>
       <c r="NJH6" s="1" t="str">
-        <f t="shared" si="151"/>
+        <f t="shared" ref="NJH6:NLS6" si="151">UPPER(NJG6)</f>
         <v/>
       </c>
       <c r="NJI6" s="1" t="str">
@@ -40633,11 +40711,11 @@
         <v/>
       </c>
       <c r="NLS6" s="1" t="str">
-        <f t="shared" ref="NLS6:NOD6" si="152">UPPER(NLR6)</f>
+        <f t="shared" si="151"/>
         <v/>
       </c>
       <c r="NLT6" s="1" t="str">
-        <f t="shared" si="152"/>
+        <f t="shared" ref="NLT6:NOE6" si="152">UPPER(NLS6)</f>
         <v/>
       </c>
       <c r="NLU6" s="1" t="str">
@@ -40889,11 +40967,11 @@
         <v/>
       </c>
       <c r="NOE6" s="1" t="str">
-        <f t="shared" ref="NOE6:NQP6" si="153">UPPER(NOD6)</f>
+        <f t="shared" si="152"/>
         <v/>
       </c>
       <c r="NOF6" s="1" t="str">
-        <f t="shared" si="153"/>
+        <f t="shared" ref="NOF6:NQQ6" si="153">UPPER(NOE6)</f>
         <v/>
       </c>
       <c r="NOG6" s="1" t="str">
@@ -41145,11 +41223,11 @@
         <v/>
       </c>
       <c r="NQQ6" s="1" t="str">
-        <f t="shared" ref="NQQ6:NTB6" si="154">UPPER(NQP6)</f>
+        <f t="shared" si="153"/>
         <v/>
       </c>
       <c r="NQR6" s="1" t="str">
-        <f t="shared" si="154"/>
+        <f t="shared" ref="NQR6:NTC6" si="154">UPPER(NQQ6)</f>
         <v/>
       </c>
       <c r="NQS6" s="1" t="str">
@@ -41401,11 +41479,11 @@
         <v/>
       </c>
       <c r="NTC6" s="1" t="str">
-        <f t="shared" ref="NTC6:NVN6" si="155">UPPER(NTB6)</f>
+        <f t="shared" si="154"/>
         <v/>
       </c>
       <c r="NTD6" s="1" t="str">
-        <f t="shared" si="155"/>
+        <f t="shared" ref="NTD6:NVO6" si="155">UPPER(NTC6)</f>
         <v/>
       </c>
       <c r="NTE6" s="1" t="str">
@@ -41657,11 +41735,11 @@
         <v/>
       </c>
       <c r="NVO6" s="1" t="str">
-        <f t="shared" ref="NVO6:NXZ6" si="156">UPPER(NVN6)</f>
+        <f t="shared" si="155"/>
         <v/>
       </c>
       <c r="NVP6" s="1" t="str">
-        <f t="shared" si="156"/>
+        <f t="shared" ref="NVP6:NYA6" si="156">UPPER(NVO6)</f>
         <v/>
       </c>
       <c r="NVQ6" s="1" t="str">
@@ -41913,11 +41991,11 @@
         <v/>
       </c>
       <c r="NYA6" s="1" t="str">
-        <f t="shared" ref="NYA6:OAL6" si="157">UPPER(NXZ6)</f>
+        <f t="shared" si="156"/>
         <v/>
       </c>
       <c r="NYB6" s="1" t="str">
-        <f t="shared" si="157"/>
+        <f t="shared" ref="NYB6:OAM6" si="157">UPPER(NYA6)</f>
         <v/>
       </c>
       <c r="NYC6" s="1" t="str">
@@ -42169,11 +42247,11 @@
         <v/>
       </c>
       <c r="OAM6" s="1" t="str">
-        <f t="shared" ref="OAM6:OCX6" si="158">UPPER(OAL6)</f>
+        <f t="shared" si="157"/>
         <v/>
       </c>
       <c r="OAN6" s="1" t="str">
-        <f t="shared" si="158"/>
+        <f t="shared" ref="OAN6:OCY6" si="158">UPPER(OAM6)</f>
         <v/>
       </c>
       <c r="OAO6" s="1" t="str">
@@ -42425,11 +42503,11 @@
         <v/>
       </c>
       <c r="OCY6" s="1" t="str">
-        <f t="shared" ref="OCY6:OFJ6" si="159">UPPER(OCX6)</f>
+        <f t="shared" si="158"/>
         <v/>
       </c>
       <c r="OCZ6" s="1" t="str">
-        <f t="shared" si="159"/>
+        <f t="shared" ref="OCZ6:OFK6" si="159">UPPER(OCY6)</f>
         <v/>
       </c>
       <c r="ODA6" s="1" t="str">
@@ -42681,11 +42759,11 @@
         <v/>
       </c>
       <c r="OFK6" s="1" t="str">
-        <f t="shared" ref="OFK6:OHV6" si="160">UPPER(OFJ6)</f>
+        <f t="shared" si="159"/>
         <v/>
       </c>
       <c r="OFL6" s="1" t="str">
-        <f t="shared" si="160"/>
+        <f t="shared" ref="OFL6:OHW6" si="160">UPPER(OFK6)</f>
         <v/>
       </c>
       <c r="OFM6" s="1" t="str">
@@ -42937,11 +43015,11 @@
         <v/>
       </c>
       <c r="OHW6" s="1" t="str">
-        <f t="shared" ref="OHW6:OKH6" si="161">UPPER(OHV6)</f>
+        <f t="shared" si="160"/>
         <v/>
       </c>
       <c r="OHX6" s="1" t="str">
-        <f t="shared" si="161"/>
+        <f t="shared" ref="OHX6:OKI6" si="161">UPPER(OHW6)</f>
         <v/>
       </c>
       <c r="OHY6" s="1" t="str">
@@ -43193,11 +43271,11 @@
         <v/>
       </c>
       <c r="OKI6" s="1" t="str">
-        <f t="shared" ref="OKI6:OMT6" si="162">UPPER(OKH6)</f>
+        <f t="shared" si="161"/>
         <v/>
       </c>
       <c r="OKJ6" s="1" t="str">
-        <f t="shared" si="162"/>
+        <f t="shared" ref="OKJ6:OMU6" si="162">UPPER(OKI6)</f>
         <v/>
       </c>
       <c r="OKK6" s="1" t="str">
@@ -43449,11 +43527,11 @@
         <v/>
       </c>
       <c r="OMU6" s="1" t="str">
-        <f t="shared" ref="OMU6:OPF6" si="163">UPPER(OMT6)</f>
+        <f t="shared" si="162"/>
         <v/>
       </c>
       <c r="OMV6" s="1" t="str">
-        <f t="shared" si="163"/>
+        <f t="shared" ref="OMV6:OPG6" si="163">UPPER(OMU6)</f>
         <v/>
       </c>
       <c r="OMW6" s="1" t="str">
@@ -43705,11 +43783,11 @@
         <v/>
       </c>
       <c r="OPG6" s="1" t="str">
-        <f t="shared" ref="OPG6:ORR6" si="164">UPPER(OPF6)</f>
+        <f t="shared" si="163"/>
         <v/>
       </c>
       <c r="OPH6" s="1" t="str">
-        <f t="shared" si="164"/>
+        <f t="shared" ref="OPH6:ORS6" si="164">UPPER(OPG6)</f>
         <v/>
       </c>
       <c r="OPI6" s="1" t="str">
@@ -43961,11 +44039,11 @@
         <v/>
       </c>
       <c r="ORS6" s="1" t="str">
-        <f t="shared" ref="ORS6:OUD6" si="165">UPPER(ORR6)</f>
+        <f t="shared" si="164"/>
         <v/>
       </c>
       <c r="ORT6" s="1" t="str">
-        <f t="shared" si="165"/>
+        <f t="shared" ref="ORT6:OUE6" si="165">UPPER(ORS6)</f>
         <v/>
       </c>
       <c r="ORU6" s="1" t="str">
@@ -44217,11 +44295,11 @@
         <v/>
       </c>
       <c r="OUE6" s="1" t="str">
-        <f t="shared" ref="OUE6:OWP6" si="166">UPPER(OUD6)</f>
+        <f t="shared" si="165"/>
         <v/>
       </c>
       <c r="OUF6" s="1" t="str">
-        <f t="shared" si="166"/>
+        <f t="shared" ref="OUF6:OWQ6" si="166">UPPER(OUE6)</f>
         <v/>
       </c>
       <c r="OUG6" s="1" t="str">
@@ -44473,11 +44551,11 @@
         <v/>
       </c>
       <c r="OWQ6" s="1" t="str">
-        <f t="shared" ref="OWQ6:OZB6" si="167">UPPER(OWP6)</f>
+        <f t="shared" si="166"/>
         <v/>
       </c>
       <c r="OWR6" s="1" t="str">
-        <f t="shared" si="167"/>
+        <f t="shared" ref="OWR6:OZC6" si="167">UPPER(OWQ6)</f>
         <v/>
       </c>
       <c r="OWS6" s="1" t="str">
@@ -44729,11 +44807,11 @@
         <v/>
       </c>
       <c r="OZC6" s="1" t="str">
-        <f t="shared" ref="OZC6:PBN6" si="168">UPPER(OZB6)</f>
+        <f t="shared" si="167"/>
         <v/>
       </c>
       <c r="OZD6" s="1" t="str">
-        <f t="shared" si="168"/>
+        <f t="shared" ref="OZD6:PBO6" si="168">UPPER(OZC6)</f>
         <v/>
       </c>
       <c r="OZE6" s="1" t="str">
@@ -44985,11 +45063,11 @@
         <v/>
       </c>
       <c r="PBO6" s="1" t="str">
-        <f t="shared" ref="PBO6:PDZ6" si="169">UPPER(PBN6)</f>
+        <f t="shared" si="168"/>
         <v/>
       </c>
       <c r="PBP6" s="1" t="str">
-        <f t="shared" si="169"/>
+        <f t="shared" ref="PBP6:PEA6" si="169">UPPER(PBO6)</f>
         <v/>
       </c>
       <c r="PBQ6" s="1" t="str">
@@ -45241,11 +45319,11 @@
         <v/>
       </c>
       <c r="PEA6" s="1" t="str">
-        <f t="shared" ref="PEA6:PGL6" si="170">UPPER(PDZ6)</f>
+        <f t="shared" si="169"/>
         <v/>
       </c>
       <c r="PEB6" s="1" t="str">
-        <f t="shared" si="170"/>
+        <f t="shared" ref="PEB6:PGM6" si="170">UPPER(PEA6)</f>
         <v/>
       </c>
       <c r="PEC6" s="1" t="str">
@@ -45497,11 +45575,11 @@
         <v/>
       </c>
       <c r="PGM6" s="1" t="str">
-        <f t="shared" ref="PGM6:PIX6" si="171">UPPER(PGL6)</f>
+        <f t="shared" si="170"/>
         <v/>
       </c>
       <c r="PGN6" s="1" t="str">
-        <f t="shared" si="171"/>
+        <f t="shared" ref="PGN6:PIY6" si="171">UPPER(PGM6)</f>
         <v/>
       </c>
       <c r="PGO6" s="1" t="str">
@@ -45753,11 +45831,11 @@
         <v/>
       </c>
       <c r="PIY6" s="1" t="str">
-        <f t="shared" ref="PIY6:PLJ6" si="172">UPPER(PIX6)</f>
+        <f t="shared" si="171"/>
         <v/>
       </c>
       <c r="PIZ6" s="1" t="str">
-        <f t="shared" si="172"/>
+        <f t="shared" ref="PIZ6:PLK6" si="172">UPPER(PIY6)</f>
         <v/>
       </c>
       <c r="PJA6" s="1" t="str">
@@ -46009,11 +46087,11 @@
         <v/>
       </c>
       <c r="PLK6" s="1" t="str">
-        <f t="shared" ref="PLK6:PNV6" si="173">UPPER(PLJ6)</f>
+        <f t="shared" si="172"/>
         <v/>
       </c>
       <c r="PLL6" s="1" t="str">
-        <f t="shared" si="173"/>
+        <f t="shared" ref="PLL6:PNW6" si="173">UPPER(PLK6)</f>
         <v/>
       </c>
       <c r="PLM6" s="1" t="str">
@@ -46265,11 +46343,11 @@
         <v/>
       </c>
       <c r="PNW6" s="1" t="str">
-        <f t="shared" ref="PNW6:PQH6" si="174">UPPER(PNV6)</f>
+        <f t="shared" si="173"/>
         <v/>
       </c>
       <c r="PNX6" s="1" t="str">
-        <f t="shared" si="174"/>
+        <f t="shared" ref="PNX6:PQI6" si="174">UPPER(PNW6)</f>
         <v/>
       </c>
       <c r="PNY6" s="1" t="str">
@@ -46521,11 +46599,11 @@
         <v/>
       </c>
       <c r="PQI6" s="1" t="str">
-        <f t="shared" ref="PQI6:PST6" si="175">UPPER(PQH6)</f>
+        <f t="shared" si="174"/>
         <v/>
       </c>
       <c r="PQJ6" s="1" t="str">
-        <f t="shared" si="175"/>
+        <f t="shared" ref="PQJ6:PSU6" si="175">UPPER(PQI6)</f>
         <v/>
       </c>
       <c r="PQK6" s="1" t="str">
@@ -46777,11 +46855,11 @@
         <v/>
       </c>
       <c r="PSU6" s="1" t="str">
-        <f t="shared" ref="PSU6:PVF6" si="176">UPPER(PST6)</f>
+        <f t="shared" si="175"/>
         <v/>
       </c>
       <c r="PSV6" s="1" t="str">
-        <f t="shared" si="176"/>
+        <f t="shared" ref="PSV6:PVG6" si="176">UPPER(PSU6)</f>
         <v/>
       </c>
       <c r="PSW6" s="1" t="str">
@@ -47033,11 +47111,11 @@
         <v/>
       </c>
       <c r="PVG6" s="1" t="str">
-        <f t="shared" ref="PVG6:PXR6" si="177">UPPER(PVF6)</f>
+        <f t="shared" si="176"/>
         <v/>
       </c>
       <c r="PVH6" s="1" t="str">
-        <f t="shared" si="177"/>
+        <f t="shared" ref="PVH6:PXS6" si="177">UPPER(PVG6)</f>
         <v/>
       </c>
       <c r="PVI6" s="1" t="str">
@@ -47289,11 +47367,11 @@
         <v/>
       </c>
       <c r="PXS6" s="1" t="str">
-        <f t="shared" ref="PXS6:QAD6" si="178">UPPER(PXR6)</f>
+        <f t="shared" si="177"/>
         <v/>
       </c>
       <c r="PXT6" s="1" t="str">
-        <f t="shared" si="178"/>
+        <f t="shared" ref="PXT6:QAE6" si="178">UPPER(PXS6)</f>
         <v/>
       </c>
       <c r="PXU6" s="1" t="str">
@@ -47545,11 +47623,11 @@
         <v/>
       </c>
       <c r="QAE6" s="1" t="str">
-        <f t="shared" ref="QAE6:QCP6" si="179">UPPER(QAD6)</f>
+        <f t="shared" si="178"/>
         <v/>
       </c>
       <c r="QAF6" s="1" t="str">
-        <f t="shared" si="179"/>
+        <f t="shared" ref="QAF6:QCQ6" si="179">UPPER(QAE6)</f>
         <v/>
       </c>
       <c r="QAG6" s="1" t="str">
@@ -47801,11 +47879,11 @@
         <v/>
       </c>
       <c r="QCQ6" s="1" t="str">
-        <f t="shared" ref="QCQ6:QFB6" si="180">UPPER(QCP6)</f>
+        <f t="shared" si="179"/>
         <v/>
       </c>
       <c r="QCR6" s="1" t="str">
-        <f t="shared" si="180"/>
+        <f t="shared" ref="QCR6:QFC6" si="180">UPPER(QCQ6)</f>
         <v/>
       </c>
       <c r="QCS6" s="1" t="str">
@@ -48057,11 +48135,11 @@
         <v/>
       </c>
       <c r="QFC6" s="1" t="str">
-        <f t="shared" ref="QFC6:QHN6" si="181">UPPER(QFB6)</f>
+        <f t="shared" si="180"/>
         <v/>
       </c>
       <c r="QFD6" s="1" t="str">
-        <f t="shared" si="181"/>
+        <f t="shared" ref="QFD6:QHO6" si="181">UPPER(QFC6)</f>
         <v/>
       </c>
       <c r="QFE6" s="1" t="str">
@@ -48313,11 +48391,11 @@
         <v/>
       </c>
       <c r="QHO6" s="1" t="str">
-        <f t="shared" ref="QHO6:QJZ6" si="182">UPPER(QHN6)</f>
+        <f t="shared" si="181"/>
         <v/>
       </c>
       <c r="QHP6" s="1" t="str">
-        <f t="shared" si="182"/>
+        <f t="shared" ref="QHP6:QKA6" si="182">UPPER(QHO6)</f>
         <v/>
       </c>
       <c r="QHQ6" s="1" t="str">
@@ -48569,11 +48647,11 @@
         <v/>
       </c>
       <c r="QKA6" s="1" t="str">
-        <f t="shared" ref="QKA6:QML6" si="183">UPPER(QJZ6)</f>
+        <f t="shared" si="182"/>
         <v/>
       </c>
       <c r="QKB6" s="1" t="str">
-        <f t="shared" si="183"/>
+        <f t="shared" ref="QKB6:QMM6" si="183">UPPER(QKA6)</f>
         <v/>
       </c>
       <c r="QKC6" s="1" t="str">
@@ -48825,11 +48903,11 @@
         <v/>
       </c>
       <c r="QMM6" s="1" t="str">
-        <f t="shared" ref="QMM6:QOX6" si="184">UPPER(QML6)</f>
+        <f t="shared" si="183"/>
         <v/>
       </c>
       <c r="QMN6" s="1" t="str">
-        <f t="shared" si="184"/>
+        <f t="shared" ref="QMN6:QOY6" si="184">UPPER(QMM6)</f>
         <v/>
       </c>
       <c r="QMO6" s="1" t="str">
@@ -49081,11 +49159,11 @@
         <v/>
       </c>
       <c r="QOY6" s="1" t="str">
-        <f t="shared" ref="QOY6:QRJ6" si="185">UPPER(QOX6)</f>
+        <f t="shared" si="184"/>
         <v/>
       </c>
       <c r="QOZ6" s="1" t="str">
-        <f t="shared" si="185"/>
+        <f t="shared" ref="QOZ6:QRK6" si="185">UPPER(QOY6)</f>
         <v/>
       </c>
       <c r="QPA6" s="1" t="str">
@@ -49337,11 +49415,11 @@
         <v/>
       </c>
       <c r="QRK6" s="1" t="str">
-        <f t="shared" ref="QRK6:QTV6" si="186">UPPER(QRJ6)</f>
+        <f t="shared" si="185"/>
         <v/>
       </c>
       <c r="QRL6" s="1" t="str">
-        <f t="shared" si="186"/>
+        <f t="shared" ref="QRL6:QTW6" si="186">UPPER(QRK6)</f>
         <v/>
       </c>
       <c r="QRM6" s="1" t="str">
@@ -49593,11 +49671,11 @@
         <v/>
       </c>
       <c r="QTW6" s="1" t="str">
-        <f t="shared" ref="QTW6:QWH6" si="187">UPPER(QTV6)</f>
+        <f t="shared" si="186"/>
         <v/>
       </c>
       <c r="QTX6" s="1" t="str">
-        <f t="shared" si="187"/>
+        <f t="shared" ref="QTX6:QWI6" si="187">UPPER(QTW6)</f>
         <v/>
       </c>
       <c r="QTY6" s="1" t="str">
@@ -49849,11 +49927,11 @@
         <v/>
       </c>
       <c r="QWI6" s="1" t="str">
-        <f t="shared" ref="QWI6:QYT6" si="188">UPPER(QWH6)</f>
+        <f t="shared" si="187"/>
         <v/>
       </c>
       <c r="QWJ6" s="1" t="str">
-        <f t="shared" si="188"/>
+        <f t="shared" ref="QWJ6:QYU6" si="188">UPPER(QWI6)</f>
         <v/>
       </c>
       <c r="QWK6" s="1" t="str">
@@ -50105,11 +50183,11 @@
         <v/>
       </c>
       <c r="QYU6" s="1" t="str">
-        <f t="shared" ref="QYU6:RBF6" si="189">UPPER(QYT6)</f>
+        <f t="shared" si="188"/>
         <v/>
       </c>
       <c r="QYV6" s="1" t="str">
-        <f t="shared" si="189"/>
+        <f t="shared" ref="QYV6:RBG6" si="189">UPPER(QYU6)</f>
         <v/>
       </c>
       <c r="QYW6" s="1" t="str">
@@ -50361,11 +50439,11 @@
         <v/>
       </c>
       <c r="RBG6" s="1" t="str">
-        <f t="shared" ref="RBG6:RDR6" si="190">UPPER(RBF6)</f>
+        <f t="shared" si="189"/>
         <v/>
       </c>
       <c r="RBH6" s="1" t="str">
-        <f t="shared" si="190"/>
+        <f t="shared" ref="RBH6:RDS6" si="190">UPPER(RBG6)</f>
         <v/>
       </c>
       <c r="RBI6" s="1" t="str">
@@ -50617,11 +50695,11 @@
         <v/>
       </c>
       <c r="RDS6" s="1" t="str">
-        <f t="shared" ref="RDS6:RGD6" si="191">UPPER(RDR6)</f>
+        <f t="shared" si="190"/>
         <v/>
       </c>
       <c r="RDT6" s="1" t="str">
-        <f t="shared" si="191"/>
+        <f t="shared" ref="RDT6:RGE6" si="191">UPPER(RDS6)</f>
         <v/>
       </c>
       <c r="RDU6" s="1" t="str">
@@ -50873,11 +50951,11 @@
         <v/>
       </c>
       <c r="RGE6" s="1" t="str">
-        <f t="shared" ref="RGE6:RIP6" si="192">UPPER(RGD6)</f>
+        <f t="shared" si="191"/>
         <v/>
       </c>
       <c r="RGF6" s="1" t="str">
-        <f t="shared" si="192"/>
+        <f t="shared" ref="RGF6:RIQ6" si="192">UPPER(RGE6)</f>
         <v/>
       </c>
       <c r="RGG6" s="1" t="str">
@@ -51129,11 +51207,11 @@
         <v/>
       </c>
       <c r="RIQ6" s="1" t="str">
-        <f t="shared" ref="RIQ6:RLB6" si="193">UPPER(RIP6)</f>
+        <f t="shared" si="192"/>
         <v/>
       </c>
       <c r="RIR6" s="1" t="str">
-        <f t="shared" si="193"/>
+        <f t="shared" ref="RIR6:RLC6" si="193">UPPER(RIQ6)</f>
         <v/>
       </c>
       <c r="RIS6" s="1" t="str">
@@ -51385,11 +51463,11 @@
         <v/>
       </c>
       <c r="RLC6" s="1" t="str">
-        <f t="shared" ref="RLC6:RNN6" si="194">UPPER(RLB6)</f>
+        <f t="shared" si="193"/>
         <v/>
       </c>
       <c r="RLD6" s="1" t="str">
-        <f t="shared" si="194"/>
+        <f t="shared" ref="RLD6:RNO6" si="194">UPPER(RLC6)</f>
         <v/>
       </c>
       <c r="RLE6" s="1" t="str">
@@ -51641,11 +51719,11 @@
         <v/>
       </c>
       <c r="RNO6" s="1" t="str">
-        <f t="shared" ref="RNO6:RPZ6" si="195">UPPER(RNN6)</f>
+        <f t="shared" si="194"/>
         <v/>
       </c>
       <c r="RNP6" s="1" t="str">
-        <f t="shared" si="195"/>
+        <f t="shared" ref="RNP6:RQA6" si="195">UPPER(RNO6)</f>
         <v/>
       </c>
       <c r="RNQ6" s="1" t="str">
@@ -51897,11 +51975,11 @@
         <v/>
       </c>
       <c r="RQA6" s="1" t="str">
-        <f t="shared" ref="RQA6:RSL6" si="196">UPPER(RPZ6)</f>
+        <f t="shared" si="195"/>
         <v/>
       </c>
       <c r="RQB6" s="1" t="str">
-        <f t="shared" si="196"/>
+        <f t="shared" ref="RQB6:RSM6" si="196">UPPER(RQA6)</f>
         <v/>
       </c>
       <c r="RQC6" s="1" t="str">
@@ -52153,11 +52231,11 @@
         <v/>
       </c>
       <c r="RSM6" s="1" t="str">
-        <f t="shared" ref="RSM6:RUX6" si="197">UPPER(RSL6)</f>
+        <f t="shared" si="196"/>
         <v/>
       </c>
       <c r="RSN6" s="1" t="str">
-        <f t="shared" si="197"/>
+        <f t="shared" ref="RSN6:RUY6" si="197">UPPER(RSM6)</f>
         <v/>
       </c>
       <c r="RSO6" s="1" t="str">
@@ -52409,11 +52487,11 @@
         <v/>
       </c>
       <c r="RUY6" s="1" t="str">
-        <f t="shared" ref="RUY6:RXJ6" si="198">UPPER(RUX6)</f>
+        <f t="shared" si="197"/>
         <v/>
       </c>
       <c r="RUZ6" s="1" t="str">
-        <f t="shared" si="198"/>
+        <f t="shared" ref="RUZ6:RXK6" si="198">UPPER(RUY6)</f>
         <v/>
       </c>
       <c r="RVA6" s="1" t="str">
@@ -52665,11 +52743,11 @@
         <v/>
       </c>
       <c r="RXK6" s="1" t="str">
-        <f t="shared" ref="RXK6:RZV6" si="199">UPPER(RXJ6)</f>
+        <f t="shared" si="198"/>
         <v/>
       </c>
       <c r="RXL6" s="1" t="str">
-        <f t="shared" si="199"/>
+        <f t="shared" ref="RXL6:RZW6" si="199">UPPER(RXK6)</f>
         <v/>
       </c>
       <c r="RXM6" s="1" t="str">
@@ -52921,11 +52999,11 @@
         <v/>
       </c>
       <c r="RZW6" s="1" t="str">
-        <f t="shared" ref="RZW6:SCH6" si="200">UPPER(RZV6)</f>
+        <f t="shared" si="199"/>
         <v/>
       </c>
       <c r="RZX6" s="1" t="str">
-        <f t="shared" si="200"/>
+        <f t="shared" ref="RZX6:SCI6" si="200">UPPER(RZW6)</f>
         <v/>
       </c>
       <c r="RZY6" s="1" t="str">
@@ -53177,11 +53255,11 @@
         <v/>
       </c>
       <c r="SCI6" s="1" t="str">
-        <f t="shared" ref="SCI6:SET6" si="201">UPPER(SCH6)</f>
+        <f t="shared" si="200"/>
         <v/>
       </c>
       <c r="SCJ6" s="1" t="str">
-        <f t="shared" si="201"/>
+        <f t="shared" ref="SCJ6:SEU6" si="201">UPPER(SCI6)</f>
         <v/>
       </c>
       <c r="SCK6" s="1" t="str">
@@ -53433,11 +53511,11 @@
         <v/>
       </c>
       <c r="SEU6" s="1" t="str">
-        <f t="shared" ref="SEU6:SHF6" si="202">UPPER(SET6)</f>
+        <f t="shared" si="201"/>
         <v/>
       </c>
       <c r="SEV6" s="1" t="str">
-        <f t="shared" si="202"/>
+        <f t="shared" ref="SEV6:SHG6" si="202">UPPER(SEU6)</f>
         <v/>
       </c>
       <c r="SEW6" s="1" t="str">
@@ -53689,11 +53767,11 @@
         <v/>
       </c>
       <c r="SHG6" s="1" t="str">
-        <f t="shared" ref="SHG6:SJR6" si="203">UPPER(SHF6)</f>
+        <f t="shared" si="202"/>
         <v/>
       </c>
       <c r="SHH6" s="1" t="str">
-        <f t="shared" si="203"/>
+        <f t="shared" ref="SHH6:SJS6" si="203">UPPER(SHG6)</f>
         <v/>
       </c>
       <c r="SHI6" s="1" t="str">
@@ -53945,11 +54023,11 @@
         <v/>
       </c>
       <c r="SJS6" s="1" t="str">
-        <f t="shared" ref="SJS6:SMD6" si="204">UPPER(SJR6)</f>
+        <f t="shared" si="203"/>
         <v/>
       </c>
       <c r="SJT6" s="1" t="str">
-        <f t="shared" si="204"/>
+        <f t="shared" ref="SJT6:SME6" si="204">UPPER(SJS6)</f>
         <v/>
       </c>
       <c r="SJU6" s="1" t="str">
@@ -54201,11 +54279,11 @@
         <v/>
       </c>
       <c r="SME6" s="1" t="str">
-        <f t="shared" ref="SME6:SOP6" si="205">UPPER(SMD6)</f>
+        <f t="shared" si="204"/>
         <v/>
       </c>
       <c r="SMF6" s="1" t="str">
-        <f t="shared" si="205"/>
+        <f t="shared" ref="SMF6:SOQ6" si="205">UPPER(SME6)</f>
         <v/>
       </c>
       <c r="SMG6" s="1" t="str">
@@ -54457,11 +54535,11 @@
         <v/>
       </c>
       <c r="SOQ6" s="1" t="str">
-        <f t="shared" ref="SOQ6:SRB6" si="206">UPPER(SOP6)</f>
+        <f t="shared" si="205"/>
         <v/>
       </c>
       <c r="SOR6" s="1" t="str">
-        <f t="shared" si="206"/>
+        <f t="shared" ref="SOR6:SRC6" si="206">UPPER(SOQ6)</f>
         <v/>
       </c>
       <c r="SOS6" s="1" t="str">
@@ -54713,11 +54791,11 @@
         <v/>
       </c>
       <c r="SRC6" s="1" t="str">
-        <f t="shared" ref="SRC6:STN6" si="207">UPPER(SRB6)</f>
+        <f t="shared" si="206"/>
         <v/>
       </c>
       <c r="SRD6" s="1" t="str">
-        <f t="shared" si="207"/>
+        <f t="shared" ref="SRD6:STO6" si="207">UPPER(SRC6)</f>
         <v/>
       </c>
       <c r="SRE6" s="1" t="str">
@@ -54969,11 +55047,11 @@
         <v/>
       </c>
       <c r="STO6" s="1" t="str">
-        <f t="shared" ref="STO6:SVZ6" si="208">UPPER(STN6)</f>
+        <f t="shared" si="207"/>
         <v/>
       </c>
       <c r="STP6" s="1" t="str">
-        <f t="shared" si="208"/>
+        <f t="shared" ref="STP6:SWA6" si="208">UPPER(STO6)</f>
         <v/>
       </c>
       <c r="STQ6" s="1" t="str">
@@ -55225,11 +55303,11 @@
         <v/>
       </c>
       <c r="SWA6" s="1" t="str">
-        <f t="shared" ref="SWA6:SYL6" si="209">UPPER(SVZ6)</f>
+        <f t="shared" si="208"/>
         <v/>
       </c>
       <c r="SWB6" s="1" t="str">
-        <f t="shared" si="209"/>
+        <f t="shared" ref="SWB6:SYM6" si="209">UPPER(SWA6)</f>
         <v/>
       </c>
       <c r="SWC6" s="1" t="str">
@@ -55481,11 +55559,11 @@
         <v/>
       </c>
       <c r="SYM6" s="1" t="str">
-        <f t="shared" ref="SYM6:TAX6" si="210">UPPER(SYL6)</f>
+        <f t="shared" si="209"/>
         <v/>
       </c>
       <c r="SYN6" s="1" t="str">
-        <f t="shared" si="210"/>
+        <f t="shared" ref="SYN6:TAY6" si="210">UPPER(SYM6)</f>
         <v/>
       </c>
       <c r="SYO6" s="1" t="str">
@@ -55737,11 +55815,11 @@
         <v/>
       </c>
       <c r="TAY6" s="1" t="str">
-        <f t="shared" ref="TAY6:TDJ6" si="211">UPPER(TAX6)</f>
+        <f t="shared" si="210"/>
         <v/>
       </c>
       <c r="TAZ6" s="1" t="str">
-        <f t="shared" si="211"/>
+        <f t="shared" ref="TAZ6:TDK6" si="211">UPPER(TAY6)</f>
         <v/>
       </c>
       <c r="TBA6" s="1" t="str">
@@ -55993,11 +56071,11 @@
         <v/>
       </c>
       <c r="TDK6" s="1" t="str">
-        <f t="shared" ref="TDK6:TFV6" si="212">UPPER(TDJ6)</f>
+        <f t="shared" si="211"/>
         <v/>
       </c>
       <c r="TDL6" s="1" t="str">
-        <f t="shared" si="212"/>
+        <f t="shared" ref="TDL6:TFW6" si="212">UPPER(TDK6)</f>
         <v/>
       </c>
       <c r="TDM6" s="1" t="str">
@@ -56249,11 +56327,11 @@
         <v/>
       </c>
       <c r="TFW6" s="1" t="str">
-        <f t="shared" ref="TFW6:TIH6" si="213">UPPER(TFV6)</f>
+        <f t="shared" si="212"/>
         <v/>
       </c>
       <c r="TFX6" s="1" t="str">
-        <f t="shared" si="213"/>
+        <f t="shared" ref="TFX6:TII6" si="213">UPPER(TFW6)</f>
         <v/>
       </c>
       <c r="TFY6" s="1" t="str">
@@ -56505,11 +56583,11 @@
         <v/>
       </c>
       <c r="TII6" s="1" t="str">
-        <f t="shared" ref="TII6:TKT6" si="214">UPPER(TIH6)</f>
+        <f t="shared" si="213"/>
         <v/>
       </c>
       <c r="TIJ6" s="1" t="str">
-        <f t="shared" si="214"/>
+        <f t="shared" ref="TIJ6:TKU6" si="214">UPPER(TII6)</f>
         <v/>
       </c>
       <c r="TIK6" s="1" t="str">
@@ -56761,11 +56839,11 @@
         <v/>
       </c>
       <c r="TKU6" s="1" t="str">
-        <f t="shared" ref="TKU6:TNF6" si="215">UPPER(TKT6)</f>
+        <f t="shared" si="214"/>
         <v/>
       </c>
       <c r="TKV6" s="1" t="str">
-        <f t="shared" si="215"/>
+        <f t="shared" ref="TKV6:TNG6" si="215">UPPER(TKU6)</f>
         <v/>
       </c>
       <c r="TKW6" s="1" t="str">
@@ -57017,11 +57095,11 @@
         <v/>
       </c>
       <c r="TNG6" s="1" t="str">
-        <f t="shared" ref="TNG6:TPR6" si="216">UPPER(TNF6)</f>
+        <f t="shared" si="215"/>
         <v/>
       </c>
       <c r="TNH6" s="1" t="str">
-        <f t="shared" si="216"/>
+        <f t="shared" ref="TNH6:TPS6" si="216">UPPER(TNG6)</f>
         <v/>
       </c>
       <c r="TNI6" s="1" t="str">
@@ -57273,11 +57351,11 @@
         <v/>
       </c>
       <c r="TPS6" s="1" t="str">
-        <f t="shared" ref="TPS6:TSD6" si="217">UPPER(TPR6)</f>
+        <f t="shared" si="216"/>
         <v/>
       </c>
       <c r="TPT6" s="1" t="str">
-        <f t="shared" si="217"/>
+        <f t="shared" ref="TPT6:TSE6" si="217">UPPER(TPS6)</f>
         <v/>
       </c>
       <c r="TPU6" s="1" t="str">
@@ -57529,11 +57607,11 @@
         <v/>
       </c>
       <c r="TSE6" s="1" t="str">
-        <f t="shared" ref="TSE6:TUP6" si="218">UPPER(TSD6)</f>
+        <f t="shared" si="217"/>
         <v/>
       </c>
       <c r="TSF6" s="1" t="str">
-        <f t="shared" si="218"/>
+        <f t="shared" ref="TSF6:TUQ6" si="218">UPPER(TSE6)</f>
         <v/>
       </c>
       <c r="TSG6" s="1" t="str">
@@ -57785,11 +57863,11 @@
         <v/>
       </c>
       <c r="TUQ6" s="1" t="str">
-        <f t="shared" ref="TUQ6:TXB6" si="219">UPPER(TUP6)</f>
+        <f t="shared" si="218"/>
         <v/>
       </c>
       <c r="TUR6" s="1" t="str">
-        <f t="shared" si="219"/>
+        <f t="shared" ref="TUR6:TXC6" si="219">UPPER(TUQ6)</f>
         <v/>
       </c>
       <c r="TUS6" s="1" t="str">
@@ -58041,11 +58119,11 @@
         <v/>
       </c>
       <c r="TXC6" s="1" t="str">
-        <f t="shared" ref="TXC6:TZN6" si="220">UPPER(TXB6)</f>
+        <f t="shared" si="219"/>
         <v/>
       </c>
       <c r="TXD6" s="1" t="str">
-        <f t="shared" si="220"/>
+        <f t="shared" ref="TXD6:TZO6" si="220">UPPER(TXC6)</f>
         <v/>
       </c>
       <c r="TXE6" s="1" t="str">
@@ -58297,11 +58375,11 @@
         <v/>
       </c>
       <c r="TZO6" s="1" t="str">
-        <f t="shared" ref="TZO6:UBZ6" si="221">UPPER(TZN6)</f>
+        <f t="shared" si="220"/>
         <v/>
       </c>
       <c r="TZP6" s="1" t="str">
-        <f t="shared" si="221"/>
+        <f t="shared" ref="TZP6:UCA6" si="221">UPPER(TZO6)</f>
         <v/>
       </c>
       <c r="TZQ6" s="1" t="str">
@@ -58553,11 +58631,11 @@
         <v/>
       </c>
       <c r="UCA6" s="1" t="str">
-        <f t="shared" ref="UCA6:UEL6" si="222">UPPER(UBZ6)</f>
+        <f t="shared" si="221"/>
         <v/>
       </c>
       <c r="UCB6" s="1" t="str">
-        <f t="shared" si="222"/>
+        <f t="shared" ref="UCB6:UEM6" si="222">UPPER(UCA6)</f>
         <v/>
       </c>
       <c r="UCC6" s="1" t="str">
@@ -58809,11 +58887,11 @@
         <v/>
       </c>
       <c r="UEM6" s="1" t="str">
-        <f t="shared" ref="UEM6:UGX6" si="223">UPPER(UEL6)</f>
+        <f t="shared" si="222"/>
         <v/>
       </c>
       <c r="UEN6" s="1" t="str">
-        <f t="shared" si="223"/>
+        <f t="shared" ref="UEN6:UGY6" si="223">UPPER(UEM6)</f>
         <v/>
       </c>
       <c r="UEO6" s="1" t="str">
@@ -59065,11 +59143,11 @@
         <v/>
       </c>
       <c r="UGY6" s="1" t="str">
-        <f t="shared" ref="UGY6:UJJ6" si="224">UPPER(UGX6)</f>
+        <f t="shared" si="223"/>
         <v/>
       </c>
       <c r="UGZ6" s="1" t="str">
-        <f t="shared" si="224"/>
+        <f t="shared" ref="UGZ6:UJK6" si="224">UPPER(UGY6)</f>
         <v/>
       </c>
       <c r="UHA6" s="1" t="str">
@@ -59321,11 +59399,11 @@
         <v/>
       </c>
       <c r="UJK6" s="1" t="str">
-        <f t="shared" ref="UJK6:ULV6" si="225">UPPER(UJJ6)</f>
+        <f t="shared" si="224"/>
         <v/>
       </c>
       <c r="UJL6" s="1" t="str">
-        <f t="shared" si="225"/>
+        <f t="shared" ref="UJL6:ULW6" si="225">UPPER(UJK6)</f>
         <v/>
       </c>
       <c r="UJM6" s="1" t="str">
@@ -59577,11 +59655,11 @@
         <v/>
       </c>
       <c r="ULW6" s="1" t="str">
-        <f t="shared" ref="ULW6:UOH6" si="226">UPPER(ULV6)</f>
+        <f t="shared" si="225"/>
         <v/>
       </c>
       <c r="ULX6" s="1" t="str">
-        <f t="shared" si="226"/>
+        <f t="shared" ref="ULX6:UOI6" si="226">UPPER(ULW6)</f>
         <v/>
       </c>
       <c r="ULY6" s="1" t="str">
@@ -59833,11 +59911,11 @@
         <v/>
       </c>
       <c r="UOI6" s="1" t="str">
-        <f t="shared" ref="UOI6:UQT6" si="227">UPPER(UOH6)</f>
+        <f t="shared" si="226"/>
         <v/>
       </c>
       <c r="UOJ6" s="1" t="str">
-        <f t="shared" si="227"/>
+        <f t="shared" ref="UOJ6:UQU6" si="227">UPPER(UOI6)</f>
         <v/>
       </c>
       <c r="UOK6" s="1" t="str">
@@ -60089,11 +60167,11 @@
         <v/>
       </c>
       <c r="UQU6" s="1" t="str">
-        <f t="shared" ref="UQU6:UTF6" si="228">UPPER(UQT6)</f>
+        <f t="shared" si="227"/>
         <v/>
       </c>
       <c r="UQV6" s="1" t="str">
-        <f t="shared" si="228"/>
+        <f t="shared" ref="UQV6:UTG6" si="228">UPPER(UQU6)</f>
         <v/>
       </c>
       <c r="UQW6" s="1" t="str">
@@ -60345,11 +60423,11 @@
         <v/>
       </c>
       <c r="UTG6" s="1" t="str">
-        <f t="shared" ref="UTG6:UVR6" si="229">UPPER(UTF6)</f>
+        <f t="shared" si="228"/>
         <v/>
       </c>
       <c r="UTH6" s="1" t="str">
-        <f t="shared" si="229"/>
+        <f t="shared" ref="UTH6:UVS6" si="229">UPPER(UTG6)</f>
         <v/>
       </c>
       <c r="UTI6" s="1" t="str">
@@ -60601,11 +60679,11 @@
         <v/>
       </c>
       <c r="UVS6" s="1" t="str">
-        <f t="shared" ref="UVS6:UYD6" si="230">UPPER(UVR6)</f>
+        <f t="shared" si="229"/>
         <v/>
       </c>
       <c r="UVT6" s="1" t="str">
-        <f t="shared" si="230"/>
+        <f t="shared" ref="UVT6:UYE6" si="230">UPPER(UVS6)</f>
         <v/>
       </c>
       <c r="UVU6" s="1" t="str">
@@ -60857,11 +60935,11 @@
         <v/>
       </c>
       <c r="UYE6" s="1" t="str">
-        <f t="shared" ref="UYE6:VAP6" si="231">UPPER(UYD6)</f>
+        <f t="shared" si="230"/>
         <v/>
       </c>
       <c r="UYF6" s="1" t="str">
-        <f t="shared" si="231"/>
+        <f t="shared" ref="UYF6:VAQ6" si="231">UPPER(UYE6)</f>
         <v/>
       </c>
       <c r="UYG6" s="1" t="str">
@@ -61113,11 +61191,11 @@
         <v/>
       </c>
       <c r="VAQ6" s="1" t="str">
-        <f t="shared" ref="VAQ6:VDB6" si="232">UPPER(VAP6)</f>
+        <f t="shared" si="231"/>
         <v/>
       </c>
       <c r="VAR6" s="1" t="str">
-        <f t="shared" si="232"/>
+        <f t="shared" ref="VAR6:VDC6" si="232">UPPER(VAQ6)</f>
         <v/>
       </c>
       <c r="VAS6" s="1" t="str">
@@ -61369,11 +61447,11 @@
         <v/>
       </c>
       <c r="VDC6" s="1" t="str">
-        <f t="shared" ref="VDC6:VFN6" si="233">UPPER(VDB6)</f>
+        <f t="shared" si="232"/>
         <v/>
       </c>
       <c r="VDD6" s="1" t="str">
-        <f t="shared" si="233"/>
+        <f t="shared" ref="VDD6:VFO6" si="233">UPPER(VDC6)</f>
         <v/>
       </c>
       <c r="VDE6" s="1" t="str">
@@ -61625,11 +61703,11 @@
         <v/>
       </c>
       <c r="VFO6" s="1" t="str">
-        <f t="shared" ref="VFO6:VHZ6" si="234">UPPER(VFN6)</f>
+        <f t="shared" si="233"/>
         <v/>
       </c>
       <c r="VFP6" s="1" t="str">
-        <f t="shared" si="234"/>
+        <f t="shared" ref="VFP6:VIA6" si="234">UPPER(VFO6)</f>
         <v/>
       </c>
       <c r="VFQ6" s="1" t="str">
@@ -61881,11 +61959,11 @@
         <v/>
       </c>
       <c r="VIA6" s="1" t="str">
-        <f t="shared" ref="VIA6:VKL6" si="235">UPPER(VHZ6)</f>
+        <f t="shared" si="234"/>
         <v/>
       </c>
       <c r="VIB6" s="1" t="str">
-        <f t="shared" si="235"/>
+        <f t="shared" ref="VIB6:VKM6" si="235">UPPER(VIA6)</f>
         <v/>
       </c>
       <c r="VIC6" s="1" t="str">
@@ -62137,11 +62215,11 @@
         <v/>
       </c>
       <c r="VKM6" s="1" t="str">
-        <f t="shared" ref="VKM6:VMX6" si="236">UPPER(VKL6)</f>
+        <f t="shared" si="235"/>
         <v/>
       </c>
       <c r="VKN6" s="1" t="str">
-        <f t="shared" si="236"/>
+        <f t="shared" ref="VKN6:VMY6" si="236">UPPER(VKM6)</f>
         <v/>
       </c>
       <c r="VKO6" s="1" t="str">
@@ -62393,11 +62471,11 @@
         <v/>
       </c>
       <c r="VMY6" s="1" t="str">
-        <f t="shared" ref="VMY6:VPJ6" si="237">UPPER(VMX6)</f>
+        <f t="shared" si="236"/>
         <v/>
       </c>
       <c r="VMZ6" s="1" t="str">
-        <f t="shared" si="237"/>
+        <f t="shared" ref="VMZ6:VPK6" si="237">UPPER(VMY6)</f>
         <v/>
       </c>
       <c r="VNA6" s="1" t="str">
@@ -62649,11 +62727,11 @@
         <v/>
       </c>
       <c r="VPK6" s="1" t="str">
-        <f t="shared" ref="VPK6:VRV6" si="238">UPPER(VPJ6)</f>
+        <f t="shared" si="237"/>
         <v/>
       </c>
       <c r="VPL6" s="1" t="str">
-        <f t="shared" si="238"/>
+        <f t="shared" ref="VPL6:VRW6" si="238">UPPER(VPK6)</f>
         <v/>
       </c>
       <c r="VPM6" s="1" t="str">
@@ -62905,11 +62983,11 @@
         <v/>
       </c>
       <c r="VRW6" s="1" t="str">
-        <f t="shared" ref="VRW6:VUH6" si="239">UPPER(VRV6)</f>
+        <f t="shared" si="238"/>
         <v/>
       </c>
       <c r="VRX6" s="1" t="str">
-        <f t="shared" si="239"/>
+        <f t="shared" ref="VRX6:VUI6" si="239">UPPER(VRW6)</f>
         <v/>
       </c>
       <c r="VRY6" s="1" t="str">
@@ -63161,11 +63239,11 @@
         <v/>
       </c>
       <c r="VUI6" s="1" t="str">
-        <f t="shared" ref="VUI6:VWT6" si="240">UPPER(VUH6)</f>
+        <f t="shared" si="239"/>
         <v/>
       </c>
       <c r="VUJ6" s="1" t="str">
-        <f t="shared" si="240"/>
+        <f t="shared" ref="VUJ6:VWU6" si="240">UPPER(VUI6)</f>
         <v/>
       </c>
       <c r="VUK6" s="1" t="str">
@@ -63417,11 +63495,11 @@
         <v/>
       </c>
       <c r="VWU6" s="1" t="str">
-        <f t="shared" ref="VWU6:VZF6" si="241">UPPER(VWT6)</f>
+        <f t="shared" si="240"/>
         <v/>
       </c>
       <c r="VWV6" s="1" t="str">
-        <f t="shared" si="241"/>
+        <f t="shared" ref="VWV6:VZG6" si="241">UPPER(VWU6)</f>
         <v/>
       </c>
       <c r="VWW6" s="1" t="str">
@@ -63673,11 +63751,11 @@
         <v/>
       </c>
       <c r="VZG6" s="1" t="str">
-        <f t="shared" ref="VZG6:WBR6" si="242">UPPER(VZF6)</f>
+        <f t="shared" si="241"/>
         <v/>
       </c>
       <c r="VZH6" s="1" t="str">
-        <f t="shared" si="242"/>
+        <f t="shared" ref="VZH6:WBS6" si="242">UPPER(VZG6)</f>
         <v/>
       </c>
       <c r="VZI6" s="1" t="str">
@@ -63929,11 +64007,11 @@
         <v/>
       </c>
       <c r="WBS6" s="1" t="str">
-        <f t="shared" ref="WBS6:WED6" si="243">UPPER(WBR6)</f>
+        <f t="shared" si="242"/>
         <v/>
       </c>
       <c r="WBT6" s="1" t="str">
-        <f t="shared" si="243"/>
+        <f t="shared" ref="WBT6:WEE6" si="243">UPPER(WBS6)</f>
         <v/>
       </c>
       <c r="WBU6" s="1" t="str">
@@ -64185,11 +64263,11 @@
         <v/>
       </c>
       <c r="WEE6" s="1" t="str">
-        <f t="shared" ref="WEE6:WGP6" si="244">UPPER(WED6)</f>
+        <f t="shared" si="243"/>
         <v/>
       </c>
       <c r="WEF6" s="1" t="str">
-        <f t="shared" si="244"/>
+        <f t="shared" ref="WEF6:WGQ6" si="244">UPPER(WEE6)</f>
         <v/>
       </c>
       <c r="WEG6" s="1" t="str">
@@ -64441,11 +64519,11 @@
         <v/>
       </c>
       <c r="WGQ6" s="1" t="str">
-        <f t="shared" ref="WGQ6:WHQ6" si="245">UPPER(WGP6)</f>
+        <f t="shared" si="244"/>
         <v/>
       </c>
       <c r="WGR6" s="1" t="str">
-        <f t="shared" si="245"/>
+        <f t="shared" ref="WGR6:WHR6" si="245">UPPER(WGQ6)</f>
         <v/>
       </c>
       <c r="WGS6" s="1" t="str">
@@ -64548,8 +64626,12 @@
         <f t="shared" si="245"/>
         <v/>
       </c>
+      <c r="WHR6" s="1" t="str">
+        <f t="shared" si="245"/>
+        <v/>
+      </c>
     </row>
-    <row r="7" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>64</v>
       </c>
@@ -64557,19 +64639,19 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D7" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>64</v>
       </c>
@@ -64577,19 +64659,19 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>363</v>
-      </c>
-      <c r="D8" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>176</v>
       </c>
-      <c r="E8" s="2" t="s">
+      <c r="F8" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>4</v>
       </c>
@@ -64597,19 +64679,19 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D9" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>4</v>
       </c>
@@ -64617,19 +64699,19 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D10" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="E10" s="2" t="s">
+      <c r="F10" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>7</v>
       </c>
@@ -64639,14 +64721,14 @@
       <c r="C11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="F11" s="1" t="s">
+      <c r="G11" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>65</v>
       </c>
@@ -64656,17 +64738,17 @@
       <c r="C12" s="1" t="s">
         <v>186</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>10</v>
       </c>
@@ -64676,17 +64758,17 @@
       <c r="C13" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="E13" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="F13" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>10</v>
       </c>
@@ -64696,34 +64778,37 @@
       <c r="C14" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>189</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>321</v>
+      <c r="C15" s="1" t="s">
+        <v>391</v>
       </c>
       <c r="E15" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>184</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15774" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>67</v>
       </c>
@@ -64731,33 +64816,33 @@
         <v>195</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>389</v>
-      </c>
-      <c r="D16" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="F16" s="1" t="s">
         <v>188</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>66</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="1">
+      <c r="F17" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="H17" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>11</v>
       </c>
@@ -64765,19 +64850,19 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D18" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E18" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="F18" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>11</v>
       </c>
@@ -64785,19 +64870,19 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>364</v>
-      </c>
-      <c r="D19" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="E19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E19" s="2" t="s">
+      <c r="F19" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>12</v>
       </c>
@@ -64805,39 +64890,42 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>387</v>
-      </c>
-      <c r="D20" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="E20" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="F20" s="1" t="s">
+      <c r="G20" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>72</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>323</v>
+      <c r="C21" s="1" t="s">
+        <v>393</v>
       </c>
       <c r="E21" s="1" t="s">
+        <v>315</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>13</v>
       </c>
@@ -64847,17 +64935,17 @@
       <c r="C22" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="E22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G22" s="1">
+      <c r="H22" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>14</v>
       </c>
@@ -64867,17 +64955,17 @@
       <c r="C23" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="E23" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="F23" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G23" s="1">
+      <c r="H23" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>14</v>
       </c>
@@ -64887,17 +64975,17 @@
       <c r="C24" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="E24" s="1" t="s">
         <v>175</v>
       </c>
-      <c r="E24" s="2" t="s">
+      <c r="F24" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G24" s="1">
+      <c r="H24" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>15</v>
       </c>
@@ -64905,19 +64993,19 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="D25" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="E25" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G25" s="1">
+      <c r="H25" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>16</v>
       </c>
@@ -64927,17 +65015,17 @@
       <c r="C26" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D26" s="1" t="s">
+      <c r="E26" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="F26" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="G26" s="1">
+      <c r="H26" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>17</v>
       </c>
@@ -64947,20 +65035,20 @@
       <c r="C27" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="E27" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="F27" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="F27" s="1" t="s">
+      <c r="G27" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G27" s="1">
+      <c r="H27" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
         <v>17</v>
       </c>
@@ -64970,20 +65058,20 @@
       <c r="C28" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="E28" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="E28" s="2" t="s">
+      <c r="F28" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="F28" s="1" t="s">
+      <c r="G28" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="G28" s="1">
+      <c r="H28" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>69</v>
       </c>
@@ -64993,17 +65081,17 @@
       <c r="C29" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="E29" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="F29" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G29" s="1">
+      <c r="H29" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>69</v>
       </c>
@@ -65013,17 +65101,17 @@
       <c r="C30" s="1" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E30" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="F30" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G30" s="1">
+      <c r="H30" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
         <v>70</v>
       </c>
@@ -65031,19 +65119,19 @@
         <v>224</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="D31" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E31" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="F31" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="G31" s="1">
+      <c r="H31" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
         <v>18</v>
       </c>
@@ -65051,19 +65139,19 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>304</v>
+        <v>399</v>
       </c>
       <c r="E32" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="F32" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G32" s="1">
+      <c r="H32" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
         <v>19</v>
       </c>
@@ -65073,17 +65161,17 @@
       <c r="C33" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="E33" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G33" s="1">
+      <c r="H33" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>19</v>
       </c>
@@ -65093,17 +65181,17 @@
       <c r="C34" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="E34" s="1" t="s">
         <v>177</v>
       </c>
-      <c r="E34" s="2" t="s">
+      <c r="F34" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G34" s="1">
+      <c r="H34" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>20</v>
       </c>
@@ -65111,21 +65199,21 @@
         <v>224</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D35" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="E35" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G35" s="1">
+      <c r="H35" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
@@ -65133,19 +65221,19 @@
       <c r="C36" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D36" s="1" t="s">
+      <c r="E36" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="F36" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G36" s="1">
+      <c r="H36" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>355</v>
+        <v>344</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
@@ -65153,36 +65241,36 @@
       <c r="C37" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="E37" s="1" t="s">
         <v>201</v>
       </c>
-      <c r="E37" s="2" t="s">
+      <c r="F37" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G37" s="1">
+      <c r="H37" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>352</v>
+        <v>341</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D38" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="E38" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E38" s="2" t="s">
-        <v>354</v>
+      <c r="F38" s="2" t="s">
+        <v>343</v>
       </c>
     </row>
-    <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
@@ -65190,19 +65278,19 @@
       <c r="C39" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D39" s="1" t="s">
-        <v>386</v>
-      </c>
       <c r="E39" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G39" s="1">
+      <c r="H39" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>353</v>
+        <v>342</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
@@ -65210,17 +65298,17 @@
       <c r="C40" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>386</v>
-      </c>
-      <c r="E40" s="2" t="s">
+      <c r="E40" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="F40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G40" s="1">
+      <c r="H40" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
         <v>74</v>
       </c>
@@ -65230,17 +65318,17 @@
       <c r="C41" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="E41" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="F41" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G41" s="1">
+      <c r="H41" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
         <v>74</v>
       </c>
@@ -65250,17 +65338,17 @@
       <c r="C42" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="E42" s="1" t="s">
         <v>202</v>
       </c>
-      <c r="E42" s="2" t="s">
+      <c r="F42" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G42" s="1">
+      <c r="H42" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
         <v>75</v>
       </c>
@@ -65270,17 +65358,17 @@
       <c r="C43" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D43" s="1" t="s">
+      <c r="E43" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="F43" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G43" s="1">
+      <c r="H43" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
         <v>75</v>
       </c>
@@ -65290,17 +65378,17 @@
       <c r="C44" s="1" t="s">
         <v>200</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="E44" s="1" t="s">
         <v>203</v>
       </c>
-      <c r="E44" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G44" s="1">
+      <c r="H44" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
         <v>21</v>
       </c>
@@ -65308,19 +65396,19 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="D45" s="1" t="s">
+        <v>355</v>
+      </c>
+      <c r="E45" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="F45" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G45" s="1">
+      <c r="H45" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
         <v>21</v>
       </c>
@@ -65328,19 +65416,19 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D46" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>178</v>
       </c>
-      <c r="E46" s="2" t="s">
+      <c r="F46" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G46" s="1">
+      <c r="H46" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
         <v>76</v>
       </c>
@@ -65350,17 +65438,17 @@
       <c r="C47" s="1" t="s">
         <v>205</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="F47" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G47" s="1">
+      <c r="H47" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
         <v>77</v>
       </c>
@@ -65370,14 +65458,14 @@
       <c r="C48" s="1" t="s">
         <v>206</v>
       </c>
-      <c r="D48" s="1" t="s">
-        <v>310</v>
-      </c>
-      <c r="G48" s="1">
+      <c r="E48" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="H48" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
         <v>84</v>
       </c>
@@ -65387,17 +65475,17 @@
       <c r="C49" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D49" s="1" t="s">
-        <v>344</v>
-      </c>
       <c r="E49" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F49" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G49" s="1">
+      <c r="H49" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>84</v>
       </c>
@@ -65407,17 +65495,17 @@
       <c r="C50" s="1" t="s">
         <v>207</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="E50" s="2" t="s">
+      <c r="E50" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="F50" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G50" s="1">
+      <c r="H50" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
         <v>22</v>
       </c>
@@ -65427,20 +65515,20 @@
       <c r="C51" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="E51" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="F51" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="F51" s="1" t="s">
+      <c r="G51" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G51" s="1">
+      <c r="H51" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
         <v>83</v>
       </c>
@@ -65448,19 +65536,19 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D52" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E52" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="F52" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G52" s="1">
+      <c r="H52" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>83</v>
       </c>
@@ -65468,19 +65556,19 @@
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>375</v>
-      </c>
-      <c r="D53" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="E53" s="1" t="s">
         <v>216</v>
       </c>
-      <c r="E53" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G53" s="1">
+      <c r="H53" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>23</v>
       </c>
@@ -65488,70 +65576,79 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D54" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="F54" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="G54" s="1">
+      <c r="H54" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
         <v>81</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="C55" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="E55" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="E55" s="2" t="s">
+      <c r="F55" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G55" s="1">
+      <c r="H55" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="E56" s="2" t="s">
+      <c r="C56" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="F56" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G56" s="1">
+      <c r="H56" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D57" s="3" t="s">
-        <v>275</v>
+      <c r="C57" s="1" t="s">
+        <v>396</v>
       </c>
       <c r="E57" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="F57" s="1" t="s">
         <v>229</v>
       </c>
-      <c r="G57" s="1">
+      <c r="H57" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="58" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
         <v>79</v>
       </c>
@@ -65559,13 +65656,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="G58" s="1">
+        <v>357</v>
+      </c>
+      <c r="H58" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
         <v>78</v>
       </c>
@@ -65575,17 +65672,17 @@
       <c r="C59" s="1" t="s">
         <v>233</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="E59" s="1" t="s">
         <v>231</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="1" t="s">
         <v>232</v>
       </c>
-      <c r="G59" s="1">
+      <c r="H59" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="60" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -65593,53 +65690,59 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="D60" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E60" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E60" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="F60" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="H60" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="61" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D61" s="1" t="s">
+      <c r="C61" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E61" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="F61" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G61" s="1">
+      <c r="H61" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="C62" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E62" s="1" t="s">
         <v>181</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="F62" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G62" s="1">
+      <c r="H62" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
         <v>25</v>
       </c>
@@ -65647,19 +65750,19 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D63" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="E63" s="1" t="s">
         <v>182</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>225</v>
       </c>
-      <c r="G63" s="1">
+      <c r="H63" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="64" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
         <v>86</v>
       </c>
@@ -65669,17 +65772,17 @@
       <c r="C64" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="E64" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="F64" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G64" s="1">
+      <c r="H64" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
         <v>86</v>
       </c>
@@ -65689,34 +65792,37 @@
       <c r="C65" s="1" t="s">
         <v>235</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="E65" s="1" t="s">
         <v>234</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="F65" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G65" s="1">
+      <c r="H65" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="66" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
         <v>87</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="C66" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="E66" s="1" t="s">
         <v>236</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="F66" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G66" s="1">
+      <c r="H66" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
         <v>26</v>
       </c>
@@ -65726,17 +65832,17 @@
       <c r="C67" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="E67" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="F67" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G67" s="1">
+      <c r="H67" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="68" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
         <v>26</v>
       </c>
@@ -65746,17 +65852,17 @@
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D68" s="1" t="s">
+      <c r="E68" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="F68" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G68" s="1">
+      <c r="H68" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="69" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
         <v>88</v>
       </c>
@@ -65764,19 +65870,19 @@
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D69" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="E69" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E69" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="F69" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="H69" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="70" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
         <v>89</v>
       </c>
@@ -65784,19 +65890,19 @@
         <v>224</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D70" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="E70" s="1" t="s">
         <v>237</v>
       </c>
-      <c r="E70" s="1" t="s">
+      <c r="F70" s="1" t="s">
         <v>238</v>
       </c>
-      <c r="G70" s="1">
+      <c r="H70" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
         <v>90</v>
       </c>
@@ -65804,36 +65910,36 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D71" s="1" t="s">
-        <v>312</v>
+        <v>367</v>
       </c>
       <c r="E71" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="F71" s="1" t="s">
         <v>241</v>
       </c>
-      <c r="G71" s="1">
+      <c r="H71" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="72" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
         <v>91</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D72" s="1" t="s">
+      <c r="E72" s="1" t="s">
         <v>242</v>
       </c>
-      <c r="E72" s="1" t="s">
+      <c r="F72" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G72" s="1">
+      <c r="H72" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="73" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
         <v>28</v>
       </c>
@@ -65841,19 +65947,19 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D73" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E73" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E73" s="1" t="s">
+      <c r="F73" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G73" s="1">
+      <c r="H73" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
         <v>28</v>
       </c>
@@ -65861,19 +65967,19 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D74" s="1" t="s">
+        <v>359</v>
+      </c>
+      <c r="E74" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="E74" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G74" s="1">
+      <c r="H74" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
         <v>27</v>
       </c>
@@ -65883,34 +65989,34 @@
       <c r="C75" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D75" s="1" t="s">
+      <c r="E75" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E75" s="1" t="s">
+      <c r="F75" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G75" s="1">
+      <c r="H75" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
         <v>92</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D76" s="1" t="s">
+      <c r="E76" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E76" s="3" t="s">
+      <c r="F76" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="G76" s="1">
+      <c r="H76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
         <v>29</v>
       </c>
@@ -65920,20 +66026,20 @@
       <c r="C77" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D77" s="1" t="s">
+      <c r="E77" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="E77" s="1" t="s">
+      <c r="F77" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F77" s="1" t="s">
+      <c r="G77" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="G77" s="1">
+      <c r="H77" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
         <v>93</v>
       </c>
@@ -65941,138 +66047,138 @@
         <v>224</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D78" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E78" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="E78" s="3" t="s">
+      <c r="F78" s="3" t="s">
         <v>245</v>
       </c>
-      <c r="G78" s="1">
+      <c r="H78" s="1">
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D79" s="1" t="s">
+      <c r="E79" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E79" s="1" t="s">
+      <c r="F79" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G79" s="1">
+      <c r="H79" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="80" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
         <v>94</v>
       </c>
       <c r="B80" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D80" s="1" t="s">
+      <c r="E80" s="1" t="s">
         <v>244</v>
       </c>
-      <c r="E80" s="1" t="s">
+      <c r="F80" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G80" s="1">
+      <c r="H80" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="81" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E81" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F81" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G81" s="1">
+      <c r="H81" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
         <v>95</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>347</v>
-      </c>
       <c r="E82" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="F82" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G82" s="1">
+      <c r="H82" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="83" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>224</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>390</v>
-      </c>
-      <c r="D83" s="1" t="s">
-        <v>357</v>
+        <v>378</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>358</v>
+        <v>346</v>
+      </c>
+      <c r="F83" s="1" t="s">
+        <v>347</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D84" s="1" t="s">
+      <c r="E84" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E84" s="1" t="s">
+      <c r="F84" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G84" s="1">
+      <c r="H84" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="85" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
         <v>30</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D85" s="1" t="s">
+      <c r="E85" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="E85" s="1" t="s">
+      <c r="F85" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G85" s="1">
+      <c r="H85" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="86" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>96</v>
       </c>
@@ -66080,19 +66186,19 @@
         <v>224</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D86" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="E86" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E86" s="1" t="s">
+      <c r="F86" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="G86" s="1">
+      <c r="H86" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>97</v>
       </c>
@@ -66100,19 +66206,19 @@
         <v>224</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>391</v>
-      </c>
-      <c r="D87" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E87" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="E87" s="1" t="s">
+      <c r="F87" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="G87" s="1">
+      <c r="H87" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
         <v>98</v>
       </c>
@@ -66122,17 +66228,17 @@
       <c r="C88" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="E88" s="2" t="s">
+      <c r="E88" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F88" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G88" s="1">
+      <c r="H88" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>98</v>
       </c>
@@ -66142,187 +66248,187 @@
       <c r="C89" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D89" s="1" t="s">
-        <v>251</v>
-      </c>
       <c r="E89" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F89" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G89" s="1">
+      <c r="H89" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D90" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E90" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F90" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G90" s="1">
+      <c r="H90" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D91" s="1" t="s">
-        <v>252</v>
-      </c>
       <c r="E91" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="F91" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G91" s="1">
+      <c r="H91" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D92" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E92" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F92" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G92" s="1">
+      <c r="H92" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>100</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D93" s="1" t="s">
-        <v>253</v>
-      </c>
       <c r="E93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="F93" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G93" s="1">
+      <c r="H93" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D94" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E94" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F94" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G94" s="1">
+      <c r="H94" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>101</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>254</v>
-      </c>
       <c r="E95" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="F95" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G95" s="1">
+      <c r="H95" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>102</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D96" s="1" t="s">
+      <c r="E96" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E96" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="G96" s="1">
+      <c r="F96" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="H96" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D97" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E97" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G97" s="1">
+      <c r="H97" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>103</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D98" s="1" t="s">
-        <v>256</v>
-      </c>
       <c r="E98" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F98" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G98" s="1">
+      <c r="H98" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>104</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D99" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="E99" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="G99" s="1">
+        <v>255</v>
+      </c>
+      <c r="F99" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="H99" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="100" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>105</v>
       </c>
@@ -66330,121 +66436,124 @@
         <v>224</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>382</v>
-      </c>
-      <c r="D100" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="E100" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E100" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="G100" s="1">
+      <c r="F100" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="H100" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="101" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D101" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E101" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F101" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G101" s="1">
+      <c r="H101" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="102" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>106</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D102" s="1" t="s">
-        <v>260</v>
-      </c>
       <c r="E102" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="F102" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G102" s="1">
+      <c r="H102" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="103" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>107</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D103" s="1" t="s">
+      <c r="E103" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E103" s="2" t="s">
-        <v>313</v>
-      </c>
-      <c r="G103" s="1">
+      <c r="F103" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="H103" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="104" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
         <v>108</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D104" s="1" t="s">
-        <v>314</v>
+      <c r="C104" s="1" t="s">
+        <v>388</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="G104" s="1">
+        <v>408</v>
+      </c>
+      <c r="F104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="H104" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="105" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D105" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E105" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F105" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G105" s="1">
+      <c r="H105" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>109</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D106" s="1" t="s">
-        <v>262</v>
-      </c>
       <c r="E106" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="F106" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G106" s="1">
+      <c r="H106" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="107" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>110</v>
       </c>
@@ -66452,19 +66561,19 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D107" s="1" t="s">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="E107" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F107" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G107" s="1">
+      <c r="H107" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
         <v>110</v>
       </c>
@@ -66472,64 +66581,64 @@
         <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>263</v>
+        <v>369</v>
       </c>
       <c r="E108" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="F108" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G108" s="1">
+      <c r="H108" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="109" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>111</v>
       </c>
       <c r="B109" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D109" s="1" t="s">
+      <c r="E109" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E109" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="G109" s="1">
+      <c r="F109" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="H109" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>112</v>
       </c>
       <c r="B110" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D110" s="1" t="s">
+      <c r="E110" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E110" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="G110" s="1">
+      <c r="F110" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="H110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>113</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="G111" s="1">
+      <c r="H111" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="112" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>114</v>
       </c>
@@ -66537,53 +66646,53 @@
         <v>6</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>374</v>
-      </c>
-      <c r="D112" s="1" t="s">
-        <v>315</v>
+        <v>362</v>
       </c>
       <c r="E112" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="F112" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G112" s="1">
+      <c r="H112" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="113" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D113" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E113" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F113" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G113" s="1">
+      <c r="H113" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="114" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>115</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D114" s="1" t="s">
-        <v>266</v>
-      </c>
       <c r="E114" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="F114" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G114" s="1">
+      <c r="H114" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="115" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
         <v>116</v>
       </c>
@@ -66591,19 +66700,19 @@
         <v>5</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D115" s="1" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="E115" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F115" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G115" s="1">
+      <c r="H115" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="116" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>116</v>
       </c>
@@ -66611,36 +66720,36 @@
         <v>6</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="D116" s="1" t="s">
-        <v>267</v>
+        <v>360</v>
       </c>
       <c r="E116" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="F116" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G116" s="1">
+      <c r="H116" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="117" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>117</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D117" s="1" t="s">
+      <c r="E117" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E117" s="1" t="s">
-        <v>268</v>
-      </c>
-      <c r="G117" s="1">
+      <c r="F117" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="H117" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="118" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>118</v>
       </c>
@@ -66648,19 +66757,19 @@
         <v>5</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D118" s="1" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="E118" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F118" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G118" s="1">
+      <c r="H118" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="119" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
         <v>118</v>
       </c>
@@ -66668,353 +66777,359 @@
         <v>6</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D119" s="1" t="s">
-        <v>269</v>
+        <v>371</v>
       </c>
       <c r="E119" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="F119" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G119" s="1">
+      <c r="H119" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="120" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
         <v>119</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D120" s="1" t="s">
+      <c r="E120" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E120" s="1" t="s">
+      <c r="F120" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="G120" s="1">
+      <c r="H120" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="121" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
         <v>120</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D121" s="1" t="s">
+      <c r="E121" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E121" s="1" t="s">
-        <v>270</v>
-      </c>
-      <c r="G121" s="1">
+      <c r="F121" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="H121" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="122" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D122" s="1" t="s">
+      <c r="E122" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E122" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="G122" s="1">
+      <c r="F122" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="H122" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="123" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
         <v>121</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D123" s="1" t="s">
-        <v>274</v>
-      </c>
       <c r="E123" s="1" t="s">
-        <v>272</v>
-      </c>
-      <c r="G123" s="1">
+        <v>270</v>
+      </c>
+      <c r="F123" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="H123" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="124" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D124" s="1" t="s">
-        <v>273</v>
-      </c>
       <c r="E124" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F124" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G124" s="1">
+      <c r="H124" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="125" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
         <v>122</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D125" s="1" t="s">
-        <v>273</v>
-      </c>
-      <c r="E125" s="2" t="s">
+      <c r="E125" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="F125" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="G125" s="1">
+      <c r="H125" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="126" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B126" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D126" s="1" t="s">
-        <v>276</v>
+      <c r="C126" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E126" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F126" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G126" s="1">
+      <c r="H126" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="127" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
         <v>123</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D127" s="1" t="s">
-        <v>276</v>
+      <c r="C127" s="1" t="s">
+        <v>386</v>
       </c>
       <c r="E127" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="F127" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G127" s="1">
+      <c r="H127" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="128" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B128" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E128" s="1" t="s">
+      <c r="F128" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G128" s="1">
+      <c r="H128" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="129" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
         <v>124</v>
       </c>
       <c r="B129" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E129" s="1" t="s">
+      <c r="F129" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G129" s="1">
+      <c r="H129" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="130" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
         <v>125</v>
       </c>
       <c r="B130" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D130" s="1" t="s">
-        <v>277</v>
-      </c>
       <c r="E130" s="1" t="s">
-        <v>278</v>
-      </c>
-      <c r="G130" s="1">
+        <v>273</v>
+      </c>
+      <c r="F130" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="H130" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="131" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
         <v>126</v>
       </c>
       <c r="B131" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D131" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="E131" s="2" t="s">
+      <c r="E131" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="F131" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="G131" s="1">
+      <c r="H131" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="132" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
         <v>127</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D132" s="1" t="s">
+      <c r="E132" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E132" s="2" t="s">
-        <v>279</v>
-      </c>
-      <c r="G132" s="1">
+      <c r="F132" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="H132" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D133" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E133" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F133" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G133" s="1">
+      <c r="H133" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="134" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>128</v>
       </c>
       <c r="B134" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D134" s="1" t="s">
-        <v>280</v>
-      </c>
       <c r="E134" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="F134" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G134" s="1">
+      <c r="H134" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="135" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>129</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D135" s="1" t="s">
+      <c r="E135" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E135" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="G135" s="1">
+      <c r="F135" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="H135" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="136" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D136" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E136" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F136" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G136" s="1">
+      <c r="H136" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="137" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>130</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D137" s="1" t="s">
-        <v>282</v>
-      </c>
       <c r="E137" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="F137" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G137" s="1">
+      <c r="H137" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="138" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D138" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E138" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F138" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G138" s="1">
+      <c r="H138" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>131</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D139" s="1" t="s">
-        <v>283</v>
-      </c>
       <c r="E139" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="F139" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G139" s="1">
+      <c r="H139" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>132</v>
       </c>
@@ -67022,19 +67137,19 @@
         <v>5</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D140" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E140" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F140" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G140" s="1">
+      <c r="H140" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="141" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>132</v>
       </c>
@@ -67042,291 +67157,312 @@
         <v>6</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="D141" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E141" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="F141" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G141" s="1">
+      <c r="H141" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
         <v>133</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D142" s="1" t="s">
+      <c r="C142" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E142" s="1" t="s">
         <v>209</v>
       </c>
-      <c r="E142" s="1" t="s">
+      <c r="F142" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G142" s="1">
+      <c r="H142" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D143" s="1" t="s">
-        <v>317</v>
+      <c r="C143" s="1" t="s">
+        <v>384</v>
       </c>
       <c r="E143" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="F143" s="1" t="s">
         <v>228</v>
       </c>
-      <c r="G143" s="1">
+      <c r="H143" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="144" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D144" s="1" t="s">
-        <v>286</v>
-      </c>
       <c r="E144" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="G144" s="1">
+        <v>282</v>
+      </c>
+      <c r="F144" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="H144" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="145" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D145" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E145" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F145" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G145" s="1">
+      <c r="H145" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="146" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D146" s="1" t="s">
-        <v>287</v>
-      </c>
       <c r="E146" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="F146" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G146" s="1">
+      <c r="H146" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="147" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D147" s="1" t="s">
-        <v>289</v>
+      <c r="C147" s="1" t="s">
+        <v>404</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="G147" s="1">
+        <v>285</v>
+      </c>
+      <c r="F147" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="H147" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="148" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D148" s="1" t="s">
-        <v>290</v>
+      <c r="C148" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="E148" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F148" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G148" s="1">
+      <c r="H148" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D149" s="1" t="s">
-        <v>291</v>
+      <c r="C149" s="1" t="s">
+        <v>405</v>
       </c>
       <c r="E149" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="F149" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G149" s="1">
+      <c r="H149" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="150" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D150" s="1" t="s">
-        <v>292</v>
+      <c r="C150" s="1" t="s">
+        <v>406</v>
       </c>
       <c r="E150" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="F150" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G150" s="1">
+      <c r="H150" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="151" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
         <v>139</v>
       </c>
       <c r="B151" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D151" s="1" t="s">
+      <c r="C151" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="E151" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E151" s="1" t="s">
-        <v>293</v>
-      </c>
-      <c r="G151" s="1">
+      <c r="F151" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="H151" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="152" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D152" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E152" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F152" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G152" s="1">
+      <c r="H152" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="153" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
         <v>140</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D153" s="1" t="s">
-        <v>294</v>
-      </c>
       <c r="E153" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="F153" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G153" s="1">
+      <c r="H153" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D154" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E154" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F154" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G154" s="1">
+      <c r="H154" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="155" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>141</v>
       </c>
       <c r="B155" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D155" s="1" t="s">
-        <v>295</v>
-      </c>
       <c r="E155" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="F155" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G155" s="1">
+      <c r="H155" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="156" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B156" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D156" s="2" t="s">
+      <c r="E156" s="2" t="s">
         <v>210</v>
       </c>
-      <c r="E156" s="1" t="s">
+      <c r="F156" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G156" s="1">
+      <c r="H156" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B157" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D157" s="1" t="s">
-        <v>319</v>
-      </c>
       <c r="E157" s="1" t="s">
+        <v>311</v>
+      </c>
+      <c r="F157" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G157" s="1">
+      <c r="H157" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="158" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>143</v>
       </c>
@@ -67336,102 +67472,102 @@
       <c r="C158" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D158" s="1" t="s">
+      <c r="E158" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E158" s="1" t="s">
+      <c r="F158" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G158" s="1">
+      <c r="H158" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="159" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D159" s="1" t="s">
+      <c r="E159" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E159" s="1" t="s">
-        <v>297</v>
-      </c>
-      <c r="G159" s="1">
+      <c r="F159" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="H159" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="160" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B160" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D160" s="1" t="s">
+      <c r="E160" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E160" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="G160" s="1">
+      <c r="F160" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="H160" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="161" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B161" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D161" s="1" t="s">
+      <c r="E161" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E161" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="G161" s="1">
+      <c r="F161" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="H161" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="162" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B162" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D162" s="1" t="s">
+      <c r="E162" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E162" s="1" t="s">
-        <v>296</v>
-      </c>
-      <c r="G162" s="1">
+      <c r="F162" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="H162" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="163" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B163" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D163" s="1" t="s">
+      <c r="E163" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E163" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="G163" s="1">
+      <c r="F163" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="H163" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="164" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
         <v>149</v>
       </c>
@@ -67439,53 +67575,59 @@
         <v>224</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>384</v>
-      </c>
-      <c r="D164" s="1" t="s">
-        <v>301</v>
+        <v>372</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="G164" s="1">
+        <v>295</v>
+      </c>
+      <c r="F164" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="H164" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="165" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D165" s="1" t="s">
-        <v>327</v>
+      <c r="C165" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G165" s="1">
+        <v>317</v>
+      </c>
+      <c r="F165" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H165" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="166" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
         <v>150</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D166" s="1" t="s">
-        <v>327</v>
+      <c r="C166" s="1" t="s">
+        <v>403</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="G166" s="1">
+        <v>317</v>
+      </c>
+      <c r="F166" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="H166" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="167" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
         <v>151</v>
       </c>
@@ -67493,16 +67635,19 @@
         <v>5</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E167" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F167" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G167" s="1">
+      <c r="H167" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="168" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
         <v>151</v>
       </c>
@@ -67510,101 +67655,119 @@
         <v>6</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>326</v>
+        <v>340</v>
       </c>
       <c r="E168" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F168" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G168" s="1">
+      <c r="H168" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="169" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D169" s="1" t="s">
-        <v>325</v>
+      <c r="C169" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="E169" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F169" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G169" s="1">
+      <c r="H169" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="170" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>152</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D170" s="1" t="s">
-        <v>325</v>
+      <c r="C170" s="1" t="s">
+        <v>402</v>
       </c>
       <c r="E170" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="F170" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G170" s="1">
+      <c r="H170" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="171" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D171" s="1" t="s">
-        <v>324</v>
+      <c r="C171" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="E171" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F171" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G171" s="1">
+      <c r="H171" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="172" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>153</v>
       </c>
       <c r="B172" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D172" s="1" t="s">
-        <v>324</v>
+      <c r="C172" s="1" t="s">
+        <v>401</v>
       </c>
       <c r="E172" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="F172" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G172" s="1">
+      <c r="H172" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="173" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B173" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D173" s="1" t="s">
-        <v>303</v>
+      <c r="C173" s="1" t="s">
+        <v>400</v>
       </c>
       <c r="E173" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="F173" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G173" s="1">
+      <c r="H173" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="174" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>155</v>
       </c>
@@ -67612,19 +67775,19 @@
         <v>5</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>305</v>
+        <v>380</v>
       </c>
       <c r="E174" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="F174" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G174" s="1">
+      <c r="H174" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="175" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>155</v>
       </c>
@@ -67632,305 +67795,311 @@
         <v>6</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D175" s="1" t="s">
-        <v>307</v>
+        <v>380</v>
       </c>
       <c r="E175" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="F175" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G175" s="1">
+      <c r="H175" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="176" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B176" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D176" s="1" t="s">
+      <c r="E176" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E176" s="3" t="s">
-        <v>306</v>
-      </c>
-      <c r="G176" s="1">
+      <c r="F176" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="H176" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="177" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>157</v>
       </c>
       <c r="B177" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D177" s="1" t="s">
+      <c r="C177" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E177" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="G177" s="1">
+      <c r="F177" s="1" t="s">
+        <v>319</v>
+      </c>
+      <c r="H177" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="178" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>158</v>
       </c>
       <c r="B178" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D178" s="1" t="s">
+      <c r="C178" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="E178" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E178" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="G178" s="1">
+      <c r="F178" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="H178" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>159</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D179" s="1" t="s">
+      <c r="E179" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E179" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="G179" s="1">
+      <c r="F179" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="H179" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D180" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E180" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F180" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G180" s="1">
+      <c r="H180" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="181" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>160</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D181" s="1" t="s">
-        <v>332</v>
-      </c>
       <c r="E181" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="F181" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G181" s="1">
+      <c r="H181" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="182" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D182" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E182" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F182" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G182" s="1">
+      <c r="H182" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="183" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>161</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D183" s="1" t="s">
-        <v>333</v>
-      </c>
       <c r="E183" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="F183" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G183" s="1">
+      <c r="H183" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="184" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D184" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="G184" s="1">
+      <c r="E184" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="H184" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="185" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D185" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E185" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F185" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G185" s="1">
+      <c r="H185" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="186" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B186" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D186" s="1" t="s">
-        <v>334</v>
-      </c>
       <c r="E186" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="F186" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G186" s="1">
+      <c r="H186" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="187" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
         <v>164</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D187" s="1" t="s">
+      <c r="E187" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E187" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="G187" s="1">
+      <c r="F187" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="H187" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="188" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>165</v>
       </c>
       <c r="B188" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D188" s="1" t="s">
-        <v>336</v>
-      </c>
       <c r="E188" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="G188" s="1">
+        <v>326</v>
+      </c>
+      <c r="F188" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="H188" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D189" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E189" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F189" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G189" s="1">
+      <c r="H189" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
         <v>166</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D190" s="1" t="s">
-        <v>338</v>
-      </c>
       <c r="E190" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="F190" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G190" s="1">
+      <c r="H190" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="191" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D191" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E191" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F191" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G191" s="1">
+      <c r="H191" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="192" spans="1:7" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
         <v>167</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D192" s="3" t="s">
-        <v>339</v>
-      </c>
       <c r="E192" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="F192" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G192" s="1">
+      <c r="H192" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="193" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
         <v>168</v>
       </c>
@@ -67938,169 +68107,181 @@
         <v>224</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="D193" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E193" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E193" s="1" t="s">
-        <v>340</v>
-      </c>
-      <c r="G193" s="1">
+      <c r="F193" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="H193" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="194" spans="1:8" s="1" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
         <v>169</v>
       </c>
       <c r="B194" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D194" s="1" t="s">
+      <c r="E194" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E194" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="G194" s="1">
+      <c r="F194" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="H194" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="195" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B195" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D195" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E195" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F195" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G195" s="1">
+      <c r="H195" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="196" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D196" s="1" t="s">
-        <v>342</v>
-      </c>
       <c r="E196" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="F196" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G196" s="1">
+      <c r="H196" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="197" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D197" s="1" t="s">
-        <v>349</v>
+      <c r="C197" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="E197" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F197" s="1" t="s">
         <v>227</v>
       </c>
-      <c r="G197" s="1">
+      <c r="H197" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="198" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B198" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D198" s="1" t="s">
-        <v>349</v>
+      <c r="C198" s="1" t="s">
+        <v>383</v>
       </c>
       <c r="E198" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="F198" s="1" t="s">
         <v>217</v>
       </c>
-      <c r="G198" s="1">
+      <c r="H198" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="199" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
         <v>172</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>224</v>
       </c>
-      <c r="D199" s="1" t="s">
+      <c r="E199" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E199" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="G199" s="1">
+      <c r="F199" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="H199" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="200" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
         <v>173</v>
       </c>
       <c r="B200" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D200" s="1" t="s">
+      <c r="C200" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="E200" s="1" t="s">
         <v>215</v>
       </c>
-      <c r="E200" s="1" t="s">
-        <v>348</v>
-      </c>
-      <c r="G200" s="1">
+      <c r="F200" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="H200" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="201" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
         <v>174</v>
       </c>
       <c r="B201" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="D201" s="1" t="s">
+      <c r="E201" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="G201" s="1">
+      <c r="H201" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="202" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>359</v>
+        <v>348</v>
       </c>
       <c r="B202" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D202" s="1" t="s">
-        <v>350</v>
+      <c r="C202" s="1" t="s">
+        <v>381</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="G202" s="1">
+        <v>412</v>
+      </c>
+      <c r="F202" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="H202" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="203" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A203"/>
       <c r="B203"/>
       <c r="C203"/>
@@ -68108,9 +68289,10 @@
       <c r="E203"/>
       <c r="F203"/>
       <c r="G203"/>
+      <c r="H203"/>
     </row>
-    <row r="204" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
-    <row r="205" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25"/>
+    <row r="205" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205"/>
       <c r="B205"/>
       <c r="C205"/>
@@ -68119,8 +68301,9 @@
       <c r="F205"/>
       <c r="G205"/>
       <c r="H205"/>
+      <c r="I205"/>
     </row>
-    <row r="206" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:9" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206"/>
       <c r="B206"/>
       <c r="C206"/>
@@ -68128,6 +68311,7 @@
       <c r="E206"/>
       <c r="F206"/>
       <c r="G206"/>
+      <c r="H206"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E2106B-3E2A-8842-9A0E-E346A2D982E7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6917A-71FE-6B47-A087-6230FD8FCD64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6460" yWindow="460" windowWidth="21940" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52E6917A-71FE-6B47-A087-6230FD8FCD64}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D840D32-F522-7041-BC23-C67CFCA0AF21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6460" yWindow="460" windowWidth="21940" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
+    <workbookView xWindow="1220" yWindow="460" windowWidth="21940" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -549,9 +549,6 @@
     <t>Any player that card shares with you gains "shy" condition.</t>
   </si>
   <si>
-    <t>Must card share with the King before the end of the game or the Blue Team loses.</t>
-  </si>
-  <si>
     <t>You must card share with the President before the end of the last round.</t>
   </si>
   <si>
@@ -561,16 +558,10 @@
     <t>Take a player’s character card anytime they attempt to use a card share power on you. You are not affected by the card share power.</t>
   </si>
   <si>
-    <t>If you fail to card share with the King and Alchemist is "dead", the blue team looses.</t>
-  </si>
-  <si>
     <t>If your vote helped successfully usurp a leader during a majority of the rounds, you win.</t>
   </si>
   <si>
     <t>Announce “I am the Beholder!” You have the "Immune" condition, and can walk freely between the rooms.</t>
-  </si>
-  <si>
-    <t>If you announce when you see any part of a player’s card, you win. If you are wrong, you loose.</t>
   </si>
   <si>
     <t>You must always tell the truth.</t>
@@ -901,9 +892,6 @@
   </si>
   <si>
     <t>You are the backup character for the Engineer. If the Engineer gains the "dead" condition during the game or is buried, you take the role of the Engineer.</t>
-  </si>
-  <si>
-    <t>You are the backup character for the Alchemist. If the Alchemist gains the "dead" condition during the game or is buried, you must card share with the king.</t>
   </si>
   <si>
     <t>Who am I?</t>
@@ -1260,9 +1248,6 @@
     <t>You have the "tackle" power. Publicly reveal your card, pick any player in the room and say, "You're going nowhere." If the target is on the same team as you, they gain the "tackled" condition and can't leave as a hostage this round. Otherwise they gain the “torn” condition, and must publicly reveal their card.</t>
   </si>
   <si>
-    <t>At the end of the game, you must declare which team you are on. "I remember which team I am on. I am on the _ ." (Red Team, Blue Team, or neither) To win you want to guess the team allegiance of the buried card.</t>
-  </si>
-  <si>
     <t>If you choose the correct team, but your team loses, you lose. If you say, "I am on nobody's team," and you are correct, you win.</t>
   </si>
   <si>
@@ -1501,6 +1486,21 @@
   </si>
   <si>
     <t>I have unfinished business</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If you see any part of another player’s card and can correctly announce it, you win. If you are wrong, you lose. </t>
+  </si>
+  <si>
+    <t>You are the backup character for the Alchemist. If The Alchemist gains the "dead" condition during the game or is buried, you must card share with the King.</t>
+  </si>
+  <si>
+    <t>If you fail to card share with the King and The Alchemist is "dead", the blue team loses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of the game, you must declare which team you are on by saying "I remember which team I am on. I am on the _." To win, you need to guess the allegiance of the buried card. </t>
+  </si>
+  <si>
+    <t>You must card share with the King before the end of the game.</t>
   </si>
 </sst>
 </file>
@@ -1889,10 +1889,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1319201-7300-864A-9EB3-B86618CE3873}">
   <dimension ref="A1:WHQ205"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="107" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A196" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C205" sqref="C205"/>
+      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1906,25 +1906,25 @@
   <sheetData>
     <row r="1" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>202</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>35</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1935,13 +1935,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1955,13 +1955,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>39</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1972,13 +1972,13 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E4" s="1" t="s">
         <v>34</v>
@@ -1992,13 +1992,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -2018,13 +2018,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>172</v>
+        <v>489</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64866,13 +64866,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64886,13 +64886,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="D8" s="1" t="s">
         <v>169</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64906,13 +64906,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -64926,13 +64926,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="D10" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -64946,13 +64946,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>409</v>
+        <v>488</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>37</v>
@@ -64966,16 +64966,16 @@
         <v>58</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -64992,10 +64992,10 @@
         <v>40</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -65012,10 +65012,10 @@
         <v>40</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -65029,13 +65029,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>290</v>
+        <v>486</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>176</v>
+        <v>487</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -65046,16 +65046,16 @@
         <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>179</v>
+        <v>485</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -65069,7 +65069,7 @@
         <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -65083,13 +65083,13 @@
         <v>5</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -65103,13 +65103,13 @@
         <v>6</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="D19" s="1" t="s">
         <v>41</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
@@ -65123,10 +65123,10 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E20" s="1" t="s">
         <v>42</v>
@@ -65146,13 +65146,13 @@
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="G21" s="1">
         <v>1</v>
@@ -65172,7 +65172,7 @@
         <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G22" s="1">
         <v>10</v>
@@ -65192,7 +65192,7 @@
         <v>168</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -65212,7 +65212,7 @@
         <v>168</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -65226,13 +65226,13 @@
         <v>6</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G25" s="1">
         <v>1</v>
@@ -65243,13 +65243,13 @@
         <v>16</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>47</v>
@@ -65266,13 +65266,13 @@
         <v>5</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>48</v>
@@ -65289,13 +65289,13 @@
         <v>6</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="F28" s="1" t="s">
         <v>48</v>
@@ -65312,13 +65312,13 @@
         <v>5</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -65332,13 +65332,13 @@
         <v>6</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -65349,16 +65349,16 @@
         <v>63</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -65372,13 +65372,13 @@
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -65392,13 +65392,13 @@
         <v>5</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D33" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65412,13 +65412,13 @@
         <v>6</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="D34" s="1" t="s">
         <v>170</v>
       </c>
       <c r="E34" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -65429,16 +65429,16 @@
         <v>20</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="D35" s="1" t="s">
         <v>49</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65446,19 +65446,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65466,19 +65466,19 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -65486,36 +65486,36 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -65523,19 +65523,19 @@
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65549,13 +65549,13 @@
         <v>5</v>
       </c>
       <c r="C41" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D41" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D41" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E41" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65569,13 +65569,13 @@
         <v>6</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>187</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>190</v>
-      </c>
       <c r="E42" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65589,13 +65589,13 @@
         <v>5</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65609,13 +65609,13 @@
         <v>6</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65629,13 +65629,13 @@
         <v>5</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D45" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65649,13 +65649,13 @@
         <v>6</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="D46" s="1" t="s">
         <v>171</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65666,16 +65666,16 @@
         <v>69</v>
       </c>
       <c r="B47" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="C47" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E47" s="1" t="s">
         <v>208</v>
-      </c>
-      <c r="C47" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65689,10 +65689,10 @@
         <v>6</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65706,13 +65706,13 @@
         <v>5</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65726,13 +65726,13 @@
         <v>6</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -65743,13 +65743,13 @@
         <v>22</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>50</v>
@@ -65769,13 +65769,13 @@
         <v>5</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65789,13 +65789,13 @@
         <v>6</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65809,10 +65809,10 @@
         <v>5</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>51</v>
@@ -65829,13 +65829,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65849,13 +65849,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65869,13 +65869,13 @@
         <v>6</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65889,13 +65889,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -65906,16 +65906,16 @@
         <v>71</v>
       </c>
       <c r="B59" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>214</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>217</v>
-      </c>
       <c r="D59" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -65929,13 +65929,13 @@
         <v>6</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -65949,13 +65949,13 @@
         <v>5</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -65969,13 +65969,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -65989,13 +65989,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -66009,13 +66009,13 @@
         <v>5</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -66029,13 +66029,13 @@
         <v>6</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -66049,13 +66049,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -66069,13 +66069,13 @@
         <v>5</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D67" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -66089,13 +66089,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>54</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -66109,13 +66109,13 @@
         <v>6</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E69" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -66126,16 +66126,16 @@
         <v>82</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -66149,13 +66149,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -66169,13 +66169,13 @@
         <v>5</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -66189,13 +66189,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D73" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -66209,13 +66209,13 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D74" s="1" t="s">
         <v>38</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -66226,7 +66226,7 @@
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>32</v>
@@ -66249,13 +66249,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -66266,16 +66266,16 @@
         <v>29</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C77" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>56</v>
@@ -66289,16 +66289,16 @@
         <v>86</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G78" s="1">
         <v>3</v>
@@ -66312,13 +66312,13 @@
         <v>5</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -66332,13 +66332,13 @@
         <v>6</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -66352,13 +66352,13 @@
         <v>5</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -66372,13 +66372,13 @@
         <v>6</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -66386,19 +66386,19 @@
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -66409,13 +66409,13 @@
         <v>5</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
@@ -66429,13 +66429,13 @@
         <v>6</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="E85" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -66446,16 +66446,16 @@
         <v>89</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -66466,16 +66466,16 @@
         <v>90</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -66489,13 +66489,13 @@
         <v>5</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -66509,13 +66509,13 @@
         <v>6</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
@@ -66529,13 +66529,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -66549,13 +66549,13 @@
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66569,13 +66569,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66589,13 +66589,13 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66609,13 +66609,13 @@
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -66629,13 +66629,13 @@
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66646,16 +66646,16 @@
         <v>95</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66669,13 +66669,13 @@
         <v>5</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66689,13 +66689,13 @@
         <v>6</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -66706,16 +66706,16 @@
         <v>97</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66726,16 +66726,16 @@
         <v>98</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66749,13 +66749,13 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66769,13 +66769,13 @@
         <v>6</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -66789,13 +66789,13 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66806,16 +66806,16 @@
         <v>101</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66829,13 +66829,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66849,13 +66849,13 @@
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66869,13 +66869,13 @@
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -66889,13 +66889,13 @@
         <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -66906,16 +66906,16 @@
         <v>104</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -66929,13 +66929,13 @@
         <v>5</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
@@ -66949,13 +66949,13 @@
         <v>6</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -66969,13 +66969,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -66989,13 +66989,13 @@
         <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
@@ -67009,13 +67009,13 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
@@ -67029,13 +67029,13 @@
         <v>6</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -67046,16 +67046,16 @@
         <v>110</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -67069,13 +67069,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -67089,13 +67089,13 @@
         <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -67106,13 +67106,13 @@
         <v>112</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>31</v>
@@ -67126,16 +67126,16 @@
         <v>113</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -67146,16 +67146,16 @@
         <v>36</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -67166,16 +67166,16 @@
         <v>114</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -67189,13 +67189,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -67209,13 +67209,13 @@
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -67229,13 +67229,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -67249,13 +67249,13 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -67269,13 +67269,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -67289,13 +67289,13 @@
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -67306,16 +67306,16 @@
         <v>118</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -67329,13 +67329,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -67349,13 +67349,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E131" s="2" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -67369,13 +67369,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -67389,13 +67389,13 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -67406,16 +67406,16 @@
         <v>122</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -67429,13 +67429,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -67449,13 +67449,13 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -67469,13 +67469,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -67489,13 +67489,13 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -67509,13 +67509,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -67529,13 +67529,13 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>413</v>
+        <v>408</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -67549,13 +67549,13 @@
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G141" s="1">
         <v>1</v>
@@ -67569,13 +67569,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G142" s="1">
         <v>1</v>
@@ -67586,16 +67586,16 @@
         <v>128</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -67609,13 +67609,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -67629,13 +67629,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -67646,16 +67646,16 @@
         <v>56</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -67669,13 +67669,13 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67689,13 +67689,13 @@
         <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67709,13 +67709,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67726,16 +67726,16 @@
         <v>132</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67749,13 +67749,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67769,13 +67769,13 @@
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -67789,10 +67789,10 @@
         <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -67806,10 +67806,10 @@
         <v>6</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -67823,13 +67823,13 @@
         <v>6</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67843,13 +67843,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="E156" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67866,10 +67866,10 @@
         <v>9</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G157" s="1">
         <v>10</v>
@@ -67880,16 +67880,16 @@
         <v>137</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G158" s="1">
         <v>1</v>
@@ -67900,16 +67900,16 @@
         <v>138</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -67920,16 +67920,16 @@
         <v>139</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -67940,16 +67940,16 @@
         <v>140</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G161" s="1">
         <v>1</v>
@@ -67960,16 +67960,16 @@
         <v>141</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -67980,16 +67980,16 @@
         <v>142</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -68003,13 +68003,13 @@
         <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -68023,13 +68023,13 @@
         <v>6</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -68043,13 +68043,13 @@
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -68063,13 +68063,13 @@
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -68083,13 +68083,13 @@
         <v>5</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -68103,13 +68103,13 @@
         <v>6</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -68123,13 +68123,13 @@
         <v>5</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -68143,13 +68143,13 @@
         <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -68163,13 +68163,13 @@
         <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -68183,13 +68183,13 @@
         <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G173" s="1">
         <v>1</v>
@@ -68203,13 +68203,13 @@
         <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -68220,16 +68220,16 @@
         <v>149</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -68240,16 +68240,16 @@
         <v>150</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -68260,16 +68260,16 @@
         <v>151</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
@@ -68280,16 +68280,16 @@
         <v>152</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C178" s="1" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -68303,13 +68303,13 @@
         <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -68323,13 +68323,13 @@
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -68343,13 +68343,13 @@
         <v>5</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -68363,13 +68363,13 @@
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -68383,10 +68383,10 @@
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -68400,13 +68400,13 @@
         <v>5</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -68420,13 +68420,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
@@ -68437,16 +68437,16 @@
         <v>157</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
@@ -68460,13 +68460,13 @@
         <v>5</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -68480,13 +68480,13 @@
         <v>5</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
@@ -68500,13 +68500,13 @@
         <v>6</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -68520,13 +68520,13 @@
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -68540,13 +68540,13 @@
         <v>6</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -68557,16 +68557,16 @@
         <v>161</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -68577,16 +68577,16 @@
         <v>162</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -68600,13 +68600,13 @@
         <v>5</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -68620,13 +68620,13 @@
         <v>6</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -68640,13 +68640,13 @@
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -68660,13 +68660,13 @@
         <v>6</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -68677,16 +68677,16 @@
         <v>165</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -68700,13 +68700,13 @@
         <v>6</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
@@ -68717,16 +68717,16 @@
         <v>167</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -68734,19 +68734,19 @@
     </row>
     <row r="201" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -68766,7 +68766,7 @@
         <v>106</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="G203" s="1">
         <v>0</v>
@@ -68793,5 +68793,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmccaskill/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D840D32-F522-7041-BC23-C67CFCA0AF21}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849EA6D6-B472-2B45-AA57-AFF9CA7D049B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1220" yWindow="460" windowWidth="21940" windowHeight="17440" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
+    <workbookView xWindow="33600" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1010" uniqueCount="490">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="503">
   <si>
     <t>AGORAPHOBE</t>
   </si>
@@ -60,9 +60,6 @@
     <t>Purple</t>
   </si>
   <si>
-    <t>Kill the president</t>
-  </si>
-  <si>
     <t>ANGEL</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
   </si>
   <si>
     <t>BLUE DRONE</t>
-  </si>
-  <si>
-    <t>BLUE TEAM</t>
   </si>
   <si>
     <t>BODY SNATCHER</t>
@@ -123,19 +117,10 @@
     <t>FROTTEUR</t>
   </si>
   <si>
-    <t>HUNTER</t>
-  </si>
-  <si>
     <t>If a leader is never usurped in the same room as you, you win.</t>
   </si>
   <si>
     <t>Follow the leader</t>
-  </si>
-  <si>
-    <t>You are loyal to the leader of your room.</t>
-  </si>
-  <si>
-    <t>If you stay in the same room till the end of the last round, you win.</t>
   </si>
   <si>
     <t>Requires</t>
@@ -147,28 +132,10 @@
     <t>Buried card, Even #</t>
   </si>
   <si>
-    <t>You can never turn down an offer to card share.</t>
-  </si>
-  <si>
     <t>Once per round, you may force a player to card share with you.</t>
   </si>
   <si>
     <t>I can not tell a lie</t>
-  </si>
-  <si>
-    <t>Do your best to never open your eyes during the game.</t>
-  </si>
-  <si>
-    <t>If you are in the same room as the Red Fist at the end of the last round, blue team wins.</t>
-  </si>
-  <si>
-    <t>Protect the president</t>
-  </si>
-  <si>
-    <t>Do whatever it takes to keep them alive.</t>
-  </si>
-  <si>
-    <t>Announce that you are the Ambassador. You can move whenever you want between the rooms. You can’t vote or be forced to change rooms.</t>
   </si>
   <si>
     <t>Where did that body go?</t>
@@ -180,22 +147,10 @@
     <t>Odd #</t>
   </si>
   <si>
-    <t>At any point before the end of the game you must change your card for a random card from the Deck.</t>
-  </si>
-  <si>
-    <t>If the Sniper shoots you, you win</t>
-  </si>
-  <si>
-    <t>If the president gains the “dead” condition or you fail to card share, you lose.</t>
-  </si>
-  <si>
     <t>Sniper, Target</t>
   </si>
   <si>
     <t>Red Fist</t>
-  </si>
-  <si>
-    <t>Once per round you must publicly reveal. It may be as quick or as long as you like.</t>
   </si>
   <si>
     <t>Touchy, touchy</t>
@@ -346,12 +301,6 @@
   </si>
   <si>
     <t>Maid</t>
-  </si>
-  <si>
-    <t>Marshall</t>
-  </si>
-  <si>
-    <t>Mastermind</t>
   </si>
   <si>
     <t>Martyr</t>
@@ -537,37 +486,7 @@
     <t>Yellow Assassin</t>
   </si>
   <si>
-    <t>Take a card of any player that card shares with you. You gain neither the allegiance nor the power of the stolen card.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You have the "abduction" power. You must keep the card of any character that card shares with you. </t>
-  </si>
-  <si>
-    <t>Any player that card shares with you gains the "attached" condition. Attached players who is not in the same room as you must permanently publicly reveal.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you gains "shy" condition.</t>
-  </si>
-  <si>
-    <t>You must card share with the President before the end of the last round.</t>
-  </si>
-  <si>
-    <t>You must card share with the Bomber before the end of the last round.</t>
-  </si>
-  <si>
     <t>Take a player’s character card anytime they attempt to use a card share power on you. You are not affected by the card share power.</t>
-  </si>
-  <si>
-    <t>If your vote helped successfully usurp a leader during a majority of the rounds, you win.</t>
-  </si>
-  <si>
-    <t>Announce “I am the Beholder!” You have the "Immune" condition, and can walk freely between the rooms.</t>
-  </si>
-  <si>
-    <t>You must always tell the truth.</t>
-  </si>
-  <si>
-    <t>If you are in the same room as the Red Fist at the end and Blue Drone is dead, blue team wins.</t>
   </si>
   <si>
     <t>I was born to lead</t>
@@ -591,43 +510,13 @@
     <t>It is what I do best</t>
   </si>
   <si>
-    <t>You have the "cleanse" power. Any player that card shares with you has all of their acquired conditions removed from them.</t>
-  </si>
-  <si>
-    <t>You have the "conspirator" power. Any player that card shares with you and is not on your team gains the traitor condition. Their win objective is changed to that of your team.</t>
-  </si>
-  <si>
-    <t>Can ONLY color share even when a character's power might force a card share.</t>
-  </si>
-  <si>
-    <t>Any player that shares with a player with the "cultist" condition gains the "cultist" condition. If the Cult Leader gains the "dead" condition, so do all players with the cultist condition.</t>
-  </si>
-  <si>
     <t>I am your leader now</t>
-  </si>
-  <si>
-    <t>You are a primary character. Work with the blue team to win.</t>
-  </si>
-  <si>
-    <t>You are a primary character. Work with the red team to win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">You are a primary character. Work with the red team to win. Everyone in the same room as you at the end of the last round gains the "dead" condition.  </t>
   </si>
   <si>
     <t>You are the backup character for the Eggineer. If the Eggineer gains the "dead" condition duing the game or is buried, you take the role of the Eggineer.</t>
   </si>
   <si>
     <t>Yellow</t>
-  </si>
-  <si>
-    <t>Accomplish your goal with any means necessary.</t>
-  </si>
-  <si>
-    <t>You begin with the "liar" condition. Players with the "liar" condition must always verbally tell a lie.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the president gains the “dead” condition, Red Team wins. </t>
   </si>
   <si>
     <t>color</t>
@@ -651,28 +540,7 @@
     <t>Gray</t>
   </si>
   <si>
-    <t>If the president gains the “dead” condition, Red Team wins. If you fail to card share Red Team loses.</t>
-  </si>
-  <si>
-    <t>If you fail to card share with the King before the end of the game, the blue team loses.</t>
-  </si>
-  <si>
-    <t>If the president gains the “dead” condition, Blue Team loses.</t>
-  </si>
-  <si>
-    <t>If the president gains the “dead” condition and you gain the "dead" condition, Blue Team loses.</t>
-  </si>
-  <si>
-    <t>If you share with the President the game ends, Red Team Wins.</t>
-  </si>
-  <si>
     <t>Pink</t>
-  </si>
-  <si>
-    <t>Hide the cards well, but make sure you can find them after.</t>
-  </si>
-  <si>
-    <t>If player don't find the cards you hid, you win. If you can't find the remaining cards you lose.</t>
   </si>
   <si>
     <t>Hop, hoppity, hop</t>
@@ -681,37 +549,7 @@
     <t>I volunteer as tribute</t>
   </si>
   <si>
-    <t>You have the "father" power. During the first round you MUST privately reveal your card to 2 players and verbally say to them: "You are my children.”</t>
-  </si>
-  <si>
-    <t>If your two children end in the same room as the president, you win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the King gains the “toasty” condition, Red Team wins. </t>
-  </si>
-  <si>
-    <t>You are a primary character. Work with the red team to win. Anyone in the same room as you at the end of the game gains the "toasty" condition.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">If the King gains the “toasty” condition, Blue Team loses. </t>
-  </si>
-  <si>
-    <t>You have the "firefighter" power. Card share with the President to give the fireproof condition. If the President has the fireproof condition at the end of the game, all players in the same room as the President do not gain the dead condition from the "firebomb" condition.</t>
-  </si>
-  <si>
-    <t>If you card share with the One-Armed Man, the game immediately ends, Red Team wins.</t>
-  </si>
-  <si>
     <t xml:space="preserve"> If you are correct, you win. If you are incorrect, you lose.</t>
-  </si>
-  <si>
-    <t>At the end of the last round, before all players reveal their cards, you must publicly announce which team (Red Team, Blue Team, or neither) you think won the game.</t>
-  </si>
-  <si>
-    <t>If you are in the same room as the President and Bomber at the end of the game, you win. If you win, the both Red and Blue teams lose.</t>
-  </si>
-  <si>
-    <t>You have the "hot potato" power. Any player that card shares or even color shares with you immediately trades cards with you. Both you and the other player assume the powers and the allegiance of the newly acquired cards.</t>
   </si>
   <si>
     <t>If you have this card at the end of the game, you lose.</t>
@@ -720,19 +558,7 @@
     <t>You are getting sleepy</t>
   </si>
   <si>
-    <t>You begin with the "immune" condition. Players with the "immune" condition are immune to all powers and conditions without exception.</t>
-  </si>
-  <si>
-    <t>When a player of the opposing color privately reveals their card to you and verbally says, "Take my card," you MUST take that player's card. You are not permitted to do anything with acquired cards.</t>
-  </si>
-  <si>
     <t>If you are in the same room as the President at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>When any player privately reveals their card to you and says, "Take my card," you MUST take that player's card. You are not permitted to do anything with acquired cards.. You have the "judgement" power, this gives you the ability to break a tie.</t>
-  </si>
-  <si>
-    <t>If you get to use your "judgement" power, you win.</t>
   </si>
   <si>
     <t>If you are in the same room as Romeo and the Bomber at the end of the game, you win.</t>
@@ -741,19 +567,7 @@
     <t>If you have this card at the end of the game, you win.</t>
   </si>
   <si>
-    <t>You are immune to the “traitor” condition. Moreover, if anyone card shares with you they lose the “traitor” condition.</t>
-  </si>
-  <si>
     <t>If you are in the same room as the Butler and the President at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>If you card share with the Fugitive, the game immediately ends, Blue Team wins.</t>
-  </si>
-  <si>
-    <t>When you publicly reveal your card, your vote counts as two votes. This means that you can publicly reveal your card to count as two people for OR AGAINST the nomination of a new leader.</t>
-  </si>
-  <si>
-    <t>You have the "medic" power. Any player that card shares with you has all “conditions” removed.</t>
   </si>
   <si>
     <t>If you card share with the Bomber and the President before the end of the game, you win.</t>
@@ -762,76 +576,19 @@
     <t>Do your best to not make any noise.</t>
   </si>
   <si>
-    <t>If you are in the same room as the President at the end of the game and the Wife is not, you win.</t>
-  </si>
-  <si>
     <t>If Ahab gains the "dead" condition and you do not, you win.</t>
-  </si>
-  <si>
-    <t>If these 2 target players do not gain the “dead” condition, you win. (If one is a bomber then the other must not gain the "dead" condition.)</t>
-  </si>
-  <si>
-    <t>You have the "mummy" power. Any player that card shares with you gains the "cursed" condition. “Cursed” players must from then on do their best to not make any noise.</t>
-  </si>
-  <si>
-    <t>You have the "mother" power: during the first round of the game you must privately reveal your card to 2 players and verbally say to these 2 target players, "You are my children.”</t>
-  </si>
-  <si>
-    <t>You have the "BOOM" power. If you card share with the President, the game immediately ends. (The BOOM does not work on the President’s Daughter.)</t>
-  </si>
-  <si>
-    <t>You begin with the "savvy" condition. Players with the "savvy" condition may only card share. You may not publicly, privately, or color share.</t>
-  </si>
-  <si>
-    <t>You begin with the "foolish" condition. Players with the "foolish" condition can never turn down an offer to card share.</t>
-  </si>
-  <si>
-    <t>If the President and the Bomber do not card share with you by the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>If you card share with the Witness, the game immediately ends, Blue Team wins.</t>
   </si>
   <si>
     <t>Do your best to make sure there are no private conversations. You must try to be as intrusive as possible, including looking over shoulders, and even getting on the ground to see the bottoms of cards. You can’t physically manipulate other players, that is too rude.</t>
   </si>
   <si>
-    <t>If you are in the same room as the Rock, but not in the same room as the Scissors, you win.</t>
-  </si>
-  <si>
-    <t>You begin with the "paranoid" condition. Players with the "paranoid" condition may only card share. Moreover, they may only card share once per game.</t>
-  </si>
-  <si>
-    <t>You have the "piper" power. Any player that card shares with you gains the "piped" condition and have an additional win condition. If players with the “piped” condition lose if they are not in the same room as the Piper player that provided them with the “piped” condition.</t>
-  </si>
-  <si>
     <t>At the end of the last round, before all players reveal their character cards, you must publicly announce the identity of the buried card.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you acquires the "savvy" condition. Players with the "savvy" condition may only card share. The “savvy” condition prevents the use of private reveal and color share powers.</t>
   </si>
   <si>
     <t>If you grab one of the Frotteur's wrists by the end of the game, you win.</t>
   </si>
   <si>
-    <t>You may only grab one player’s wrist during the game. Once you grab a player’s wrist, you may not let go until the end of the game. This also means that neither you, nor the player’s whose wrist you grabbed may be a hostage without the other.</t>
-  </si>
-  <si>
-    <t>When you privately reveal your card to a character with the "shy", “coy” and/or “paranoid” condition, they may then immediately card share with you. If this is done, the "shy", “coy” and/or “paranoid” condition is removed.</t>
-  </si>
-  <si>
-    <t>When you privately reveal your card to a character with the "shy", "coy" and/or "paranoid" condition, they may then immediately card share with you. If this is done, the "shy", “coy” and/or “paranoid” condition is removed.</t>
-  </si>
-  <si>
-    <t>You have the "pyrotech" power: card sharing with the Bomber provides the "firebomb" condition. If the Bomber has the “firebomb” condition at the end of the game, all players gain the “dead” condition.</t>
-  </si>
-  <si>
-    <t>If the President gains the “dead” condition and you don’t, you win.</t>
-  </si>
-  <si>
     <t>If you are NOT in the same room as the President at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>If the first player you card share or color share fails to achieve all of their win objectives, you win. If you fail to card share or color share, then you lose.</t>
   </si>
   <si>
     <t>If you are in the same room as the Scissors, but not in the same room as the Paper, you win.</t>
@@ -840,25 +597,10 @@
     <t>If you are in the same room as Juliet and the Bomber at the end of the game, you win.</t>
   </si>
   <si>
-    <t>If you are in the same room as the Paper, but not in the same room as the Rock, you win.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">At the end of the last round, before all players reveal their character cards, you must publicly announce which player you are shooting. The selected player does not have to be in the same room as you. </t>
-  </si>
-  <si>
-    <t>If the player you selected is the Target, you win. If the player you choose is not the Target or the Decoy, then they gain the "dead" condition.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you must trade in their character card for a Red Team card before the beginning of the next round and before revealing any part of their card to another player.</t>
-  </si>
-  <si>
     <t>Any player that card shares with you must trade in their character card for a Blue Team card before the beginning of the next round and before revealing any part of their card to another player.</t>
   </si>
   <si>
     <t>You are a member of the Red Team, your goal is aligned with that of the Red Team.</t>
-  </si>
-  <si>
-    <t>If you end in the opposite room as the President and if you gain the "dead" condition, you win.</t>
   </si>
   <si>
     <t>You are a member of the Blue Team, your goal is aligned with that of the Blue Team.</t>
@@ -868,12 +610,6 @@
   </si>
   <si>
     <t>You are the backup character for the Dragon. If the Dragon gains the "dead" condition during the game or is buried, you take the role of the Dragon.</t>
-  </si>
-  <si>
-    <t>You are the backup character for the King. If the King gains the "dead" condition during the game or is buried, you take the role of the King.</t>
-  </si>
-  <si>
-    <t>If the King gains the “toasty” condition, Blue Team loses.</t>
   </si>
   <si>
     <t>You are the backup character for the Bomber. If the Bomber gains the "dead" condition during the game or is buried, you take the role of the Bomber.</t>
@@ -897,82 +633,16 @@
     <t>Who am I?</t>
   </si>
   <si>
-    <t>You are the backup character for the Blue Drone. If the Blue Drone gains the "dead" condition during the game, or is buried you must be in the same room as the Red Fist.</t>
-  </si>
-  <si>
-    <t>You begin with the "shy" condition. Players with the "shy" condition may not reveal any part of their card to any player.</t>
-  </si>
-  <si>
-    <t>If you catch players engaging in anything that could be considered gameplay between rounds then you yell “Secret Police! You’re under arrest!”.</t>
-  </si>
-  <si>
-    <t>If you yell "Secret Police! You’re under arrest!" correctly then you win, and all other players lose.</t>
-  </si>
-  <si>
-    <t>If you are NOT in the same room as the Bomber at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>If the Sniper does not shoot you at the end of the last round, you win.</t>
-  </si>
-  <si>
-    <t>If you publicly and correctly predict the player that will be the hostage coming into your room at the end of the last round, you win.</t>
-  </si>
-  <si>
-    <t>You have the "time" power. Publicly reveal your card at any time and verbally announce, “Time is up!” Be sure that both rooms hear the call to end the round. If you take longer than 5 minutes to call a round, you lose your "time" power.</t>
-  </si>
-  <si>
-    <t>You have the "trade" power. You may trade your card for the buried card. You may not peek at the buried card, only trade with it. You now assume all powers and the allegiance of your newly acquired card. A single player can only use the "trade" power once per round.</t>
-  </si>
-  <si>
-    <t>If you are sent to a different room as a hostage at the end of MOST rounds, you win.</t>
-  </si>
-  <si>
-    <t>If you card share with the Bomber, the game immediately ends, Blue Team wins.</t>
-  </si>
-  <si>
-    <t>You have the "usurper" power. During any round but the last, you may reveal your card and automatically become the leader. You can only use this power once. The Usurper cannot be usurped during the same round in which the Usurper stole leadership.</t>
-  </si>
-  <si>
-    <t>You have the "seductive" power. Any player who card shares with you that has a color not of your own gains the "seduced" condition. All "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
-  </si>
-  <si>
     <t>If you are in the same room as the Bomber at the end of the game, you win.</t>
   </si>
   <si>
-    <t>If you are in the same room as the President and the opposite room as the Bomber. If you win, the both Red and Blue teams lose.</t>
-  </si>
-  <si>
     <t>At any time, you may look at the buried card.</t>
-  </si>
-  <si>
-    <t>If you are in the same room as the President at the end of the game and the Mistress is not, you win.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you gains the "foolish" condition. The "foolish" condition means they can never turn down an offer to card share.</t>
-  </si>
-  <si>
-    <t>If you fail to  card share with the Dragon before the end of the last round, the Red Team loses.</t>
-  </si>
-  <si>
-    <t>If you fail to  card share with the Dragon before the end of the last round and the Eggineer is dead, the Red Team loses.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you gains the "stoned" condition.  Stoned players may no longer vote.  Any time a vote is called for, stoned players must act stiff with their arms straight down.</t>
-  </si>
-  <si>
-    <t>If you card share with the Marshal, the game immediately ends, red team wins</t>
-  </si>
-  <si>
-    <t>If all players without the “dead” condition at the end of the game are on Team Zombie, Team Zombie wins.</t>
   </si>
   <si>
     <t>Clone</t>
   </si>
   <si>
     <t>Clown</t>
-  </si>
-  <si>
-    <t>If the first player with whom you card share or color share wins, succeeding at all of their win objectives.</t>
   </si>
   <si>
     <t>Cleaner</t>
@@ -984,9 +654,6 @@
     <t>At some point during the game, before time expires in the final round, you must exchange your card for a Red Team card or a Blue Team card. You now assume the allegiance of the team you chose.</t>
   </si>
   <si>
-    <t>If you forget to exchange your card by the end of the game or  are unable to, you lose.</t>
-  </si>
-  <si>
     <t>ZOMBIE</t>
   </si>
   <si>
@@ -994,9 +661,6 @@
   </si>
   <si>
     <t>How might I be of service?</t>
-  </si>
-  <si>
-    <t>Swear to drunk I'm not God!</t>
   </si>
   <si>
     <t>I need a…</t>
@@ -1089,33 +753,6 @@
     <t>Watch the world BURN</t>
   </si>
   <si>
-    <t xml:space="preserve">You begin with the "foolish" condition and can never turn down an offer to share. You also have the "leprechaun" power. Any player that card shares or color shares with you immediately trades cards with you. Both players assume the powers and the allegiance of the newly acquired cards. </t>
-  </si>
-  <si>
-    <t>You have the "hypnotist" power. Any player that card shares with you gains the "hypnotized" condition. They must act as if they are the character that you suggest. You start by saying, "You think you are the _." "Hypnotized" players do not gain nor lose their power or allegiance.</t>
-  </si>
-  <si>
-    <t>You are one of the two alpha wolves and have the "werewolf" power. Any player that card shares or color shares with you or someone with the "bitten" condition gains the "bitten" condition. All “bitten” players must answer any question EITHER of the alpha wolves ask as honestly and informatively as possible.</t>
-  </si>
-  <si>
-    <t>You begin with the "zombie" condition. This changes a player’s allegiance to Team Zombie. Any player that card shares or color shares with a member of Team Zombie gains the "zombie" condition. Members maintain their powers and conditions, but their win condition changes to Team Zombie.</t>
-  </si>
-  <si>
-    <t>Before the game begins, but after character cards have been dealt, everyone is to close their eyes and publicly reveal their cards. Only the Seers may open their eyes and move freely throughout the play areas. You begin the game with the "shy" condition and may not reveal any part of their card.</t>
-  </si>
-  <si>
-    <t>You have the "rat" power. Once per game you publicly reveal your card, then go to the opposing room. There, you are immune to all powers and conditions. In the other room Rats can not take part in votes and can not be a hostage. You must return to your original room before the end of the round or you lose.</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you trades cards with you and then acquires the "shy" condition, meaning they can't reveal any part of their card. They assume the allegiance of the Identity Thief card, and you assume the powers, allegiance, win objectives, and all starting conditions of the newly stolen card.</t>
-  </si>
-  <si>
-    <t>You have the "switch-a-roo" power. During any round but the last, you publicly reveal your card. Then leave your current room, and IMMEDIATELY choose a player, show them your card and tell them, “I’m kicking you out.” You stay, but your target player must leave the current room and go into the opposing room.</t>
-  </si>
-  <si>
-    <t>If you... (1) are a room’s leader (2) have selected hostages (3) are between rounds (4) and are waiting for the other room’s leader... you may yell "I’m a raging one! I’m a raging two! ..." continuing till the leader shows up or you say "I’m a raging ten!" If you finish "I’m a raging ten!" then you win and all other players lose.</t>
-  </si>
-  <si>
     <t>Don't test me</t>
   </si>
   <si>
@@ -1129,9 +766,6 @@
   </si>
   <si>
     <t>It's alright… I'm immune</t>
-  </si>
-  <si>
-    <t>I select you!</t>
   </si>
   <si>
     <t>I've got the goods</t>
@@ -1159,9 +793,6 @@
   </si>
   <si>
     <t>Leave me alone</t>
-  </si>
-  <si>
-    <t>This room stinks</t>
   </si>
   <si>
     <t>Tweedle-dee. Follow me</t>
@@ -1200,9 +831,6 @@
     <t>I wish I had a wrench</t>
   </si>
   <si>
-    <t>I control time</t>
-  </si>
-  <si>
     <t>Love at first bite</t>
   </si>
   <si>
@@ -1213,18 +841,6 @@
   </si>
   <si>
     <t>What is that over there?</t>
-  </si>
-  <si>
-    <t>Hug the Rock</t>
-  </si>
-  <si>
-    <t>Cut the Paper</t>
-  </si>
-  <si>
-    <t>Smash the Scissors</t>
-  </si>
-  <si>
-    <t>What should I create?</t>
   </si>
   <si>
     <t>So, how are you feeling?</t>
@@ -1245,46 +861,10 @@
     <t>Don't make me do this</t>
   </si>
   <si>
-    <t>You have the "tackle" power. Publicly reveal your card, pick any player in the room and say, "You're going nowhere." If the target is on the same team as you, they gain the "tackled" condition and can't leave as a hostage this round. Otherwise they gain the “torn” condition, and must publicly reveal their card.</t>
-  </si>
-  <si>
     <t>If you choose the correct team, but your team loses, you lose. If you say, "I am on nobody's team," and you are correct, you win.</t>
   </si>
   <si>
     <t>Follow the win conditionds of the "sober" card.</t>
-  </si>
-  <si>
-    <t>At the beginning of the last round, you replace your card with the "sober" card. If you lost your character card, the "sober" card can still be retrieved. The player assumes all powers and responsibilities associated with the sober character card.</t>
-  </si>
-  <si>
-    <t>You have the "pirate" power. Publicly reveal your Pirate card, pick any player in the room (besides yourself) and verbally and loudly tell them, "Argh, walk the plank." Your target player gains the "blasted" condition and must be one of the hostages exchanged at the end of the round.</t>
-  </si>
-  <si>
-    <t>During any round but the last, publicly reveal your card and automatically become one of the hostages for that round.</t>
-  </si>
-  <si>
-    <t>If you are in a room that has more players, privately reveal your card to a player and force him to move to the other room.</t>
-  </si>
-  <si>
-    <t>Publicly reveal to prevent leaving the room. This means that any player that attempts to force you to leave the room (including the leader) must immediately choose a different player to leave.</t>
-  </si>
-  <si>
-    <t>You have the "interrogate power". Once per round privately reveal to any player in the room and ask them a single yes/no question to which they must answer honestly. If they sincerely don’t know the answer to the question, then they should indicate such.</t>
-  </si>
-  <si>
-    <t>You have the "mad scientist" power. Once per game, privately reveal your card to two players. You say to the players, "You MUST trade cards." Those two players must trade character cards. You can not use this power on yourself.</t>
-  </si>
-  <si>
-    <t>Privately reveal your card to two players and say "You are in LOVE with each other". Their objective is replaced with: be in the same room with the player with whom you are in love at the end.</t>
-  </si>
-  <si>
-    <t>Once per round, privately reveal your card simultaneously to two players. These players must card share to each other (but not to you).</t>
-  </si>
-  <si>
-    <t>Privately reveal your card to two players and say "You are in HATE with each other". Thier objective is replaced with: be in the opposite room with the player with whom you hate at the end.</t>
-  </si>
-  <si>
-    <t>You the "ninja" power. During any round but the last, Publicly reveal your card. You then leave your current room. Upon entering the opposing room, you grab any player you choose in that room. Both you and the chosen player are removed from the game though  o NOT gain the "dead" condition. *Exceptions exist</t>
   </si>
   <si>
     <t>Take the power!</t>
@@ -1297,12 +877,6 @@
   </si>
   <si>
     <t>Evil tastes good</t>
-  </si>
-  <si>
-    <t>You have the "hug" power. The "hug" power never works on the Martyr.</t>
-  </si>
-  <si>
-    <t>Killing with kindness</t>
   </si>
   <si>
     <t>Show me the money</t>
@@ -1341,9 +915,6 @@
     <t>But I don't want to share...</t>
   </si>
   <si>
-    <t>But I don't want to share…</t>
-  </si>
-  <si>
     <t>Love is in the air</t>
   </si>
   <si>
@@ -1369,9 +940,6 @@
   </si>
   <si>
     <t>Why not?</t>
-  </si>
-  <si>
-    <t>If you touch every player before the end of the last round, you win. If Prude grabs your wrist, you lose.</t>
   </si>
   <si>
     <t>wee woo wee woo</t>
@@ -1419,9 +987,6 @@
     <t>Crash cart coming through!</t>
   </si>
   <si>
-    <t>Walk the plank</t>
-  </si>
-  <si>
     <t>Grab hold of this</t>
   </si>
   <si>
@@ -1461,9 +1026,6 @@
     <t>I know what you dream of</t>
   </si>
   <si>
-    <t>You have the "thug" power. Any player that card shares with you acquires the "coy"condition and may only color share even when a character's power might force a card share.</t>
-  </si>
-  <si>
     <t>'Trader' or 'Traitor'?</t>
   </si>
   <si>
@@ -1479,9 +1041,6 @@
     <t>Any player that card or color shares with you joins the Yellow Team (except primary characters). New members maintain their powers and conditions, but their allegiance changes to Yellow.</t>
   </si>
   <si>
-    <t>If the President gain the "dead" condition and you end up together, then the Yellow, Blue, and Red Teams lose. Otherwise, if you end up with the President, then Yellow Team wins and Blue Team loses.</t>
-  </si>
-  <si>
     <t>How does it make you feel?</t>
   </si>
   <si>
@@ -1491,23 +1050,503 @@
     <t xml:space="preserve">If you see any part of another player’s card and can correctly announce it, you win. If you are wrong, you lose. </t>
   </si>
   <si>
-    <t>You are the backup character for the Alchemist. If The Alchemist gains the "dead" condition during the game or is buried, you must card share with the King.</t>
+    <t>Accomplish your goal by any means necessary.</t>
   </si>
   <si>
-    <t>If you fail to card share with the King and The Alchemist is "dead", the blue team loses.</t>
+    <t>If you are never sent to a different room, you win.</t>
   </si>
   <si>
-    <t xml:space="preserve">At the end of the game, you must declare which team you are on by saying "I remember which team I am on. I am on the _." To win, you need to guess the allegiance of the buried card. </t>
+    <t>What should I brew?</t>
   </si>
   <si>
-    <t>You must card share with the King before the end of the game.</t>
+    <t>Protect the President</t>
+  </si>
+  <si>
+    <t>If your vote helped to successfully usurp a leader during a majority of the rounds, you win.</t>
+  </si>
+  <si>
+    <t>If the President gains the "dead" condition, Blue Team loses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the President gains the "dead" condition, Red Team wins. </t>
+  </si>
+  <si>
+    <t>If the President gains the "dead" condition and you don’t, you win.</t>
+  </si>
+  <si>
+    <t>If all players without the "dead" condition at the end of the game are on Team Zombie, Team Zombie wins.</t>
+  </si>
+  <si>
+    <t>When you privately reveal your card to a character with the "shy", "coy" and/or "paranoid" condition, they may then immediately card share with you. If this is done, the "shy", "coy" and/or "paranoid" condition is removed.</t>
+  </si>
+  <si>
+    <t>You begin with the "honest" condition: you must always verbally tell the truth.</t>
+  </si>
+  <si>
+    <t>You are a primary character. Work with the Blue Team to win.</t>
+  </si>
+  <si>
+    <t>Blue Team</t>
+  </si>
+  <si>
+    <t>You are a primary character. Work with the Red Team to win.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You begin with the "blind" condition: do your best to never open your eyes during the game. </t>
+  </si>
+  <si>
+    <t>Do whatever it takes to keep the President alive.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You must take the card of any player that card shares with you. </t>
+  </si>
+  <si>
+    <t>You must take the card of any player that card shares with you. You gain neither the allegiance nor the power of the stolen card, but may show it off as your own card as long as you still have your Body Snatcher card.</t>
+  </si>
+  <si>
+    <t>If you are in a room that has more players than the other, you may privately reveal your card to a non-leader player and say "GET OUT!" to force them to immediately move to the other room in any round but the last.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you has all of their acquired conditions removed from them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At any point before the end of the game you must exchange your character for a random one in the "Fun Deck". </t>
+  </si>
+  <si>
+    <t>Any player that card shares with you and is not on your team gains the "traitor" condition: their win objective is changed to that of your team.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains "shy" condition: they may not reveal any part of their card to any player.</t>
+  </si>
+  <si>
+    <t>You begin with the "cultist" condition. Any player that card shares or color shares with a player with the "cultist" condition gains the "cultist" condition. If the Cult Leader gains the "dead" condition, so do all players with the cultist condition.</t>
+  </si>
+  <si>
+    <t>If you gain the "dead" condition, you lose.</t>
+  </si>
+  <si>
+    <t>If you gain the "dead" condition, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>Privately reveal your card to two players and say "You hate each other". They now have the "in hate" condition: their objective is now be in the opposite room as the player with whom they hate at the end of the game.</t>
+  </si>
+  <si>
+    <t>Privately reveal your card to two players and say "You are in love with each other". They now have the "in love" condition: their objective is now be in the same room as the player with whom they are in love at the end of the game.</t>
+  </si>
+  <si>
+    <t>If the Sniper shoots you, you win.</t>
+  </si>
+  <si>
+    <t>You begin with the "liar" condition: you must always verbally lie.</t>
+  </si>
+  <si>
+    <t>You are the backup character for the Blue Drone. If the Blue Drone gains the "dead" condition during the game or is buried, you take the role of the Blue Drone.</t>
+  </si>
+  <si>
+    <t>Swear to drunk, I'm not God!</t>
+  </si>
+  <si>
+    <t>If a player can't find a card you hid, you win. But, if you can't find the remaining cards, you lose.</t>
+  </si>
+  <si>
+    <t>Hide the cards well before the game starts, but remember where they all are.</t>
+  </si>
+  <si>
+    <t>Once per round, you may privately reveal your card simultaneously to two players. These players must card share to each other (but not to you).</t>
+  </si>
+  <si>
+    <t>You begin with the "flashing" condition: you may only publicly reveal, even with another character's power might force a color share, card share, or private reveal.</t>
+  </si>
+  <si>
+    <t>If you card share with the President, they gain the "fireproof" condition. If the President has the fireproof condition at the end of the game, all players in the same room as the President gain the "fireproof" condition: they do not gain the "dead" condition from the "firebomb" condition.</t>
+  </si>
+  <si>
+    <t>If a leader is never usurped while you are in the same room as them, you win.</t>
+  </si>
+  <si>
+    <t>If you card share with the One-Armed Man, the game immediately ends and Red Team wins.</t>
+  </si>
+  <si>
+    <t>If you touch every player before the end of the last round, you win. But, if the Prude grabs your wrist, you lose.</t>
+  </si>
+  <si>
+    <t>You may publicly reveal and say "Stone" to prevent yourself from leaving the room. The player that attempted to force you to leave the room (including the leader) must immediately choose a different player to leave.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "stoned" condition: "stoned"players may no longer vote; any time a vote is called for, "stoned" players must act stiff with their arms straight down.</t>
+  </si>
+  <si>
+    <t>At the beginning of the last round, you must replace your card with the "sober" card. If you lost your character card, the "sober" card can still be retrieved. You assume all powers and responsibilities associated with the "sober" character card.</t>
+  </si>
+  <si>
+    <t>TRAINER</t>
+  </si>
+  <si>
+    <t>I choose you!</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "hypnotized" condition: they must act as if they are the character that you suggest by saying, "You think you are the _." "Hypnotized" players do not gain nor lose their power or allegiance.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">At the end of the game, you must declare which team you are on by saying "I remember which team I am on. I am on the _ team." To win, you must guess the allegiance of the buried card. </t>
+  </si>
+  <si>
+    <t>Announce that you are the Ambassador. You have the "immune" condition: you are immune to all powers and conditions without exception. You may walk freely between the rooms but you cannot vote or be sent to another room.</t>
+  </si>
+  <si>
+    <t>Declare "I am the Beholder!" You have the "immune" condition: you are immune to all powers and conditions without exception. You may walk freely between the rooms but you cannot vote or be sent to another room.</t>
+  </si>
+  <si>
+    <t>You have with the "immune" condition: you are immune to all powers and conditions without exception.</t>
+  </si>
+  <si>
+    <t>Any player that card shares or color shares with you immediately trades cards with you. You both assume the powers and the allegiance of the newly acquired cards.</t>
+  </si>
+  <si>
+    <t>If you are in the same room as the President and Bomber at the end of the game, you win.</t>
+  </si>
+  <si>
+    <t>If you win, both the Red Team and Blue Team lose.</t>
+  </si>
+  <si>
+    <t>A solid choice</t>
+  </si>
+  <si>
+    <t>A written victory</t>
+  </si>
+  <si>
+    <t>Use sharp intuition</t>
+  </si>
+  <si>
+    <t>Where's my screwdriver?</t>
+  </si>
+  <si>
+    <t>Where should I go?</t>
+  </si>
+  <si>
+    <t>The Knight's code of honor</t>
+  </si>
+  <si>
+    <t>When a player of the opposing color privately reveals their card to you and verbally says, "Take my card," you must take that player's card. You are not permitted to do anything with acquired cards.</t>
+  </si>
+  <si>
+    <t>If the President gains the "dead" condition, Red Team wins. In the case of a tie, whichever team whose Informer has the least cards wins.</t>
+  </si>
+  <si>
+    <t>If the President gains the "dead" condition, Blue Team loses. In the case of a tie, whichever team whose Informer has the least cards wins.</t>
+  </si>
+  <si>
+    <t>You win if there is a Red/Blue tie. In this case, the team whose color you have more cards of wins as well.</t>
+  </si>
+  <si>
+    <t>When any player privately reveals their card to you and verbally says, "Take my card," you must take that player's card. You are not permitted to do anything with acquired cards.</t>
+  </si>
+  <si>
+    <t>You begin with the "foolish" condition: you can never turn down an offer to color share or card share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You begin with the "foolish" condition: you can never turn down an offer to color share or card share. Any player that card shares or color shares with you immediately trades cards with you. You both assume the powers and the allegiance of the newly acquired cards. </t>
+  </si>
+  <si>
+    <t>You are immune to the "traitor" condition. If any player card shares with you, they lose the "traitor" condition if they have it.</t>
+  </si>
+  <si>
+    <t>Once per game, you may privately reveal your card to two players and say to the players, "You must trade cards." Those two players must trade character cards. You can not use this power on yourself.</t>
+  </si>
+  <si>
+    <t>If you card share with the Fugitive, the game immediately ends and Blue Team wins.</t>
+  </si>
+  <si>
+    <t>When you publicly reveal your card, your vote counts as two votes. This means that you can publicly reveal your card to count as two people for or against the nomination of a new leader.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you has all conditions removed.</t>
+  </si>
+  <si>
+    <t>During the first round you must privately reveal your card to 2 players and verbally say to them: "You are my children."</t>
+  </si>
+  <si>
+    <t>If your two children end the game in the same room as the President, you win.</t>
+  </si>
+  <si>
+    <t>If both of your two children do not gain the "dead" condition, you win (if one is the Bomber, then the other must not gain the "dead" condition).</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "cursed" condition: they must do their best to not make any noise.</t>
+  </si>
+  <si>
+    <t>You begin with the "savvy" condition: you may only card share (i.e., you may not publicly reveal, privately reveal, or color share).</t>
+  </si>
+  <si>
+    <t>During any round but the last, publicly reveal your card and leave your current room. Upon entering the opposing room,  grab any player you choose in that room. Both you and the chosen player are removed from the game though do not gain the "dead" condition (see rule sheet for exceptions).</t>
+  </si>
+  <si>
+    <t>If both the President and the Bomber do not card share with you during the game, you win.</t>
+  </si>
+  <si>
+    <t>If you card share with the Witness, the game immediately ends and Blue Team wins.</t>
+  </si>
+  <si>
+    <t>You begin with the "paranoid" condition: you may only card share and you may only card share once per game.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "piped" condition and have an additional win condition: players with the "piped" condition lose if they are not in the same room as the Piper player that provided them with the "piped" condition.</t>
+  </si>
+  <si>
+    <t>Once per game, you may publicly reveal your card, pick any player in the room (besides yourself) and verbally and loudly tell them, "Argh, walk the plank!" Your target player gains the "blasted" condition and must be one of the hostages exchanged at the end of the round.</t>
+  </si>
+  <si>
+    <t>Argh, walk the plank!</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you acquires the "savvy" condition: they may only card share (i.e., you may not publicly reveal, privately reveal, or color share).</t>
+  </si>
+  <si>
+    <t>You may grab one player’s wrist during the game. Once you grab a player’s wrist, you may not let go until the end of the game and you and the player whose wrist you grabbed cannot leave the room or leave the game without the other.</t>
+  </si>
+  <si>
+    <t>Card sharing with the Bomber provides them with the "firebomb" condition. If the Bomber has the "firebomb" condition at the end of the game, all players (in both rooms) gain the "dead" condition.</t>
+  </si>
+  <si>
+    <t>If you 1) are a room’s leader, 2) have selected hostages, 3) are between rounds, and 4) are waiting for the other room’s leader, you may yell "I’m a raging one! I’m a raging two! ..." continuing until either the leader shows up or you say "I’m a raging ten!" If you say "I’m a raging ten!", you win and all other players lose.</t>
+  </si>
+  <si>
+    <t>Once per game, you may publicly reveal your card and go to the opposing room. There, you are immune to all powers and conditions. In the other room, Rats cannot take part in votes and can not be a hostage. If you do not return to your original room before the end of the round, you lose.</t>
+  </si>
+  <si>
+    <t>If the first player with whom you card share or color share wins, you win. If you fail to color share or card share with any other player, you lose.</t>
+  </si>
+  <si>
+    <t>If the first player with whom you card share or color share loses, you win. If you fail to color share or card share with any other player, you lose.</t>
+  </si>
+  <si>
+    <t>If the player you selected is the Target, you win.</t>
+  </si>
+  <si>
+    <t>At the end of the last round, before all players reveal their character cards, you must publicly announce which player you are shooting. The selected player does not have to be in the same room as you. If the player you choose is not the Target or the Decoy, then they gain the "dead" condition.</t>
+  </si>
+  <si>
+    <t>If you catch a player engaging in anything that could be considered gameplay between rounds, yell "Secret Police! You’re under arrest!" at the player. If at least one other player can verify the rule breaking, you win and all other players lose.</t>
+  </si>
+  <si>
+    <t>Once per round, you may privately reveal to any player in the room and ask them a single yes/no question, to which they must answer honestly. If they sincerely don’t know the answer to the question, then they should indicate such.</t>
+  </si>
+  <si>
+    <t>You begin with the "shy" condition: you may not reveal any part of your card to any player.</t>
+  </si>
+  <si>
+    <t>If you end the game in the opposite room as the President and gain the "dead" condition, you win.</t>
+  </si>
+  <si>
+    <t>If you are not in the same room as the Bomber at the end of the game, you win.</t>
+  </si>
+  <si>
+    <t>If the Sniper does not shoot you after the end of the last round, you win.</t>
+  </si>
+  <si>
+    <t>During the last round, predict the player that will be the hostage coming into your room by publically revealing your card and saying the name of a player.</t>
+  </si>
+  <si>
+    <t>If you correctly predict the player that will be the hostage coming into your room at the end of the last round, you win.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you acquires the "coy" condition: they may only color share even when a character's power might force a card share.</t>
+  </si>
+  <si>
+    <t>Tentaclese</t>
+  </si>
+  <si>
+    <t>EEEW, SLIMY!</t>
+  </si>
+  <si>
+    <t>In any round but the last, if you are in a room that has fewer players than the other, you may leave your current room, immediately grab a player of the opposing room, and bring them back to your original room with you.</t>
+  </si>
+  <si>
+    <t>You may publicly reveal your card at any time and verbally announce, "Time is up!" to immediately end the round. Be sure that both rooms hear the call to end the round. If you take longer than 5 minutes to call a round, you lose this power.</t>
+  </si>
+  <si>
+    <t>You have the "trade" power: you may trade your card for the buried card. You may not peek at the buried card, only trade with it, and you assume all powers and the allegiance of your newly acquired card. The "trade" power can be used by any player only once per round.</t>
+  </si>
+  <si>
+    <t>If you are sent to a different room as a hostage at the end of a majority of the rounds, you win.</t>
+  </si>
+  <si>
+    <t>If you card share with the President (does not include the President's Daughter), the game immediately ends, Red Team wins, and Blue Team loses.</t>
+  </si>
+  <si>
+    <t>If you card share with the Bomber (does not include the Martyr), the game immediately ends, Blue Team wins, and Red Team loses.</t>
+  </si>
+  <si>
+    <t>Any player who card shares with you that has a color not of your own gains the "seduced" condition. All "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
+  </si>
+  <si>
+    <t>You are one of the two alpha wolves and have the "werewolf" power. Any player that card shares or color shares with you or someone with the "bitten" condition gains the "bitten" condition: they must answer any question either of the alpha wolves ask as honestly and informatively as possible.</t>
+  </si>
+  <si>
+    <t>Marshal</t>
+  </si>
+  <si>
+    <t>If you card share with the Marshal, the game immediately ends and Red Team wins.</t>
+  </si>
+  <si>
+    <t>Xenohunter</t>
+  </si>
+  <si>
+    <t>Xenomorph</t>
+  </si>
+  <si>
+    <t>Yog Sothoth</t>
+  </si>
+  <si>
+    <t>If the President gains the "dead" condition and you end up together, then the Yellow, Blue, and Red Teams lose. Otherwise, if you end up with the President, then Yellow Team wins and Blue Team loses.</t>
+  </si>
+  <si>
+    <t>You begin with the "zombie" condition: your allegiance is to Team Zombie. Any player that card shares or color shares with a member of Team Zombie gains the "zombie" condition. Members maintain their powers and conditions, but their win condition changes to Team Zombie.</t>
+  </si>
+  <si>
+    <t>After any member of the Blue Team publically reveals their card to the entire room, you may give them your card to remove them from the game along with your card.</t>
+  </si>
+  <si>
+    <t>The first member of the Blue Team that color shares or card shares with you takes your card and gains the "impregnated" condition: any players in the same room as an "impregnated" player at the end of the game gains the "dead" condition.</t>
+  </si>
+  <si>
+    <t>GRAB, IMPLANT, REPRODUCE</t>
+  </si>
+  <si>
+    <t>Right.</t>
+  </si>
+  <si>
+    <t>If you win, all other players lose.</t>
+  </si>
+  <si>
+    <t>If any player color shares or card shares with you, you win.</t>
+  </si>
+  <si>
+    <t>Before the game begins, but after character cards have been dealt, all players but Seers must close their eyes and publicly reveal their cards for 30 seconds. You begin with the "shy" condition: you may not reveal any part of your card to any player.</t>
+  </si>
+  <si>
+    <t>Once, you may permanently reveal your card, pick any player in the room, and tell them, "You're going nowhere." If this player is not on the same team as you, they gain the "tackled" condition and can't leave as a hostage this round. Otherwise, they gain the "torn" condition, and must permanently reveal their card.</t>
+  </si>
+  <si>
+    <t>At the end of the last round, before all players reveal their character cards, you must publicly announce which team (Red Team, Blue Team, or neither) you think won the game.</t>
+  </si>
+  <si>
+    <t>Once, during any round but the last, you may permanently reveal your card and automatically become the leader. The Usurper cannot be usurped during the same round in which the Usurper stole leadership.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "attached" condition: "attached" players who are not in the same room as you must permanently reveal from that point on.</t>
+  </si>
+  <si>
+    <t>During any round but the last, you may permanently reveal your card and automatically become one of the hostages for that round.</t>
+  </si>
+  <si>
+    <t>Once, during any round but the last, you may permanently reveal your card, move to the other room, and immediately choose a player, show them your card, and tell them, "I’m kicking you out." You stay, but your target player must leave the current room and go into the other room.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Mistress, you win.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Wife, you win.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as Rock, but the opposite rooms as Scissors, you win.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as Paper, but the opposite rooms as Rock, you win.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Bomber, you win.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you trades cards with you and then acquires the "shy" condition: they may not reveal any part of their card to any player. They assume the allegiance of the Identity Thief card, and you assume the powers, allegiance, win objectives, and all starting conditions of the newly stolen card.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you gains the "foolish" condition: they can never turn down an offer to color share or card share.</t>
+  </si>
+  <si>
+    <t>You begin with the "coy" condition: you may only color share even when a character's power might force a card share.</t>
+  </si>
+  <si>
+    <t>If you, acting as the President, gain the "dead" condition, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Doctor, fail to card share with the acting President before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>If you fail to card share with the acting President before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">You are a primary character. Work with the Red Team to win. Every player in the same room as you at the end of the last round gains the "dead" condition.  </t>
+  </si>
+  <si>
+    <t>If you are in the same room as the acting Red Fist at the end of the last round, Blue Team wins.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Blue Drone, are in the same room as the acting Red Fist at the end of the last round, Blue Team wins.</t>
+  </si>
+  <si>
+    <t>If you are in the same room as the acting Blue Drone at the end of the last round, Red Team loses.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Red Fist, are in the same room as the acting Blue Drone at the end of the last round, Red Team loses.</t>
+  </si>
+  <si>
+    <t>If you gain the "toast" condition, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>If you, acting as the King, gain the "toast" condition, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>You are a primary character. Work with the Red Team to win. Any player in the same room as you at the end of the game gains the "toast" condition.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the acting King gains the "toast" condition, Red Team wins. </t>
+  </si>
+  <si>
+    <t>If you fail to card share with the acting Bomber before the end of the game, Red Team loses.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Engineer, fail to card share with the acting Bomber before the end of the game, Red Team loses.</t>
+  </si>
+  <si>
+    <t>You must card share with the acting Dragon before the end of the last round.</t>
+  </si>
+  <si>
+    <t>If you fail to card share with the acting Dragon before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>You must card share with the acting Bomber before the end of the last round.</t>
+  </si>
+  <si>
+    <t>You must card share with the acting President before the end of the last round.</t>
+  </si>
+  <si>
+    <t>You must card share with the acting King before the end of the game.</t>
+  </si>
+  <si>
+    <t>If you fail to card share with the acting King before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>You are the backup character for the Alchemist. If the Alchemist gains the "dead" condition during the game or is buried, you take the role of the Alchemist.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Alchemist, fail to card share with the acting King before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Eggineer, fail to card share with the acting Dragon before the end of the game, Blue Team loses.</t>
+  </si>
+  <si>
+    <t>You are the backup character for the King. If the King gains the "toast" condition during the game or is buried, you take the role of the King.</t>
+  </si>
+  <si>
+    <t>I am the gate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1528,6 +1567,27 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1562,7 +1622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1573,6 +1633,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1887,12 +1950,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1319201-7300-864A-9EB3-B86618CE3873}">
-  <dimension ref="A1:WHQ205"/>
+  <dimension ref="A1:WHQ206"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1901,30 +1964,30 @@
     <col min="2" max="2" width="7.5" customWidth="1"/>
     <col min="3" max="3" width="30.1640625" customWidth="1"/>
     <col min="4" max="4" width="112.6640625" customWidth="1"/>
-    <col min="5" max="5" width="60.5" customWidth="1"/>
+    <col min="5" max="5" width="67.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>201</v>
+        <v>164</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>202</v>
+        <v>165</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>203</v>
+        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>204</v>
+        <v>167</v>
       </c>
     </row>
     <row r="2" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -1935,13 +1998,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -1955,13 +2018,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>319</v>
+        <v>208</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -1972,16 +2035,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>375</v>
+        <v>253</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>340</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -1992,19 +2055,19 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>426</v>
+        <v>284</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
@@ -2012,19 +2075,19 @@
     </row>
     <row r="6" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="B6" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>397</v>
+        <v>341</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>489</v>
+        <v>496</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>207</v>
+        <v>497</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64860,19 +64923,19 @@
     </row>
     <row r="7" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64880,19 +64943,19 @@
     </row>
     <row r="8" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>425</v>
+        <v>283</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>169</v>
+        <v>355</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64906,13 +64969,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>400</v>
+        <v>272</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -64926,13 +64989,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>401</v>
+        <v>273</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>45</v>
+        <v>386</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -64946,16 +65009,16 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>287</v>
+        <v>199</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>488</v>
+        <v>385</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>405</v>
+        <v>276</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="G11" s="1">
         <v>1</v>
@@ -64963,59 +65026,59 @@
     </row>
     <row r="12" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>58</v>
+        <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>429</v>
+        <v>287</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>175</v>
+        <v>343</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15773" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15773" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>177</v>
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>349</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -65023,19 +65086,19 @@
     </row>
     <row r="15" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="B15" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>430</v>
+        <v>288</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>486</v>
+        <v>498</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>487</v>
+        <v>499</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -65043,19 +65106,19 @@
     </row>
     <row r="16" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>60</v>
+        <v>45</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>182</v>
+        <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>334</v>
+        <v>222</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>176</v>
+        <v>387</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>485</v>
+        <v>338</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -65063,13 +65126,19 @@
     </row>
     <row r="17" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>61</v>
+        <v>5</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>353</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>277</v>
+        <v>344</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -65077,19 +65146,19 @@
     </row>
     <row r="18" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>431</v>
+        <v>290</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>208</v>
+        <v>353</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -65100,99 +65169,99 @@
         <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>432</v>
+        <v>220</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>198</v>
+        <v>350</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>482</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="G19" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>12</v>
+      <c r="A20" s="5" t="s">
+        <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>332</v>
+        <v>234</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>191</v>
+        <v>369</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>53</v>
+        <v>483</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A21" s="5" t="s">
-        <v>65</v>
+      <c r="A21" s="1" t="s">
+        <v>351</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>288</v>
+        <v>354</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="G21" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>44</v>
+        <v>356</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G22" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>208</v>
+        <v>356</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -65200,19 +65269,19 @@
     </row>
     <row r="24" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>46</v>
+        <v>221</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>168</v>
+        <v>481</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G24" s="1">
         <v>1</v>
@@ -65220,62 +65289,65 @@
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>333</v>
+        <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>193</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="G25" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>196</v>
+        <v>357</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>47</v>
+        <v>344</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="G26" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>374</v>
+        <v>252</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>208</v>
+        <v>357</v>
+      </c>
+      <c r="E27" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="G27" s="1">
         <v>1</v>
@@ -65283,22 +65355,19 @@
     </row>
     <row r="28" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>374</v>
+        <v>291</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>410</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="F28" s="1" t="s">
-        <v>48</v>
+        <v>153</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -65306,19 +65375,19 @@
     </row>
     <row r="29" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>433</v>
+        <v>291</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>208</v>
+        <v>153</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -65326,19 +65395,19 @@
     </row>
     <row r="30" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>433</v>
+        <v>209</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>180</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>154</v>
       </c>
       <c r="G30" s="1">
         <v>1</v>
@@ -65346,19 +65415,19 @@
     </row>
     <row r="31" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>320</v>
+        <v>237</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>196</v>
+        <v>188</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>181</v>
+        <v>344</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -65366,19 +65435,19 @@
     </row>
     <row r="32" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>349</v>
+        <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>273</v>
+        <v>467</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -65386,19 +65455,19 @@
     </row>
     <row r="33" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>183</v>
+        <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>208</v>
+        <v>467</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65406,19 +65475,19 @@
     </row>
     <row r="34" spans="1:7" s="1" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>183</v>
+        <v>286</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>198</v>
+        <v>359</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>173</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -65426,19 +65495,19 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>204</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>428</v>
+        <v>285</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>49</v>
+        <v>358</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65446,19 +65515,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>314</v>
+        <v>204</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>427</v>
+        <v>285</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>208</v>
+        <v>358</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65466,76 +65535,79 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>314</v>
+        <v>202</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E37" s="2" t="s">
         <v>427</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>186</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>198</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A38" s="1" t="s">
-        <v>311</v>
+      <c r="A38" s="2" t="s">
+        <v>203</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>434</v>
+        <v>158</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>313</v>
+        <v>219</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G38" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>185</v>
+        <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>208</v>
+        <v>219</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>312</v>
+      <c r="A40" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>185</v>
+        <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>198</v>
+        <v>360</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65543,19 +65615,19 @@
     </row>
     <row r="41" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>184</v>
+        <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E41" s="1" t="s">
-        <v>208</v>
+        <v>360</v>
+      </c>
+      <c r="E41" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65563,19 +65635,19 @@
     </row>
     <row r="42" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
-        <v>67</v>
+        <v>53</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>184</v>
+        <v>293</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>187</v>
-      </c>
-      <c r="E42" s="2" t="s">
-        <v>198</v>
+        <v>477</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65583,19 +65655,19 @@
     </row>
     <row r="43" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>435</v>
+        <v>293</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>208</v>
+        <v>477</v>
+      </c>
+      <c r="E43" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65603,19 +65675,19 @@
     </row>
     <row r="44" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
-        <v>68</v>
+        <v>19</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>436</v>
+        <v>282</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>198</v>
+        <v>361</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65623,19 +65695,19 @@
     </row>
     <row r="45" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>424</v>
+        <v>282</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E45" s="1" t="s">
-        <v>208</v>
+        <v>361</v>
+      </c>
+      <c r="E45" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65643,19 +65715,19 @@
     </row>
     <row r="46" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
-        <v>21</v>
+        <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>424</v>
+        <v>159</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E46" s="2" t="s">
-        <v>198</v>
+        <v>362</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>363</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65663,19 +65735,19 @@
     </row>
     <row r="47" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
-        <v>69</v>
+        <v>55</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>190</v>
+        <v>294</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>208</v>
+        <v>366</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65683,16 +65755,19 @@
     </row>
     <row r="48" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>437</v>
+        <v>245</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>414</v>
+        <v>476</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65700,19 +65775,19 @@
     </row>
     <row r="49" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
-        <v>77</v>
+        <v>62</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>367</v>
+        <v>245</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E49" s="1" t="s">
-        <v>208</v>
+        <v>476</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65720,19 +65795,22 @@
     </row>
     <row r="50" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
-        <v>77</v>
+        <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C50" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>339</v>
+      </c>
+      <c r="E50" s="1" t="s">
         <v>367</v>
       </c>
-      <c r="D50" s="1" t="s">
-        <v>305</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>198</v>
+      <c r="F50" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="G50" s="1">
         <v>1</v>
@@ -65740,22 +65818,19 @@
     </row>
     <row r="51" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>362</v>
+        <v>295</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>196</v>
+        <v>368</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F51" s="1" t="s">
-        <v>52</v>
+        <v>344</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -65763,19 +65838,19 @@
     </row>
     <row r="52" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
-        <v>76</v>
+        <v>61</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>438</v>
+        <v>295</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>208</v>
+        <v>368</v>
+      </c>
+      <c r="E52" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65783,19 +65858,19 @@
     </row>
     <row r="53" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
-        <v>76</v>
+        <v>21</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>438</v>
+        <v>211</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>198</v>
+        <v>495</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>480</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65803,19 +65878,19 @@
     </row>
     <row r="54" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>323</v>
+        <v>236</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>51</v>
+        <v>446</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -65823,19 +65898,19 @@
     </row>
     <row r="55" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>439</v>
+        <v>296</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>219</v>
+        <v>488</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>218</v>
+        <v>489</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65843,19 +65918,19 @@
     </row>
     <row r="56" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>347</v>
+        <v>235</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>278</v>
+        <v>192</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>218</v>
+        <v>489</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65863,19 +65938,19 @@
     </row>
     <row r="57" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
-        <v>73</v>
+        <v>57</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>348</v>
+        <v>370</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>248</v>
+        <v>381</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>210</v>
+        <v>277</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65883,19 +65958,19 @@
     </row>
     <row r="58" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>8</v>
+        <v>169</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>321</v>
+        <v>170</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>407</v>
+        <v>372</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>406</v>
+        <v>371</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -65903,19 +65978,19 @@
     </row>
     <row r="59" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>211</v>
+        <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>212</v>
+        <v>492</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>213</v>
+        <v>493</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -65923,19 +65998,19 @@
     </row>
     <row r="60" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>78</v>
+        <v>22</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>325</v>
+        <v>298</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>196</v>
+        <v>373</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>306</v>
+        <v>344</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -65943,19 +66018,19 @@
     </row>
     <row r="61" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>441</v>
+        <v>298</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>415</v>
+        <v>373</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -65963,19 +66038,19 @@
     </row>
     <row r="62" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>441</v>
+        <v>297</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>415</v>
+        <v>494</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>198</v>
+        <v>490</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -65983,19 +66058,16 @@
     </row>
     <row r="63" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
-        <v>25</v>
+        <v>64</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>440</v>
+        <v>171</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E63" s="1" t="s">
-        <v>206</v>
+        <v>468</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -66003,19 +66075,19 @@
     </row>
     <row r="64" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
-        <v>79</v>
+        <v>64</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>215</v>
+        <v>171</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>409</v>
+        <v>468</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -66023,19 +66095,19 @@
     </row>
     <row r="65" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>215</v>
+        <v>299</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -66043,19 +66115,19 @@
     </row>
     <row r="66" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
-        <v>80</v>
+        <v>24</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>442</v>
+        <v>255</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>416</v>
+        <v>374</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -66063,19 +66135,19 @@
     </row>
     <row r="67" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>378</v>
+        <v>255</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>54</v>
+        <v>374</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -66083,19 +66155,19 @@
     </row>
     <row r="68" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>378</v>
+        <v>214</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>54</v>
+        <v>160</v>
       </c>
       <c r="E68" s="1" t="s">
-        <v>198</v>
+        <v>500</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -66103,19 +66175,19 @@
     </row>
     <row r="69" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>326</v>
+        <v>301</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E69" s="1" t="s">
-        <v>307</v>
+        <v>501</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>487</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -66123,19 +66195,19 @@
     </row>
     <row r="70" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>443</v>
+        <v>300</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>216</v>
+        <v>410</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -66143,59 +66215,60 @@
     </row>
     <row r="71" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>444</v>
+        <v>303</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>279</v>
+        <v>375</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>220</v>
+        <v>344</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="B72" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>447</v>
-      </c>
-      <c r="D72" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="E72" s="1" t="s">
-        <v>208</v>
-      </c>
-      <c r="G72" s="1">
-        <v>1</v>
+      <c r="A72" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="C72" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>339</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="F72" s="9"/>
+      <c r="G72" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>445</v>
+        <v>302</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -66203,19 +66276,19 @@
     </row>
     <row r="74" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>445</v>
+        <v>302</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>38</v>
+        <v>403</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -66226,16 +66299,19 @@
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>33</v>
+        <v>339</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>31</v>
+        <v>378</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="G75" s="1">
         <v>1</v>
@@ -66243,82 +66319,79 @@
     </row>
     <row r="76" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>385</v>
+        <v>262</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>196</v>
+        <v>377</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>222</v>
+        <v>345</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>55</v>
+        <v>215</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E77" s="1" t="s">
-        <v>446</v>
-      </c>
-      <c r="F77" s="1" t="s">
-        <v>56</v>
+        <v>465</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>172</v>
       </c>
       <c r="G77" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C78" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="G78" s="1">
         <v>1</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" s="1" customFormat="1" ht="20" x14ac:dyDescent="0.25">
-      <c r="A78" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="B78" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C78" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D78" s="1" t="s">
-        <v>224</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="G78" s="1">
-        <v>3</v>
       </c>
     </row>
     <row r="79" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>448</v>
+        <v>304</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>411</v>
+        <v>379</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -66326,19 +66399,19 @@
     </row>
     <row r="80" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>448</v>
+        <v>260</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>411</v>
+        <v>380</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -66346,19 +66419,19 @@
     </row>
     <row r="81" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>383</v>
+        <v>260</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>308</v>
+        <v>380</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -66366,76 +66439,79 @@
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>88</v>
+        <v>205</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>383</v>
+        <v>223</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>308</v>
+        <v>206</v>
       </c>
       <c r="E82" s="1" t="s">
-        <v>198</v>
+        <v>173</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A83" s="1" t="s">
-        <v>315</v>
+      <c r="A83" s="2" t="s">
+        <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>335</v>
+        <v>210</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>316</v>
+        <v>391</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>317</v>
+        <v>390</v>
+      </c>
+      <c r="G83" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="5" t="s">
-        <v>30</v>
+      <c r="A84" s="8" t="s">
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>366</v>
+        <v>224</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>174</v>
+        <v>389</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>208</v>
+        <v>173</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A85" s="1" t="s">
-        <v>30</v>
+      <c r="A85" s="2" t="s">
+        <v>76</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>366</v>
+        <v>174</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="E85" s="1" t="s">
-        <v>198</v>
+        <v>384</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>344</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -66443,19 +66519,19 @@
     </row>
     <row r="86" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>322</v>
+        <v>174</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>196</v>
+        <v>384</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>225</v>
+        <v>345</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -66463,19 +66539,19 @@
     </row>
     <row r="87" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>90</v>
+        <v>77</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>336</v>
+        <v>305</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>226</v>
+        <v>475</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>227</v>
+        <v>344</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -66483,19 +66559,19 @@
     </row>
     <row r="88" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>228</v>
+        <v>305</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>353</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>208</v>
+        <v>475</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -66503,39 +66579,39 @@
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>91</v>
+        <v>78</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>228</v>
+        <v>244</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>353</v>
+        <v>388</v>
       </c>
       <c r="E89" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
+      <c r="A90" s="8" t="s">
+        <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>449</v>
+        <v>244</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -66543,19 +66619,19 @@
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>92</v>
+        <v>79</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>449</v>
+        <v>248</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>358</v>
+        <v>398</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>198</v>
+        <v>400</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66563,19 +66639,19 @@
     </row>
     <row r="92" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>93</v>
+        <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>365</v>
+        <v>248</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>229</v>
+        <v>398</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>208</v>
+        <v>399</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66583,19 +66659,19 @@
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>365</v>
+        <v>306</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>229</v>
+        <v>339</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66603,19 +66679,19 @@
     </row>
     <row r="94" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>370</v>
+        <v>274</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -66623,19 +66699,19 @@
     </row>
     <row r="95" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>94</v>
+        <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>370</v>
+        <v>275</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>230</v>
+        <v>432</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66643,19 +66719,19 @@
     </row>
     <row r="96" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>450</v>
+        <v>307</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>196</v>
+        <v>402</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>231</v>
+        <v>401</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66663,19 +66739,19 @@
     </row>
     <row r="97" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>402</v>
+        <v>217</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>412</v>
+        <v>339</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66683,19 +66759,19 @@
     </row>
     <row r="98" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>403</v>
+        <v>308</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>412</v>
+        <v>469</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -66703,19 +66779,19 @@
     </row>
     <row r="99" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>97</v>
+        <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>451</v>
+        <v>308</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>232</v>
+        <v>469</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>233</v>
+        <v>345</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66723,19 +66799,19 @@
     </row>
     <row r="100" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E100" s="1" t="s">
-        <v>234</v>
+        <v>350</v>
+      </c>
+      <c r="E100" s="2" t="s">
+        <v>486</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66743,19 +66819,19 @@
     </row>
     <row r="101" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>99</v>
+        <v>86</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>452</v>
+        <v>232</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>359</v>
+        <v>404</v>
       </c>
       <c r="E101" s="1" t="s">
-        <v>208</v>
+        <v>177</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66763,19 +66839,19 @@
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>452</v>
+        <v>256</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>359</v>
+        <v>405</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -66783,19 +66859,19 @@
     </row>
     <row r="103" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>100</v>
+        <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>455</v>
+        <v>257</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>191</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>280</v>
+        <v>405</v>
+      </c>
+      <c r="E103" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66803,19 +66879,19 @@
     </row>
     <row r="104" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>182</v>
+        <v>5</v>
       </c>
       <c r="C104" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="D104" s="1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E104" s="1" t="s">
         <v>344</v>
-      </c>
-      <c r="D104" s="1" t="s">
-        <v>352</v>
-      </c>
-      <c r="E104" s="1" t="s">
-        <v>235</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66823,19 +66899,19 @@
     </row>
     <row r="105" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>379</v>
+        <v>216</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>236</v>
+        <v>406</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66843,19 +66919,19 @@
     </row>
     <row r="106" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>380</v>
+        <v>309</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>236</v>
+        <v>339</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>198</v>
+        <v>178</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66863,19 +66939,19 @@
     </row>
     <row r="107" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>103</v>
+        <v>450</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>328</v>
+        <v>310</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -66883,19 +66959,19 @@
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>328</v>
+        <v>212</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>413</v>
+        <v>193</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -66903,19 +66979,19 @@
     </row>
     <row r="109" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>453</v>
+        <v>251</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>196</v>
+        <v>408</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>237</v>
+        <v>344</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -66923,59 +66999,53 @@
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>454</v>
+        <v>251</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E110" s="2" t="s">
-        <v>238</v>
+        <v>408</v>
+      </c>
+      <c r="E110" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G110" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
-        <v>107</v>
+      <c r="A111" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C111" s="1" t="s">
-        <v>324</v>
+        <v>5</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>281</v>
+        <v>409</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
-        <v>108</v>
+      <c r="A112" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="1" t="s">
-        <v>373</v>
+        <v>6</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>239</v>
+        <v>409</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -66983,19 +67053,19 @@
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>108</v>
+        <v>93</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>373</v>
+        <v>242</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>239</v>
+        <v>339</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
@@ -67003,19 +67073,19 @@
     </row>
     <row r="114" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
@@ -67023,19 +67093,19 @@
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>109</v>
+        <v>94</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>322</v>
+        <v>218</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>240</v>
+        <v>180</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -67043,19 +67113,19 @@
     </row>
     <row r="116" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>363</v>
+        <v>313</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>241</v>
+        <v>28</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -67063,19 +67133,19 @@
     </row>
     <row r="117" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>111</v>
+        <v>96</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>330</v>
+        <v>264</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>208</v>
+        <v>471</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -67083,19 +67153,19 @@
     </row>
     <row r="118" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>111</v>
+        <v>31</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>242</v>
+        <v>339</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>198</v>
+        <v>181</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -67103,19 +67173,19 @@
     </row>
     <row r="119" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>112</v>
+        <v>97</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>457</v>
+        <v>312</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>196</v>
+        <v>410</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>31</v>
+        <v>412</v>
       </c>
       <c r="G119" s="1">
         <v>1</v>
@@ -67123,19 +67193,19 @@
     </row>
     <row r="120" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>113</v>
+        <v>98</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>387</v>
+        <v>316</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>196</v>
+        <v>413</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>243</v>
+        <v>344</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -67143,19 +67213,19 @@
     </row>
     <row r="121" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>36</v>
+        <v>98</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>459</v>
+        <v>316</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E121" s="1" t="s">
-        <v>244</v>
+        <v>413</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>345</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -67163,19 +67233,19 @@
     </row>
     <row r="122" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>114</v>
+        <v>99</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>456</v>
+        <v>231</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>247</v>
+        <v>414</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>245</v>
+        <v>344</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -67183,19 +67253,19 @@
     </row>
     <row r="123" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>115</v>
+        <v>99</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>460</v>
+        <v>231</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>246</v>
+        <v>414</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -67203,19 +67273,19 @@
     </row>
     <row r="124" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>460</v>
+        <v>247</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>246</v>
-      </c>
-      <c r="E124" s="2" t="s">
-        <v>198</v>
+        <v>415</v>
+      </c>
+      <c r="E124" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -67223,19 +67293,19 @@
     </row>
     <row r="125" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>116</v>
+        <v>100</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>343</v>
+        <v>247</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>249</v>
+        <v>415</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -67243,19 +67313,19 @@
     </row>
     <row r="126" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>116</v>
+        <v>101</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>343</v>
+        <v>240</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>249</v>
+        <v>403</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>198</v>
+        <v>416</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -67263,19 +67333,19 @@
     </row>
     <row r="127" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>417</v>
-      </c>
-      <c r="E127" s="1" t="s">
-        <v>208</v>
+        <v>194</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>479</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -67283,19 +67353,19 @@
     </row>
     <row r="128" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>369</v>
+        <v>314</v>
       </c>
       <c r="D128" s="1" t="s">
         <v>417</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -67303,19 +67373,19 @@
     </row>
     <row r="129" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>361</v>
+        <v>243</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>251</v>
+        <v>344</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -67323,19 +67393,19 @@
     </row>
     <row r="130" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>119</v>
+        <v>104</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>461</v>
+        <v>243</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>282</v>
-      </c>
-      <c r="E130" s="2" t="s">
-        <v>208</v>
+        <v>182</v>
+      </c>
+      <c r="E130" s="1" t="s">
+        <v>345</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -67343,19 +67413,19 @@
     </row>
     <row r="131" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>458</v>
+        <v>393</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>252</v>
+        <v>339</v>
+      </c>
+      <c r="E131" s="1" t="s">
+        <v>472</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -67363,19 +67433,19 @@
     </row>
     <row r="132" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>364</v>
+        <v>268</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -67383,19 +67453,19 @@
     </row>
     <row r="133" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>253</v>
+        <v>418</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -67403,19 +67473,19 @@
     </row>
     <row r="134" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>394</v>
+        <v>254</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>196</v>
+        <v>419</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>254</v>
+        <v>344</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -67423,19 +67493,19 @@
     </row>
     <row r="135" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>123</v>
+        <v>107</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>392</v>
+        <v>254</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>255</v>
+        <v>419</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -67443,19 +67513,19 @@
     </row>
     <row r="136" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>393</v>
+        <v>421</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>255</v>
+        <v>420</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -67463,19 +67533,19 @@
     </row>
     <row r="137" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>377</v>
+        <v>421</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>256</v>
+        <v>420</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -67483,19 +67553,19 @@
     </row>
     <row r="138" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>377</v>
+        <v>230</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>256</v>
+        <v>350</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>198</v>
+        <v>364</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -67503,19 +67573,19 @@
     </row>
     <row r="139" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>462</v>
+        <v>229</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>408</v>
+        <v>195</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>208</v>
+        <v>478</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -67523,19 +67593,19 @@
     </row>
     <row r="140" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>462</v>
+        <v>321</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>408</v>
+        <v>183</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -67543,19 +67613,19 @@
     </row>
     <row r="141" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>126</v>
+        <v>112</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>342</v>
+        <v>267</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>191</v>
+        <v>422</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G141" s="1">
         <v>1</v>
@@ -67563,19 +67633,19 @@
     </row>
     <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>283</v>
+        <v>422</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>209</v>
+        <v>345</v>
       </c>
       <c r="G142" s="1">
         <v>1</v>
@@ -67583,19 +67653,19 @@
     </row>
     <row r="143" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>128</v>
+        <v>41</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>466</v>
+        <v>318</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>257</v>
+        <v>423</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>284</v>
+        <v>184</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -67603,19 +67673,19 @@
     </row>
     <row r="144" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>391</v>
+        <v>270</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -67623,19 +67693,19 @@
     </row>
     <row r="145" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>129</v>
+        <v>113</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>258</v>
+        <v>348</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -67643,19 +67713,19 @@
     </row>
     <row r="146" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>463</v>
+        <v>239</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>260</v>
+        <v>424</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>259</v>
+        <v>345</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -67663,19 +67733,19 @@
     </row>
     <row r="147" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>398</v>
+        <v>320</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>261</v>
+        <v>339</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>198</v>
+        <v>346</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67683,19 +67753,19 @@
     </row>
     <row r="148" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>130</v>
+        <v>116</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>483</v>
+        <v>319</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>262</v>
+        <v>425</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67703,19 +67773,19 @@
     </row>
     <row r="149" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>351</v>
+        <v>319</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>263</v>
+        <v>425</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67723,19 +67793,16 @@
     </row>
     <row r="150" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>465</v>
+        <v>5</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>196</v>
+        <v>426</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>264</v>
+        <v>344</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67743,19 +67810,16 @@
     </row>
     <row r="151" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>133</v>
+        <v>117</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>464</v>
+        <v>6</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>360</v>
+        <v>426</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67763,19 +67827,19 @@
     </row>
     <row r="152" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>133</v>
+        <v>39</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>464</v>
-      </c>
-      <c r="D152" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="E152" s="1" t="s">
-        <v>198</v>
+        <v>249</v>
+      </c>
+      <c r="D152" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>484</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -67783,16 +67847,19 @@
     </row>
     <row r="153" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>134</v>
+        <v>118</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
+      </c>
+      <c r="C153" s="1" t="s">
+        <v>322</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="E153" s="1" t="s">
-        <v>208</v>
+        <v>197</v>
+      </c>
+      <c r="E153" s="2" t="s">
+        <v>485</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -67800,36 +67867,39 @@
     </row>
     <row r="154" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>257</v>
+      </c>
       <c r="D154" s="1" t="s">
-        <v>357</v>
+        <v>339</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G154" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>53</v>
+        <v>123</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>192</v>
+        <v>324</v>
+      </c>
+      <c r="D155" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="E155" s="1" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67837,19 +67907,19 @@
     </row>
     <row r="156" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>467</v>
+        <v>323</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>285</v>
-      </c>
-      <c r="E156" s="1" t="s">
-        <v>198</v>
+        <v>339</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>428</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67857,39 +67927,39 @@
     </row>
     <row r="157" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>136</v>
+        <v>121</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>9</v>
+        <v>392</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="G157" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>137</v>
+        <v>122</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>468</v>
+        <v>325</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>266</v>
+        <v>187</v>
       </c>
       <c r="G158" s="1">
         <v>1</v>
@@ -67897,19 +67967,19 @@
     </row>
     <row r="159" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>138</v>
+        <v>124</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>196</v>
+        <v>339</v>
       </c>
       <c r="E159" s="1" t="s">
-        <v>267</v>
+        <v>473</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -67917,19 +67987,19 @@
     </row>
     <row r="160" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>268</v>
+        <v>344</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -67937,19 +68007,19 @@
     </row>
     <row r="161" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>469</v>
+        <v>326</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>196</v>
+        <v>431</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>265</v>
+        <v>345</v>
       </c>
       <c r="G161" s="1">
         <v>1</v>
@@ -67957,19 +68027,19 @@
     </row>
     <row r="162" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>141</v>
+        <v>127</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>395</v>
+        <v>250</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>196</v>
+        <v>464</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>269</v>
+        <v>344</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -67977,19 +68047,19 @@
     </row>
     <row r="163" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>472</v>
+        <v>250</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>270</v>
+        <v>464</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>271</v>
+        <v>345</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -67997,19 +68067,19 @@
     </row>
     <row r="164" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B164" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>471</v>
+        <v>328</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>290</v>
+        <v>463</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>291</v>
+        <v>344</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -68017,19 +68087,19 @@
     </row>
     <row r="165" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B165" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>471</v>
+        <v>330</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>290</v>
+        <v>463</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>291</v>
+        <v>345</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -68037,19 +68107,19 @@
     </row>
     <row r="166" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B166" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>372</v>
+        <v>238</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -68057,19 +68127,19 @@
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>144</v>
+        <v>129</v>
       </c>
       <c r="B167" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>372</v>
+        <v>261</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>404</v>
+        <v>433</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -68077,19 +68147,19 @@
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>145</v>
+        <v>125</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>473</v>
+        <v>327</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>208</v>
+        <v>429</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -68097,19 +68167,19 @@
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="B169" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>475</v>
+        <v>258</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>356</v>
+        <v>188</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -68117,19 +68187,19 @@
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B170" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>350</v>
+        <v>225</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>289</v>
+        <v>189</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>208</v>
+        <v>345</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -68137,19 +68207,19 @@
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>146</v>
+        <v>131</v>
       </c>
       <c r="B171" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>384</v>
+        <v>246</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>289</v>
+        <v>190</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -68157,19 +68227,19 @@
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>147</v>
+        <v>132</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>381</v>
+        <v>332</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>272</v>
+        <v>339</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -68177,19 +68247,19 @@
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>274</v>
+        <v>339</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
       <c r="G173" s="1">
         <v>1</v>
@@ -68197,19 +68267,19 @@
     </row>
     <row r="174" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>276</v>
+        <v>339</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>208</v>
+        <v>436</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -68217,19 +68287,19 @@
     </row>
     <row r="175" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>205</v>
+        <v>168</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>478</v>
+        <v>329</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>196</v>
+        <v>437</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>275</v>
+        <v>438</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -68237,19 +68307,19 @@
     </row>
     <row r="176" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>150</v>
+        <v>440</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>386</v>
+        <v>441</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>196</v>
+        <v>442</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>292</v>
+        <v>344</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -68257,39 +68327,33 @@
     </row>
     <row r="177" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>151</v>
+        <v>440</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C177" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="D177" s="1" t="s">
+        <v>442</v>
+      </c>
+      <c r="E177" s="1" t="s">
         <v>345</v>
-      </c>
-      <c r="D177" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="E177" s="1" t="s">
-        <v>293</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
-        <v>152</v>
+      <c r="A178" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="C178" s="1" t="s">
-        <v>474</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>196</v>
+        <v>46</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>294</v>
+        <v>191</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -68297,19 +68361,19 @@
     </row>
     <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>480</v>
+        <v>334</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -68317,19 +68381,19 @@
     </row>
     <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>480</v>
+        <v>334</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>476</v>
+        <v>439</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -68337,19 +68401,19 @@
     </row>
     <row r="181" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B181" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C181" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -68357,19 +68421,19 @@
     </row>
     <row r="182" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="B182" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>389</v>
+        <v>395</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>295</v>
+        <v>443</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -68377,16 +68441,19 @@
     </row>
     <row r="183" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>388</v>
+        <v>265</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>286</v>
+        <v>198</v>
+      </c>
+      <c r="E183" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -68394,19 +68461,19 @@
     </row>
     <row r="184" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C184" s="4" t="s">
-        <v>477</v>
+        <v>331</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -68414,59 +68481,59 @@
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C185" s="4" t="s">
-        <v>477</v>
+        <v>331</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>296</v>
+        <v>444</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
-        <v>157</v>
+      <c r="A186" s="5" t="s">
+        <v>382</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>376</v>
+        <v>383</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>196</v>
+        <v>151</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>297</v>
+        <v>344</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
-        <v>158</v>
+      <c r="A187" s="1" t="s">
+        <v>382</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C187" s="1" t="s">
-        <v>423</v>
+        <v>383</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>422</v>
+        <v>151</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>298</v>
+        <v>345</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -68474,19 +68541,19 @@
     </row>
     <row r="188" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>159</v>
+        <v>140</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>418</v>
+        <v>396</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>299</v>
+        <v>339</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>208</v>
+        <v>445</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
@@ -68494,19 +68561,19 @@
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>159</v>
+        <v>141</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>419</v>
+        <v>397</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>299</v>
+        <v>447</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>198</v>
+        <v>344</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -68514,19 +68581,19 @@
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>390</v>
+        <v>278</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>300</v>
+        <v>466</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -68534,19 +68601,19 @@
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>160</v>
+        <v>142</v>
       </c>
       <c r="B191" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>390</v>
+        <v>279</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>300</v>
+        <v>466</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -68554,19 +68621,19 @@
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>161</v>
+        <v>143</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>479</v>
+        <v>266</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>301</v>
+        <v>344</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -68574,19 +68641,19 @@
     </row>
     <row r="193" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>162</v>
+        <v>143</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>205</v>
+        <v>6</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>421</v>
+        <v>266</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>196</v>
+        <v>448</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>302</v>
+        <v>345</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -68594,19 +68661,19 @@
     </row>
     <row r="194" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>163</v>
+        <v>144</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>420</v>
+        <v>333</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -68614,19 +68681,19 @@
     </row>
     <row r="195" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>163</v>
+        <v>145</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>420</v>
+        <v>281</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>303</v>
+        <v>391</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>198</v>
+        <v>474</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -68634,19 +68701,19 @@
     </row>
     <row r="196" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B196" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>340</v>
+        <v>280</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>208</v>
+        <v>344</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -68654,19 +68721,19 @@
     </row>
     <row r="197" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>164</v>
+        <v>146</v>
       </c>
       <c r="B197" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>382</v>
+        <v>280</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>354</v>
+        <v>201</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -68674,19 +68741,19 @@
     </row>
     <row r="198" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>165</v>
+        <v>147</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>205</v>
+        <v>5</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>399</v>
+        <v>228</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="E198" s="1" t="s">
-        <v>304</v>
+        <v>344</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -68694,39 +68761,39 @@
     </row>
     <row r="199" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>166</v>
+        <v>147</v>
       </c>
       <c r="B199" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>339</v>
+        <v>259</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>196</v>
+        <v>449</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="200" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A200" s="7" t="s">
-        <v>167</v>
+      <c r="A200" s="2" t="s">
+        <v>148</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>195</v>
+        <v>168</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>484</v>
+        <v>271</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>481</v>
+        <v>339</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>482</v>
+        <v>470</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -68734,64 +68801,133 @@
     </row>
     <row r="201" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>318</v>
+        <v>149</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>182</v>
+        <v>6</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>338</v>
+        <v>227</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>355</v>
+        <v>451</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>310</v>
+        <v>345</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="202" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A202"/>
-      <c r="B202"/>
-      <c r="C202"/>
-      <c r="D202"/>
-      <c r="E202"/>
+      <c r="A202" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="1" t="s">
+        <v>460</v>
+      </c>
+      <c r="D202" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="E202" s="1" t="s">
+        <v>344</v>
+      </c>
       <c r="F202"/>
-      <c r="G202"/>
+      <c r="G202" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="203" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>106</v>
+        <v>453</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>205</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="C203" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="D203" s="1" t="s">
+        <v>458</v>
+      </c>
+      <c r="E203" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="F203"/>
       <c r="G203" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A204"/>
-      <c r="B204"/>
-      <c r="C204"/>
-      <c r="D204"/>
-      <c r="E204"/>
-      <c r="F204"/>
-      <c r="G204"/>
+      <c r="A204" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C204" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E204" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="G204" s="1">
+        <v>1</v>
+      </c>
       <c r="H204"/>
     </row>
     <row r="205" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A205"/>
-      <c r="B205"/>
-      <c r="C205"/>
-      <c r="D205"/>
-      <c r="E205"/>
+      <c r="A205" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C205" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="D205" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="E205" s="1" t="s">
+        <v>462</v>
+      </c>
       <c r="F205"/>
-      <c r="G205"/>
+      <c r="G205" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+      <c r="A206" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C206" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D206" s="1" t="s">
+        <v>456</v>
+      </c>
+      <c r="E206" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="F206" s="1"/>
+      <c r="G206" s="1">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G206">
+    <sortCondition ref="A2:A206"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmccaskill/Documents/TRAAB_Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{849EA6D6-B472-2B45-AA57-AFF9CA7D049B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D8C88-77BA-1D4C-BFA8-DFFCB79D090D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-3140" windowWidth="38400" windowHeight="21140" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1032" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="509">
   <si>
     <t>AGORAPHOBE</t>
   </si>
@@ -597,9 +597,6 @@
     <t>If you are in the same room as Juliet and the Bomber at the end of the game, you win.</t>
   </si>
   <si>
-    <t>Any player that card shares with you must trade in their character card for a Blue Team card before the beginning of the next round and before revealing any part of their card to another player.</t>
-  </si>
-  <si>
     <t>You are a member of the Red Team, your goal is aligned with that of the Red Team.</t>
   </si>
   <si>
@@ -721,9 +718,6 @@
   </si>
   <si>
     <t>Next in line</t>
-  </si>
-  <si>
-    <t>Keep your head down</t>
   </si>
   <si>
     <t>Let's talk</t>
@@ -1008,9 +1002,6 @@
     <t>There can only be one</t>
   </si>
   <si>
-    <t>Give me my sin again</t>
-  </si>
-  <si>
     <t>Always watching</t>
   </si>
   <si>
@@ -1018,9 +1009,6 @@
   </si>
   <si>
     <t>I know your thoughts</t>
-  </si>
-  <si>
-    <t>I know what you're thinking</t>
   </si>
   <si>
     <t>I know what you dream of</t>
@@ -1153,9 +1141,6 @@
   </si>
   <si>
     <t>Once per round, you may privately reveal your card simultaneously to two players. These players must card share to each other (but not to you).</t>
-  </si>
-  <si>
-    <t>You begin with the "flashing" condition: you may only publicly reveal, even with another character's power might force a color share, card share, or private reveal.</t>
   </si>
   <si>
     <t>If you card share with the President, they gain the "fireproof" condition. If the President has the fireproof condition at the end of the game, all players in the same room as the President gain the "fireproof" condition: they do not gain the "dead" condition from the "firebomb" condition.</t>
@@ -1365,9 +1350,6 @@
     <t>You may publicly reveal your card at any time and verbally announce, "Time is up!" to immediately end the round. Be sure that both rooms hear the call to end the round. If you take longer than 5 minutes to call a round, you lose this power.</t>
   </si>
   <si>
-    <t>You have the "trade" power: you may trade your card for the buried card. You may not peek at the buried card, only trade with it, and you assume all powers and the allegiance of your newly acquired card. The "trade" power can be used by any player only once per round.</t>
-  </si>
-  <si>
     <t>If you are sent to a different room as a hostage at the end of a majority of the rounds, you win.</t>
   </si>
   <si>
@@ -1375,9 +1357,6 @@
   </si>
   <si>
     <t>If you card share with the Bomber (does not include the Martyr), the game immediately ends, Blue Team wins, and Red Team loses.</t>
-  </si>
-  <si>
-    <t>Any player who card shares with you that has a color not of your own gains the "seduced" condition. All "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
   </si>
   <si>
     <t>You are one of the two alpha wolves and have the "werewolf" power. Any player that card shares or color shares with you or someone with the "bitten" condition gains the "bitten" condition: they must answer any question either of the alpha wolves ask as honestly and informatively as possible.</t>
@@ -1416,12 +1395,6 @@
     <t>Right.</t>
   </si>
   <si>
-    <t>If you win, all other players lose.</t>
-  </si>
-  <si>
-    <t>If any player color shares or card shares with you, you win.</t>
-  </si>
-  <si>
     <t>Before the game begins, but after character cards have been dealt, all players but Seers must close their eyes and publicly reveal their cards for 30 seconds. You begin with the "shy" condition: you may not reveal any part of your card to any player.</t>
   </si>
   <si>
@@ -1453,9 +1426,6 @@
   </si>
   <si>
     <t>If, at the end of the game, you are in the same room as Paper, but the opposite rooms as Rock, you win.</t>
-  </si>
-  <si>
-    <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Bomber, you win.</t>
   </si>
   <si>
     <t>Any player that card shares with you trades cards with you and then acquires the "shy" condition: they may not reveal any part of their card to any player. They assume the allegiance of the Identity Thief card, and you assume the powers, allegiance, win objectives, and all starting conditions of the newly stolen card.</t>
@@ -1533,20 +1503,68 @@
     <t>If you, acting as the Alchemist, fail to card share with the acting King before the end of the game, Blue Team loses.</t>
   </si>
   <si>
-    <t>If you, acting as the Eggineer, fail to card share with the acting Dragon before the end of the game, Blue Team loses.</t>
-  </si>
-  <si>
     <t>You are the backup character for the King. If the King gains the "toast" condition during the game or is buried, you take the role of the King.</t>
   </si>
   <si>
     <t>I am the gate</t>
+  </si>
+  <si>
+    <t>You begin with the "flashing" condition: you may only publicly reveal, even when another character's power might force a color share, card share, or private reveal.</t>
+  </si>
+  <si>
+    <t>If you, acting as the Eggineer, fail to card share with the acting Dragon before the end of the game, Red Team loses.</t>
+  </si>
+  <si>
+    <t>Keep your head down, Sir</t>
+  </si>
+  <si>
+    <t>Thus with a kiss I die</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you must trade in their character card for a Red Team card before the beginning of the next round and before revealing any part of their card to another player. (Your power has no effect on primary characters, backup characters, or non- Red/Blue Characters.)</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you must trade in their character card for a Blue Team card before the beginning of the next round and before revealing any part of their card to another player. (Your power has no effect on primary characters, backup characters, or non- Red/Blue Characters.)</t>
+  </si>
+  <si>
+    <t>I know what you're planning</t>
+  </si>
+  <si>
+    <t>You have the "trade" power: you may trade your card for the buried card. You may not peek at the buried card, only trade with it, and you assume all powers and the allegiance of your newly acquired card. The "trade" power can be used by the Trader once per round.</t>
+  </si>
+  <si>
+    <t>You have the "seductive" power: any player who card shares with you that has a color not of your own gains the "seduced" condition: "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
+  </si>
+  <si>
+    <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Bomber, you win. If you win, both the Red and Blue Team lose.</t>
+  </si>
+  <si>
+    <t>If any player color shares or card shares with you, you win. If you win, all other players lose.</t>
+  </si>
+  <si>
+    <t>Mastermind</t>
+  </si>
+  <si>
+    <t>If any player card shares with you then you win and all other players lose.</t>
+  </si>
+  <si>
+    <t>Illuminati</t>
+  </si>
+  <si>
+    <t>At the end of the last round, before all players reveal their cards, you must publicly announce the color of EVERY player. If you are able to correctly name the color of every player’s character card, then you win and all other players lose. If you get guess just 1 player’s color wrong, then you lose the game.</t>
+  </si>
+  <si>
+    <t>If you end the game as a room’s leader AND was a leader of the opposing room, you win.</t>
+  </si>
+  <si>
+    <t>You've fallen into my trap</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1576,21 +1594,13 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF222222"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1609,6 +1619,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -1622,7 +1650,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1632,10 +1660,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1950,12 +1980,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1319201-7300-864A-9EB3-B86618CE3873}">
-  <dimension ref="A1:WHQ206"/>
+  <dimension ref="A1:WHQ209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A187" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="C206" sqref="C206"/>
+      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1998,13 +2028,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -2018,13 +2048,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2038,13 +2068,13 @@
         <v>168</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2058,10 +2088,10 @@
         <v>168</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -2081,13 +2111,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>496</v>
+        <v>486</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>497</v>
+        <v>487</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64929,13 +64959,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64949,13 +64979,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64969,13 +64999,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -64989,13 +65019,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -65009,13 +65039,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
@@ -65032,13 +65062,13 @@
         <v>168</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>339</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>343</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -65055,10 +65085,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -65075,10 +65105,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -65092,13 +65122,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>498</v>
+        <v>488</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>499</v>
+        <v>489</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -65112,13 +65142,13 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -65132,13 +65162,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -65152,13 +65182,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -65172,13 +65202,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>482</v>
+        <v>472</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -65188,20 +65218,20 @@
       </c>
     </row>
     <row r="20" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="1" t="s">
         <v>50</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>483</v>
+        <v>473</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -65209,19 +65239,19 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -65238,10 +65268,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -65258,10 +65288,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -65275,16 +65305,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>481</v>
+        <v>471</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G24" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -65298,7 +65328,7 @@
         <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
@@ -65315,13 +65345,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
@@ -65338,13 +65368,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
@@ -65361,13 +65391,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -65381,13 +65411,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -65401,10 +65431,10 @@
         <v>168</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>154</v>
@@ -65421,13 +65451,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>237</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>188</v>
+        <v>235</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>497</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -65444,10 +65474,10 @@
         <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -65464,10 +65494,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>467</v>
+        <v>458</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65481,10 +65511,10 @@
         <v>168</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>173</v>
@@ -65495,19 +65525,19 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65515,19 +65545,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65535,19 +65565,19 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -65555,7 +65585,7 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
@@ -65564,10 +65594,10 @@
         <v>158</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -65575,7 +65605,7 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -65584,10 +65614,10 @@
         <v>158</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -65600,14 +65630,14 @@
       <c r="B40" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65620,14 +65650,14 @@
       <c r="B41" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="10" t="s">
         <v>157</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65641,13 +65671,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65661,13 +65691,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>477</v>
+        <v>467</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65681,13 +65711,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65701,13 +65731,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65724,10 +65754,10 @@
         <v>159</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65741,13 +65771,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65761,13 +65791,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65781,13 +65811,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>476</v>
+        <v>466</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65801,13 +65831,13 @@
         <v>168</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>38</v>
@@ -65824,13 +65854,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -65844,13 +65874,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65864,13 +65894,13 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>495</v>
+        <v>485</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>480</v>
+        <v>470</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65884,13 +65914,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -65904,13 +65934,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>488</v>
+        <v>478</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65924,13 +65954,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>489</v>
+        <v>479</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65944,13 +65974,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>381</v>
+        <v>376</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65967,10 +65997,10 @@
         <v>170</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -65984,13 +66014,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>492</v>
+        <v>482</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>493</v>
+        <v>483</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -66004,13 +66034,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -66024,13 +66054,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -66040,17 +66070,17 @@
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="1" t="s">
-        <v>5</v>
+      <c r="B62" s="5" t="s">
+        <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>494</v>
+        <v>484</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>490</v>
+        <v>480</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -66067,7 +66097,10 @@
         <v>171</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
+      </c>
+      <c r="E63" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -66084,10 +66117,10 @@
         <v>171</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>468</v>
+        <v>459</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -66101,13 +66134,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -66121,13 +66154,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>374</v>
+        <v>253</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -66141,13 +66174,13 @@
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D67" s="1" t="s">
-        <v>374</v>
+        <v>253</v>
+      </c>
+      <c r="D67" s="5" t="s">
+        <v>492</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -66161,13 +66194,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>160</v>
       </c>
-      <c r="E68" s="1" t="s">
-        <v>500</v>
+      <c r="E68" s="5" t="s">
+        <v>493</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -66181,13 +66214,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>501</v>
+        <v>490</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>487</v>
+        <v>477</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -66201,13 +66234,13 @@
         <v>168</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -66221,37 +66254,36 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
+      <c r="A72" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="C72" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>339</v>
-      </c>
-      <c r="E72" s="9" t="s">
-        <v>376</v>
-      </c>
-      <c r="F72" s="9"/>
-      <c r="G72" s="9">
-        <v>0</v>
+      <c r="D72" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="G72" s="1">
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -66262,13 +66294,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -66282,13 +66314,13 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -66305,10 +66337,10 @@
         <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>41</v>
@@ -66325,13 +66357,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -66345,10 +66377,10 @@
         <v>168</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>465</v>
+        <v>456</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>172</v>
@@ -66365,13 +66397,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
@@ -66385,13 +66417,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -66405,13 +66437,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -66425,13 +66457,13 @@
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -66439,16 +66471,16 @@
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>173</v>
@@ -66465,30 +66497,30 @@
         <v>168</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>173</v>
@@ -66508,10 +66540,10 @@
         <v>174</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -66528,10 +66560,10 @@
         <v>174</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -66545,13 +66577,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -66565,73 +66597,69 @@
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>475</v>
+        <v>465</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="D89" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="E89" s="1" t="s">
-        <v>344</v>
-      </c>
+      <c r="A89" s="11" t="s">
+        <v>505</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="12"/>
+      <c r="D89" s="12" t="s">
+        <v>504</v>
+      </c>
+      <c r="E89" s="12"/>
       <c r="G89" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A90" s="8" t="s">
+      <c r="A90" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
-        <v>79</v>
+      <c r="A91" s="7" t="s">
+        <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>400</v>
+        <v>341</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66642,16 +66670,16 @@
         <v>79</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66659,19 +66687,19 @@
     </row>
     <row r="93" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>306</v>
+        <v>246</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>339</v>
+        <v>393</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>175</v>
+        <v>394</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66679,19 +66707,19 @@
     </row>
     <row r="94" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>274</v>
+        <v>304</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>432</v>
+        <v>335</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>344</v>
+        <v>175</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -66702,16 +66730,16 @@
         <v>81</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66719,19 +66747,19 @@
     </row>
     <row r="96" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>402</v>
+        <v>427</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>401</v>
+        <v>341</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66739,19 +66767,19 @@
     </row>
     <row r="97" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>217</v>
+        <v>305</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>339</v>
+        <v>397</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>176</v>
+        <v>396</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66759,19 +66787,19 @@
     </row>
     <row r="98" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>308</v>
+        <v>216</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>469</v>
+        <v>335</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -66782,16 +66810,16 @@
         <v>84</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>469</v>
+        <v>460</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66799,19 +66827,19 @@
     </row>
     <row r="100" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>350</v>
-      </c>
-      <c r="E100" s="2" t="s">
-        <v>486</v>
+        <v>460</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66819,19 +66847,19 @@
     </row>
     <row r="101" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>155</v>
+        <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>232</v>
+        <v>309</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>404</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>177</v>
+        <v>346</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>476</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66839,19 +66867,19 @@
     </row>
     <row r="102" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>5</v>
+        <v>155</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>344</v>
+        <v>177</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -66862,16 +66890,16 @@
         <v>87</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66879,19 +66907,19 @@
     </row>
     <row r="104" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>216</v>
+        <v>255</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66902,16 +66930,16 @@
         <v>88</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66919,19 +66947,19 @@
     </row>
     <row r="106" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>309</v>
+        <v>215</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>339</v>
+        <v>401</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>178</v>
+        <v>341</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66939,19 +66967,19 @@
     </row>
     <row r="107" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>450</v>
+        <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>407</v>
+        <v>335</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>344</v>
+        <v>178</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -66959,19 +66987,19 @@
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>90</v>
+        <v>443</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>212</v>
+        <v>308</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>193</v>
+        <v>402</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -66979,73 +67007,75 @@
     </row>
     <row r="109" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>408</v>
+        <v>192</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B110" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C110" s="1" t="s">
-        <v>251</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="E110" s="1" t="s">
-        <v>345</v>
-      </c>
+      <c r="A110" s="11" t="s">
+        <v>503</v>
+      </c>
+      <c r="B110" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="C110" s="12"/>
+      <c r="D110" s="12" t="s">
+        <v>506</v>
+      </c>
+      <c r="E110" s="12"/>
       <c r="G110" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="111" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A111" s="6" t="s">
-        <v>92</v>
+    <row r="111" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
+      <c r="A111" s="2" t="s">
+        <v>503</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C111" s="1" t="s">
+        <v>508</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>409</v>
-      </c>
-      <c r="E111" s="1" t="s">
-        <v>344</v>
+        <v>335</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>507</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A112" s="6" t="s">
-        <v>92</v>
+      <c r="A112" s="2" t="s">
+        <v>91</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C112" s="1" t="s">
+        <v>249</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -67053,59 +67083,53 @@
     </row>
     <row r="113" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>339</v>
+        <v>403</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>179</v>
+        <v>341</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
-        <v>94</v>
+      <c r="A114" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C114" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D114" s="1" t="s">
-        <v>180</v>
+        <v>404</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
-        <v>94</v>
+      <c r="A115" s="6" t="s">
+        <v>92</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C115" s="1" t="s">
-        <v>218</v>
-      </c>
       <c r="D115" s="1" t="s">
-        <v>180</v>
+        <v>404</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -67113,19 +67137,19 @@
     </row>
     <row r="116" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>313</v>
+        <v>240</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>28</v>
+        <v>179</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -67133,19 +67157,19 @@
     </row>
     <row r="117" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>264</v>
+        <v>217</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>471</v>
+        <v>340</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -67153,19 +67177,19 @@
     </row>
     <row r="118" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>31</v>
+        <v>94</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>315</v>
+        <v>217</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>339</v>
+        <v>180</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>181</v>
+        <v>341</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -67173,19 +67197,19 @@
     </row>
     <row r="119" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>410</v>
+        <v>335</v>
       </c>
       <c r="E119" s="1" t="s">
-        <v>412</v>
+        <v>28</v>
       </c>
       <c r="G119" s="1">
         <v>1</v>
@@ -67193,19 +67217,19 @@
     </row>
     <row r="120" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A120" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>316</v>
+        <v>262</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>413</v>
+        <v>335</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>344</v>
+        <v>462</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -67213,19 +67237,19 @@
     </row>
     <row r="121" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A121" s="2" t="s">
-        <v>98</v>
+        <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="E121" s="2" t="s">
-        <v>345</v>
+        <v>335</v>
+      </c>
+      <c r="E121" s="1" t="s">
+        <v>181</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -67233,19 +67257,19 @@
     </row>
     <row r="122" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A122" s="2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>231</v>
+        <v>310</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>414</v>
+        <v>405</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>344</v>
+        <v>407</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -67253,19 +67277,19 @@
     </row>
     <row r="123" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A123" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>231</v>
+        <v>314</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -67273,19 +67297,19 @@
     </row>
     <row r="124" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>247</v>
+        <v>314</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="E124" s="1" t="s">
-        <v>344</v>
+        <v>408</v>
+      </c>
+      <c r="E124" s="2" t="s">
+        <v>341</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -67293,19 +67317,19 @@
     </row>
     <row r="125" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>247</v>
+        <v>229</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -67313,19 +67337,19 @@
     </row>
     <row r="126" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>403</v>
+        <v>409</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>416</v>
+        <v>341</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -67333,19 +67357,19 @@
     </row>
     <row r="127" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B127" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>317</v>
+        <v>245</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>479</v>
+        <v>410</v>
+      </c>
+      <c r="E127" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -67353,19 +67377,19 @@
     </row>
     <row r="128" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>314</v>
+        <v>245</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -67373,19 +67397,19 @@
     </row>
     <row r="129" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>182</v>
+        <v>398</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>344</v>
+        <v>411</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -67393,19 +67417,19 @@
     </row>
     <row r="130" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>243</v>
+        <v>315</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="E130" s="1" t="s">
-        <v>345</v>
+        <v>193</v>
+      </c>
+      <c r="E130" s="2" t="s">
+        <v>469</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -67413,19 +67437,19 @@
     </row>
     <row r="131" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>393</v>
+        <v>312</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>339</v>
+        <v>412</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>472</v>
+        <v>340</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -67433,19 +67457,19 @@
     </row>
     <row r="132" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B132" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>268</v>
+        <v>241</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>418</v>
+        <v>182</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -67453,19 +67477,19 @@
     </row>
     <row r="133" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B133" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>269</v>
+        <v>241</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>418</v>
+        <v>182</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -67473,19 +67497,19 @@
     </row>
     <row r="134" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>254</v>
+        <v>388</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>419</v>
+        <v>335</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>344</v>
+        <v>463</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -67493,19 +67517,19 @@
     </row>
     <row r="135" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -67513,19 +67537,19 @@
     </row>
     <row r="136" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>421</v>
+        <v>267</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -67533,19 +67557,19 @@
     </row>
     <row r="137" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>421</v>
+        <v>252</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -67553,19 +67577,19 @@
     </row>
     <row r="138" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>230</v>
+        <v>252</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>350</v>
+        <v>414</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -67573,19 +67597,19 @@
     </row>
     <row r="139" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>229</v>
+        <v>416</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>195</v>
+        <v>415</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>478</v>
+        <v>340</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -67593,19 +67617,19 @@
     </row>
     <row r="140" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>321</v>
+        <v>416</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>183</v>
+        <v>415</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>196</v>
+        <v>341</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -67613,19 +67637,19 @@
     </row>
     <row r="141" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="1" t="s">
-        <v>267</v>
+      <c r="C141" s="5" t="s">
+        <v>494</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>422</v>
+        <v>346</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>344</v>
+        <v>360</v>
       </c>
       <c r="G141" s="1">
         <v>1</v>
@@ -67633,39 +67657,39 @@
     </row>
     <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>267</v>
+        <v>228</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>422</v>
+        <v>194</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>345</v>
+        <v>468</v>
       </c>
       <c r="G142" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>41</v>
+        <v>111</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>423</v>
+        <v>183</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -67673,19 +67697,19 @@
     </row>
     <row r="144" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -67693,19 +67717,19 @@
     </row>
     <row r="145" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>336</v>
+        <v>265</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>348</v>
+        <v>417</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -67713,19 +67737,19 @@
     </row>
     <row r="146" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>114</v>
+        <v>41</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>239</v>
+        <v>316</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>345</v>
+        <v>184</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -67733,19 +67757,19 @@
     </row>
     <row r="147" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B147" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>320</v>
+        <v>268</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67753,19 +67777,19 @@
     </row>
     <row r="148" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>319</v>
+        <v>332</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>425</v>
+        <v>344</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67773,19 +67797,19 @@
     </row>
     <row r="149" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>319</v>
+        <v>237</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67793,16 +67817,19 @@
     </row>
     <row r="150" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>426</v>
+        <v>335</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67810,16 +67837,19 @@
     </row>
     <row r="151" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
+      </c>
+      <c r="C151" s="1" t="s">
+        <v>317</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67827,79 +67857,73 @@
     </row>
     <row r="152" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
       <c r="B152" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>249</v>
-      </c>
-      <c r="D152" s="2" t="s">
-        <v>352</v>
-      </c>
-      <c r="E152" s="2" t="s">
-        <v>484</v>
+        <v>317</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="E152" s="1" t="s">
+        <v>341</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>118</v>
+      <c r="A153" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C153" s="1" t="s">
-        <v>322</v>
+        <v>5</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="E153" s="2" t="s">
-        <v>485</v>
+        <v>421</v>
+      </c>
+      <c r="E153" s="1" t="s">
+        <v>340</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>119</v>
+      <c r="A154" s="6" t="s">
+        <v>117</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C154" s="1" t="s">
-        <v>257</v>
-      </c>
       <c r="D154" s="1" t="s">
-        <v>339</v>
+        <v>421</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G154" s="1">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
-        <v>123</v>
+        <v>39</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="D155" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E155" s="1" t="s">
-        <v>185</v>
+        <v>247</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>474</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67907,19 +67931,19 @@
     </row>
     <row r="156" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>339</v>
+        <v>196</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67927,39 +67951,39 @@
     </row>
     <row r="157" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A157" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>392</v>
+        <v>255</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>186</v>
+        <v>341</v>
       </c>
       <c r="G157" s="1">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B158" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G158" s="1">
         <v>1</v>
@@ -67967,19 +67991,19 @@
     </row>
     <row r="159" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B159" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>394</v>
+        <v>321</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E159" s="1" t="s">
-        <v>473</v>
+        <v>335</v>
+      </c>
+      <c r="E159" s="2" t="s">
+        <v>423</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -67987,19 +68011,19 @@
     </row>
     <row r="160" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>326</v>
+        <v>387</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>344</v>
+        <v>186</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -68007,19 +68031,19 @@
     </row>
     <row r="161" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C161" s="1" t="s">
-        <v>326</v>
+        <v>168</v>
+      </c>
+      <c r="C161" s="5" t="s">
+        <v>495</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>431</v>
+        <v>335</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>345</v>
+        <v>187</v>
       </c>
       <c r="G161" s="1">
         <v>1</v>
@@ -68027,19 +68051,19 @@
     </row>
     <row r="162" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>250</v>
+        <v>389</v>
       </c>
       <c r="D162" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="E162" s="1" t="s">
         <v>464</v>
-      </c>
-      <c r="E162" s="1" t="s">
-        <v>344</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -68047,19 +68071,19 @@
     </row>
     <row r="163" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>464</v>
+        <v>426</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -68067,19 +68091,19 @@
     </row>
     <row r="164" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>328</v>
+        <v>323</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>463</v>
+        <v>426</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -68087,19 +68111,19 @@
     </row>
     <row r="165" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>330</v>
+        <v>248</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>463</v>
+        <v>455</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -68107,19 +68131,19 @@
     </row>
     <row r="166" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>238</v>
+        <v>248</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>433</v>
+        <v>455</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -68127,19 +68151,19 @@
     </row>
     <row r="167" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>261</v>
+        <v>325</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>433</v>
+        <v>454</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -68147,19 +68171,19 @@
     </row>
     <row r="168" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="B168" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>430</v>
+        <v>454</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>429</v>
+        <v>341</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -68167,19 +68191,19 @@
     </row>
     <row r="169" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>258</v>
+        <v>236</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>188</v>
+        <v>428</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -68187,19 +68211,19 @@
     </row>
     <row r="170" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>225</v>
+        <v>259</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>189</v>
+        <v>428</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -68207,19 +68231,19 @@
     </row>
     <row r="171" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>246</v>
+        <v>324</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>190</v>
+        <v>425</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>344</v>
+        <v>424</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -68227,19 +68251,19 @@
     </row>
     <row r="172" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>332</v>
-      </c>
-      <c r="D172" s="1" t="s">
-        <v>339</v>
+        <v>256</v>
+      </c>
+      <c r="D172" s="5" t="s">
+        <v>496</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>434</v>
+        <v>341</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -68247,19 +68271,19 @@
     </row>
     <row r="173" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E173" s="1" t="s">
-        <v>435</v>
+        <v>188</v>
+      </c>
+      <c r="E173" s="5" t="s">
+        <v>340</v>
       </c>
       <c r="G173" s="1">
         <v>1</v>
@@ -68267,19 +68291,19 @@
     </row>
     <row r="174" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="E174" s="1" t="s">
-        <v>436</v>
+        <v>189</v>
+      </c>
+      <c r="E174" s="5" t="s">
+        <v>341</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -68287,19 +68311,19 @@
     </row>
     <row r="175" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B175" s="1" t="s">
         <v>168</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>437</v>
+        <v>335</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -68307,19 +68331,19 @@
     </row>
     <row r="176" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>440</v>
+        <v>133</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>441</v>
+        <v>261</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>344</v>
+        <v>430</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -68327,33 +68351,39 @@
     </row>
     <row r="177" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>440</v>
+        <v>134</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>441</v>
+        <v>231</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>442</v>
+        <v>335</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>345</v>
+        <v>431</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A178" s="1" t="s">
-        <v>44</v>
+      <c r="A178" s="2" t="s">
+        <v>135</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>46</v>
+        <v>168</v>
+      </c>
+      <c r="C178" s="5" t="s">
+        <v>498</v>
+      </c>
+      <c r="D178" s="1" t="s">
+        <v>432</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>191</v>
+        <v>433</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -68361,19 +68391,19 @@
     </row>
     <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>334</v>
+        <v>436</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -68381,39 +68411,33 @@
     </row>
     <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>136</v>
+        <v>435</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>334</v>
+        <v>436</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
-        <v>137</v>
+      <c r="A181" s="1" t="s">
+        <v>44</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C181" s="1" t="s">
-        <v>395</v>
-      </c>
-      <c r="D181" s="1" t="s">
-        <v>443</v>
+        <v>46</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>344</v>
+        <v>190</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -68421,19 +68445,19 @@
     </row>
     <row r="182" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>395</v>
+        <v>330</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -68441,39 +68465,39 @@
     </row>
     <row r="183" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B183" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>265</v>
+        <v>330</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>198</v>
+        <v>434</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>491</v>
+        <v>341</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>139</v>
+      <c r="A184" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="B184" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C184" s="4" t="s">
-        <v>331</v>
+      <c r="C184" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -68481,59 +68505,59 @@
     </row>
     <row r="185" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B185" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C185" s="4" t="s">
-        <v>331</v>
+      <c r="C185" s="1" t="s">
+        <v>390</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A186" s="5" t="s">
-        <v>382</v>
+      <c r="A186" s="2" t="s">
+        <v>138</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>383</v>
+        <v>263</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>151</v>
+        <v>197</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>344</v>
+        <v>481</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187" s="1" t="s">
-        <v>382</v>
+      <c r="A187" s="6" t="s">
+        <v>139</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>151</v>
+        <v>5</v>
+      </c>
+      <c r="C187" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D187" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -68541,59 +68565,59 @@
     </row>
     <row r="188" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C188" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="D188" s="1" t="s">
-        <v>339</v>
+        <v>6</v>
+      </c>
+      <c r="C188" s="4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D188" s="5" t="s">
+        <v>499</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>445</v>
+        <v>341</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
-        <v>141</v>
+      <c r="A189" s="9" t="s">
+        <v>377</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>397</v>
+        <v>378</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>447</v>
+        <v>151</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
-        <v>142</v>
+      <c r="A190" s="1" t="s">
+        <v>377</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>278</v>
+        <v>378</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>466</v>
+        <v>151</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -68601,19 +68625,19 @@
     </row>
     <row r="191" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>279</v>
+        <v>391</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>466</v>
+        <v>335</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>345</v>
+        <v>439</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -68621,19 +68645,19 @@
     </row>
     <row r="192" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B192" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>266</v>
+        <v>392</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -68641,19 +68665,19 @@
     </row>
     <row r="193" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>448</v>
+        <v>457</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -68661,19 +68685,19 @@
     </row>
     <row r="194" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>333</v>
+        <v>277</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>339</v>
+        <v>457</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>200</v>
+        <v>341</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -68681,19 +68705,19 @@
     </row>
     <row r="195" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>168</v>
+        <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="D195" s="1" t="s">
-        <v>391</v>
+        <v>264</v>
+      </c>
+      <c r="D195" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>474</v>
+        <v>340</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -68701,19 +68725,19 @@
     </row>
     <row r="196" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>280</v>
-      </c>
-      <c r="D196" s="1" t="s">
-        <v>201</v>
+        <v>264</v>
+      </c>
+      <c r="D196" s="5" t="s">
+        <v>500</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -68721,19 +68745,19 @@
     </row>
     <row r="197" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>201</v>
+        <v>335</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>345</v>
+        <v>199</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -68741,19 +68765,19 @@
     </row>
     <row r="198" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>5</v>
+        <v>168</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>228</v>
-      </c>
-      <c r="D198" s="1" t="s">
-        <v>449</v>
-      </c>
-      <c r="E198" s="1" t="s">
-        <v>344</v>
+        <v>279</v>
+      </c>
+      <c r="D198" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E198" s="5" t="s">
+        <v>501</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -68761,19 +68785,19 @@
     </row>
     <row r="199" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>259</v>
+        <v>278</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>449</v>
+        <v>200</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
@@ -68781,19 +68805,19 @@
     </row>
     <row r="200" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>168</v>
+        <v>6</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>339</v>
+        <v>200</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>470</v>
+        <v>341</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -68801,19 +68825,19 @@
     </row>
     <row r="201" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
         <v>227</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -68821,112 +68845,172 @@
     </row>
     <row r="202" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>452</v>
+        <v>147</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>460</v>
+        <v>257</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>457</v>
+        <v>442</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="F202"/>
+        <v>341</v>
+      </c>
       <c r="G202" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="203" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>453</v>
+        <v>148</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>6</v>
+        <v>168</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>459</v>
+        <v>269</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>458</v>
+        <v>335</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="F203"/>
+        <v>461</v>
+      </c>
       <c r="G203" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="204" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A204" s="7" t="s">
-        <v>150</v>
+      <c r="A204" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>337</v>
+        <v>226</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>335</v>
+        <v>444</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>455</v>
+        <v>341</v>
       </c>
       <c r="G204" s="1">
         <v>1</v>
       </c>
-      <c r="H204"/>
     </row>
     <row r="205" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>454</v>
+        <v>445</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C205" s="10" t="s">
-        <v>502</v>
+        <v>5</v>
+      </c>
+      <c r="C205" s="1" t="s">
+        <v>453</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>461</v>
+        <v>450</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>462</v>
+        <v>340</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="19" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>207</v>
+        <v>446</v>
       </c>
       <c r="B206" s="1" t="s">
-        <v>155</v>
+        <v>6</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>226</v>
+        <v>452</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="F206" s="1"/>
+        <v>341</v>
+      </c>
+      <c r="F206"/>
       <c r="G206" s="1">
         <v>1</v>
       </c>
     </row>
+    <row r="207" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A207" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C207" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="D207" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="E207" s="1" t="s">
+        <v>448</v>
+      </c>
+      <c r="G207" s="1">
+        <v>1</v>
+      </c>
+      <c r="H207"/>
+    </row>
+    <row r="208" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
+      <c r="A208" s="2" t="s">
+        <v>447</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C208" s="8" t="s">
+        <v>491</v>
+      </c>
+      <c r="D208" s="5" t="s">
+        <v>335</v>
+      </c>
+      <c r="E208" s="5" t="s">
+        <v>502</v>
+      </c>
+      <c r="F208"/>
+      <c r="G208" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
+      <c r="A209" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C209" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="D209" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E209" s="1" t="s">
+        <v>343</v>
+      </c>
+      <c r="F209" s="1"/>
+      <c r="G209" s="1">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G206">
-    <sortCondition ref="A2:A206"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G209">
+    <sortCondition ref="A2:A209"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{376D8C88-77BA-1D4C-BFA8-DFFCB79D090D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087183B-0687-3A4D-93CE-D7222F6F0C9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1044" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1048" uniqueCount="510">
   <si>
     <t>AGORAPHOBE</t>
   </si>
@@ -502,9 +502,6 @@
   </si>
   <si>
     <t>So many legs!</t>
-  </si>
-  <si>
-    <t>I will turn you</t>
   </si>
   <si>
     <t>It is what I do best</t>
@@ -1188,12 +1185,6 @@
     <t>Any player that card shares or color shares with you immediately trades cards with you. You both assume the powers and the allegiance of the newly acquired cards.</t>
   </si>
   <si>
-    <t>If you are in the same room as the President and Bomber at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>If you win, both the Red Team and Blue Team lose.</t>
-  </si>
-  <si>
     <t>A solid choice</t>
   </si>
   <si>
@@ -1245,9 +1236,6 @@
     <t>When you publicly reveal your card, your vote counts as two votes. This means that you can publicly reveal your card to count as two people for or against the nomination of a new leader.</t>
   </si>
   <si>
-    <t>Any player that card shares with you has all conditions removed.</t>
-  </si>
-  <si>
     <t>During the first round you must privately reveal your card to 2 players and verbally say to them: "You are my children."</t>
   </si>
   <si>
@@ -1294,9 +1282,6 @@
   </si>
   <si>
     <t>If you 1) are a room’s leader, 2) have selected hostages, 3) are between rounds, and 4) are waiting for the other room’s leader, you may yell "I’m a raging one! I’m a raging two! ..." continuing until either the leader shows up or you say "I’m a raging ten!" If you say "I’m a raging ten!", you win and all other players lose.</t>
-  </si>
-  <si>
-    <t>Once per game, you may publicly reveal your card and go to the opposing room. There, you are immune to all powers and conditions. In the other room, Rats cannot take part in votes and can not be a hostage. If you do not return to your original room before the end of the round, you lose.</t>
   </si>
   <si>
     <t>If the first player with whom you card share or color share wins, you win. If you fail to color share or card share with any other player, you lose.</t>
@@ -1521,19 +1506,7 @@
     <t>Thus with a kiss I die</t>
   </si>
   <si>
-    <t>Any player that card shares with you must trade in their character card for a Red Team card before the beginning of the next round and before revealing any part of their card to another player. (Your power has no effect on primary characters, backup characters, or non- Red/Blue Characters.)</t>
-  </si>
-  <si>
-    <t>Any player that card shares with you must trade in their character card for a Blue Team card before the beginning of the next round and before revealing any part of their card to another player. (Your power has no effect on primary characters, backup characters, or non- Red/Blue Characters.)</t>
-  </si>
-  <si>
     <t>I know what you're planning</t>
-  </si>
-  <si>
-    <t>You have the "trade" power: you may trade your card for the buried card. You may not peek at the buried card, only trade with it, and you assume all powers and the allegiance of your newly acquired card. The "trade" power can be used by the Trader once per round.</t>
-  </si>
-  <si>
-    <t>You have the "seductive" power: any player who card shares with you that has a color not of your own gains the "seduced" condition: "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
   </si>
   <si>
     <t>If, at the end of the game, you are in the same room as the President, but opposite room as the Bomber, you win. If you win, both the Red and Blue Team lose.</t>
@@ -1558,6 +1531,36 @@
   </si>
   <si>
     <t>You've fallen into my trap</t>
+  </si>
+  <si>
+    <t>You have the "trade" power: you may trade your card for the buried card. You may not peek at the buried card, only trade with it, and you assume all powers and the allegiance of your newly acquired card. The "trade" power can be used once per round, even if the buried card is another Trader card.</t>
+  </si>
+  <si>
+    <t>Any player who card shares with you that has a color not of your own gains the "seduced" condition: "seduced" players must do anything with their card that you ask of them and must vote for or against leaders as you do.</t>
+  </si>
+  <si>
+    <t>If you are in the same room as the President and Bomber at the end of the game, you win. If you win, both the Red Team and Blue Team lose.</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you must trade their character card for a Blue Team card before the beginning of the next round and before revealing any part of their card to another player (this power has no effect on primary characters, their backups, or characters not aligned with either Red or Blue).</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you must trade their character card for a Red Team card before the beginning of the next round and before revealing any part of their card to another player (this power has no effect on primary characters, their backups, or characters not aligned with either Red or Blue).</t>
+  </si>
+  <si>
+    <t>Any player that card shares with you has all of their conditions removed.</t>
+  </si>
+  <si>
+    <t>Where does it hurt?</t>
+  </si>
+  <si>
+    <t>Once per game, you may publicly reveal your card and go to the opposing room. There, you are immune to all powers and conditions. In the other room, you cannot take part in votes and cannot be a hostage. If you do not return to your original room before the end of the round, you lose.</t>
+  </si>
+  <si>
+    <t>Squeak Squeak</t>
+  </si>
+  <si>
+    <t>Work with me</t>
   </si>
 </sst>
 </file>
@@ -1588,30 +1591,23 @@
     </font>
     <font>
       <sz val="14"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF222222"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="14"/>
-      <color rgb="FF222222"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -1622,12 +1618,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2" tint="-0.499984740745262"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1650,7 +1640,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1658,14 +1648,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1983,9 +1972,9 @@
   <dimension ref="A1:WHQ209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="D106" sqref="D106"/>
+      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1999,25 +1988,25 @@
   <sheetData>
     <row r="1" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>162</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>164</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>166</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>30</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:15773" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -2028,13 +2017,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -2048,13 +2037,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2065,16 +2054,16 @@
         <v>0</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>335</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>336</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2085,13 +2074,13 @@
         <v>2</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -2111,13 +2100,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>486</v>
+        <v>481</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>487</v>
+        <v>482</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64959,13 +64948,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64979,13 +64968,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64999,13 +64988,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -65019,13 +65008,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -65039,13 +65028,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
@@ -65059,16 +65048,16 @@
         <v>43</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -65085,10 +65074,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -65105,10 +65094,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -65122,13 +65111,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>488</v>
+        <v>483</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>489</v>
+        <v>484</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -65142,13 +65131,13 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -65162,13 +65151,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -65182,13 +65171,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -65202,13 +65191,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>472</v>
+        <v>467</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -65225,13 +65214,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>473</v>
+        <v>468</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -65239,19 +65228,19 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G21" s="1">
         <v>10</v>
@@ -65268,10 +65257,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -65288,10 +65277,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -65305,13 +65294,13 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>471</v>
+        <v>466</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G24" s="1">
         <v>2</v>
@@ -65322,13 +65311,13 @@
         <v>14</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C25" s="1" t="s">
         <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
@@ -65345,13 +65334,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
@@ -65368,13 +65357,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
@@ -65391,13 +65380,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -65411,13 +65400,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -65428,13 +65417,13 @@
         <v>48</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>154</v>
@@ -65451,13 +65440,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="D31" s="5" t="s">
-        <v>497</v>
+        <v>234</v>
+      </c>
+      <c r="D31" s="10" t="s">
+        <v>503</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -65474,10 +65463,10 @@
         <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -65494,10 +65483,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65508,16 +65497,16 @@
         <v>18</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G34" s="1">
         <v>1</v>
@@ -65525,19 +65514,19 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65545,19 +65534,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65565,19 +65554,19 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>422</v>
+        <v>417</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -65585,19 +65574,19 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -65605,19 +65594,19 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -65631,13 +65620,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>157</v>
+        <v>509</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65651,13 +65640,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>157</v>
+        <v>509</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65671,13 +65660,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65691,13 +65680,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65711,13 +65700,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65731,13 +65720,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65748,16 +65737,16 @@
         <v>54</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E46" s="1" t="s">
         <v>358</v>
-      </c>
-      <c r="E46" s="1" t="s">
-        <v>359</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65771,13 +65760,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65791,13 +65780,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65811,13 +65800,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65828,16 +65817,16 @@
         <v>20</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>38</v>
@@ -65854,13 +65843,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -65874,13 +65863,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65894,13 +65883,13 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>485</v>
+        <v>480</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65914,13 +65903,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -65934,13 +65923,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65954,13 +65943,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65974,13 +65963,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65991,16 +65980,16 @@
         <v>56</v>
       </c>
       <c r="B58" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C58" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="C58" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="D58" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -66014,13 +66003,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>482</v>
+        <v>477</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>483</v>
+        <v>478</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -66034,13 +66023,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -66054,13 +66043,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -66070,17 +66059,17 @@
       <c r="A62" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B62" s="5" t="s">
+      <c r="B62" s="10" t="s">
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>484</v>
+        <v>479</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -66094,13 +66083,13 @@
         <v>5</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>459</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>340</v>
+        <v>454</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>339</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -66114,13 +66103,13 @@
         <v>6</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -66134,13 +66123,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -66154,13 +66143,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D66" s="5" t="s">
-        <v>492</v>
+        <v>252</v>
+      </c>
+      <c r="D66" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -66174,13 +66163,13 @@
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>253</v>
-      </c>
-      <c r="D67" s="5" t="s">
-        <v>492</v>
+        <v>252</v>
+      </c>
+      <c r="D67" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -66194,13 +66183,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D68" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="E68" s="5" t="s">
-        <v>493</v>
+        <v>159</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>488</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -66214,13 +66203,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>490</v>
+        <v>485</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -66231,16 +66220,16 @@
         <v>67</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -66254,13 +66243,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -66271,16 +66260,16 @@
         <v>25</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C72" s="1" t="s">
         <v>29</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -66294,13 +66283,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -66314,13 +66303,13 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -66331,16 +66320,16 @@
         <v>27</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C75" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>41</v>
@@ -66357,13 +66346,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -66374,16 +66363,16 @@
         <v>71</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G77" s="1">
         <v>3</v>
@@ -66397,13 +66386,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
@@ -66417,13 +66406,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -66437,13 +66426,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -66457,13 +66446,13 @@
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -66471,19 +66460,19 @@
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C82" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>204</v>
       </c>
-      <c r="B82" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C82" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>205</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G82" s="1">
         <v>1</v>
@@ -66494,36 +66483,36 @@
         <v>74</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>386</v>
+        <v>334</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>385</v>
+        <v>502</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="11" t="s">
         <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="G84" s="1">
         <v>1</v>
@@ -66537,13 +66526,13 @@
         <v>5</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -66557,13 +66546,13 @@
         <v>6</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -66577,13 +66566,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -66597,32 +66586,32 @@
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A89" s="11" t="s">
-        <v>505</v>
-      </c>
-      <c r="B89" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C89" s="12"/>
-      <c r="D89" s="12" t="s">
-        <v>504</v>
-      </c>
-      <c r="E89" s="12"/>
+      <c r="A89" s="8" t="s">
+        <v>496</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9" t="s">
+        <v>495</v>
+      </c>
+      <c r="E89" s="9"/>
       <c r="G89" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -66633,33 +66622,33 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="11" t="s">
         <v>78</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66673,13 +66662,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E92" s="1" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66693,13 +66682,13 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66710,16 +66699,16 @@
         <v>80</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="G94" s="1">
         <v>1</v>
@@ -66733,13 +66722,13 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66753,13 +66742,13 @@
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66770,16 +66759,16 @@
         <v>82</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66790,16 +66779,16 @@
         <v>83</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G98" s="1">
         <v>1</v>
@@ -66813,13 +66802,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66833,13 +66822,13 @@
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66853,13 +66842,13 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66873,13 +66862,13 @@
         <v>155</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="G102" s="1">
         <v>1</v>
@@ -66893,13 +66882,13 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66913,13 +66902,13 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66933,13 +66922,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66953,13 +66942,13 @@
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66970,16 +66959,16 @@
         <v>89</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E107" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G107" s="1">
         <v>1</v>
@@ -66987,19 +66976,19 @@
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -67013,49 +67002,49 @@
         <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
-        <v>503</v>
-      </c>
-      <c r="B110" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12" t="s">
-        <v>506</v>
-      </c>
-      <c r="E110" s="12"/>
+      <c r="A110" s="8" t="s">
+        <v>494</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
+        <v>497</v>
+      </c>
+      <c r="E110" s="9"/>
       <c r="G110" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>503</v>
+        <v>494</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>508</v>
+        <v>499</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>507</v>
+        <v>498</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -67069,13 +67058,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -67089,47 +67078,53 @@
         <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A114" s="6" t="s">
+      <c r="A114" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C114" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="D114" s="1" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A115" s="6" t="s">
+      <c r="A115" s="5" t="s">
         <v>92</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C115" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="D115" s="1" t="s">
-        <v>404</v>
+        <v>505</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -67140,16 +67135,16 @@
         <v>93</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G116" s="1">
         <v>1</v>
@@ -67163,13 +67158,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -67183,13 +67178,13 @@
         <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -67200,13 +67195,13 @@
         <v>95</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>28</v>
@@ -67220,16 +67215,16 @@
         <v>96</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -67240,16 +67235,16 @@
         <v>31</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E121" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G121" s="1">
         <v>1</v>
@@ -67260,16 +67255,16 @@
         <v>97</v>
       </c>
       <c r="B122" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="E122" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -67283,13 +67278,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -67303,13 +67298,13 @@
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -67323,13 +67318,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -67343,13 +67338,13 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -67363,13 +67358,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -67383,13 +67378,13 @@
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -67400,16 +67395,16 @@
         <v>101</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -67423,13 +67418,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -67443,13 +67438,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -67463,13 +67458,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -67483,13 +67478,13 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -67500,16 +67495,16 @@
         <v>105</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -67523,13 +67518,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -67543,13 +67538,13 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -67563,13 +67558,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -67583,13 +67578,13 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -67603,13 +67598,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -67623,13 +67618,13 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -67642,17 +67637,17 @@
       <c r="B141" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C141" s="5" t="s">
-        <v>494</v>
+      <c r="C141" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G141" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -67663,16 +67658,16 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G142" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -67680,16 +67675,16 @@
         <v>111</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -67703,13 +67698,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -67723,13 +67718,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -67740,16 +67735,16 @@
         <v>41</v>
       </c>
       <c r="B146" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
       <c r="E146" s="1" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G146" s="1">
         <v>1</v>
@@ -67763,13 +67758,13 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67783,13 +67778,13 @@
         <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67803,13 +67798,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67820,16 +67815,16 @@
         <v>115</v>
       </c>
       <c r="B150" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67843,13 +67838,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67863,47 +67858,53 @@
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A153" s="6" t="s">
+      <c r="A153" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B153" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="C153" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="D153" s="1" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="154" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A154" s="6" t="s">
+      <c r="A154" s="5" t="s">
         <v>117</v>
       </c>
       <c r="B154" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="C154" s="1" t="s">
+        <v>508</v>
+      </c>
       <c r="D154" s="1" t="s">
-        <v>421</v>
+        <v>507</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -67917,13 +67918,13 @@
         <v>6</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67937,13 +67938,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67957,13 +67958,13 @@
         <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G157" s="1">
         <v>10</v>
@@ -67974,16 +67975,16 @@
         <v>123</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E158" s="1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="G158" s="1">
         <v>1</v>
@@ -67994,16 +67995,16 @@
         <v>120</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>423</v>
+        <v>418</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -68014,16 +68015,16 @@
         <v>121</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E160" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G160" s="1">
         <v>1</v>
@@ -68034,16 +68035,16 @@
         <v>122</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C161" s="5" t="s">
-        <v>495</v>
+        <v>167</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>490</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E161" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G161" s="1">
         <v>1</v>
@@ -68054,16 +68055,16 @@
         <v>124</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -68077,13 +68078,13 @@
         <v>5</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -68097,13 +68098,13 @@
         <v>6</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -68117,13 +68118,13 @@
         <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -68137,13 +68138,13 @@
         <v>6</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -68157,13 +68158,13 @@
         <v>5</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -68177,13 +68178,13 @@
         <v>6</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -68197,13 +68198,13 @@
         <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -68217,13 +68218,13 @@
         <v>6</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>428</v>
+        <v>423</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -68234,16 +68235,16 @@
         <v>125</v>
       </c>
       <c r="B171" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>424</v>
+        <v>419</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -68257,13 +68258,13 @@
         <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="D172" s="5" t="s">
-        <v>496</v>
+        <v>255</v>
+      </c>
+      <c r="D172" s="10" t="s">
+        <v>504</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -68277,12 +68278,12 @@
         <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>188</v>
-      </c>
-      <c r="E173" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="E173" s="1" t="s">
         <v>340</v>
       </c>
       <c r="G173" s="1">
@@ -68297,13 +68298,13 @@
         <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>189</v>
-      </c>
-      <c r="E174" s="5" t="s">
-        <v>341</v>
+        <v>188</v>
+      </c>
+      <c r="E174" s="1" t="s">
+        <v>339</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -68314,16 +68315,16 @@
         <v>132</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -68334,16 +68335,16 @@
         <v>133</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -68354,16 +68355,16 @@
         <v>134</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
@@ -68374,16 +68375,16 @@
         <v>135</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="C178" s="5" t="s">
-        <v>498</v>
+        <v>167</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -68391,19 +68392,19 @@
     </row>
     <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -68411,19 +68412,19 @@
     </row>
     <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -68437,7 +68438,7 @@
         <v>46</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -68451,13 +68452,13 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -68471,13 +68472,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -68491,13 +68492,13 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -68511,13 +68512,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>438</v>
+        <v>433</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
@@ -68531,33 +68532,33 @@
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
+      <c r="A187" s="5" t="s">
         <v>139</v>
       </c>
       <c r="B187" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D187" s="5" t="s">
-        <v>499</v>
+        <v>326</v>
+      </c>
+      <c r="D187" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -68571,33 +68572,33 @@
         <v>6</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="D188" s="5" t="s">
-        <v>499</v>
+        <v>326</v>
+      </c>
+      <c r="D188" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
-      <c r="A189" s="9" t="s">
-        <v>377</v>
+      <c r="A189" s="7" t="s">
+        <v>376</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -68605,19 +68606,19 @@
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -68628,16 +68629,16 @@
         <v>140</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -68651,13 +68652,13 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -68671,13 +68672,13 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -68691,13 +68692,13 @@
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -68711,13 +68712,13 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D195" s="5" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="D195" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -68731,13 +68732,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="D196" s="5" t="s">
-        <v>500</v>
+        <v>263</v>
+      </c>
+      <c r="D196" s="10" t="s">
+        <v>501</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -68748,16 +68749,16 @@
         <v>144</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -68768,16 +68769,16 @@
         <v>145</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>279</v>
-      </c>
-      <c r="D198" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E198" s="5" t="s">
-        <v>501</v>
+        <v>278</v>
+      </c>
+      <c r="D198" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E198" s="10" t="s">
+        <v>492</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -68791,13 +68792,13 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
@@ -68811,13 +68812,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -68831,13 +68832,13 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -68851,13 +68852,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G202" s="1">
         <v>1</v>
@@ -68868,16 +68869,16 @@
         <v>148</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="G203" s="1">
         <v>1</v>
@@ -68891,13 +68892,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="G204" s="1">
         <v>1</v>
@@ -68905,19 +68906,19 @@
     </row>
     <row r="205" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="1">
@@ -68926,19 +68927,19 @@
     </row>
     <row r="206" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="1">
@@ -68950,16 +68951,16 @@
         <v>150</v>
       </c>
       <c r="B207" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="G207" s="1">
         <v>1</v>
@@ -68968,19 +68969,19 @@
     </row>
     <row r="208" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>155</v>
       </c>
-      <c r="C208" s="8" t="s">
-        <v>491</v>
-      </c>
-      <c r="D208" s="5" t="s">
-        <v>335</v>
-      </c>
-      <c r="E208" s="5" t="s">
-        <v>502</v>
+      <c r="C208" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D208" s="10" t="s">
+        <v>334</v>
+      </c>
+      <c r="E208" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="F208"/>
       <c r="G208" s="1">
@@ -68989,19 +68990,19 @@
     </row>
     <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1">

--- a/data.xlsx
+++ b/data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashleylucouch/Documents/TRAAB_Cards/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/matthewmccaskill/Documents/TRAAB_Cards/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9087183B-0687-3A4D-93CE-D7222F6F0C9C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B788B58C-9546-2D42-A200-75B2E9E0421D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19200" xr2:uid="{D5C866A4-9C33-EB4E-9D4B-68221F48654F}"/>
   </bookViews>
@@ -592,12 +592,6 @@
   </si>
   <si>
     <t>If you are in the same room as Juliet and the Bomber at the end of the game, you win.</t>
-  </si>
-  <si>
-    <t>You are a member of the Red Team, your goal is aligned with that of the Red Team.</t>
-  </si>
-  <si>
-    <t>You are a member of the Blue Team, your goal is aligned with that of the Blue Team.</t>
   </si>
   <si>
     <t>If another player color shares with you, you win and everyone else loses immediately.</t>
@@ -1562,6 +1556,12 @@
   <si>
     <t>Work with me</t>
   </si>
+  <si>
+    <t>You are a member of the Red Team; your goal is aligned with that of the Red Team.</t>
+  </si>
+  <si>
+    <t>You are a member of the Blue Team; your goal is aligned with that of the Blue Team.</t>
+  </si>
 </sst>
 </file>
 
@@ -1972,9 +1972,9 @@
   <dimension ref="A1:WHQ209"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A123" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A148" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="C1" sqref="C1"/>
-      <selection pane="bottomLeft" activeCell="G141" sqref="G141"/>
+      <selection pane="bottomLeft" activeCell="D170" sqref="D170"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2017,13 +2017,13 @@
         <v>5</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G2" s="1">
         <v>1</v>
@@ -2037,13 +2037,13 @@
         <v>6</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>33</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G3" s="1">
         <v>1</v>
@@ -2057,13 +2057,13 @@
         <v>167</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G4" s="1">
         <v>1</v>
@@ -2077,10 +2077,10 @@
         <v>167</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E5" s="1" t="s">
         <v>1</v>
@@ -2100,13 +2100,13 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="G6" s="1">
         <v>1</v>
@@ -64948,13 +64948,13 @@
         <v>5</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G7" s="1">
         <v>1</v>
@@ -64968,13 +64968,13 @@
         <v>6</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G8" s="1">
         <v>1</v>
@@ -64988,13 +64988,13 @@
         <v>5</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G9" s="1">
         <v>1</v>
@@ -65008,13 +65008,13 @@
         <v>6</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G10" s="1">
         <v>1</v>
@@ -65028,13 +65028,13 @@
         <v>8</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>32</v>
@@ -65051,13 +65051,13 @@
         <v>167</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G12" s="1">
         <v>1</v>
@@ -65074,10 +65074,10 @@
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G13" s="1">
         <v>1</v>
@@ -65094,10 +65094,10 @@
         <v>34</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G14" s="1">
         <v>1</v>
@@ -65111,13 +65111,13 @@
         <v>5</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="G15" s="1">
         <v>1</v>
@@ -65131,13 +65131,13 @@
         <v>155</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G16" s="1">
         <v>1</v>
@@ -65151,13 +65151,13 @@
         <v>5</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G17" s="1">
         <v>1</v>
@@ -65171,13 +65171,13 @@
         <v>6</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G18" s="1">
         <v>1</v>
@@ -65191,13 +65191,13 @@
         <v>5</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="F19" s="1" t="s">
         <v>39</v>
@@ -65214,13 +65214,13 @@
         <v>5</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="G20" s="1">
         <v>1</v>
@@ -65228,22 +65228,22 @@
     </row>
     <row r="21" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>335</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="E21" s="1" t="s">
         <v>337</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G21" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -65257,10 +65257,10 @@
         <v>35</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G22" s="1">
         <v>1</v>
@@ -65277,10 +65277,10 @@
         <v>35</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G23" s="1">
         <v>1</v>
@@ -65294,16 +65294,16 @@
         <v>6</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G24" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -65317,7 +65317,7 @@
         <v>152</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>36</v>
@@ -65334,13 +65334,13 @@
         <v>5</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>37</v>
@@ -65357,13 +65357,13 @@
         <v>6</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>37</v>
@@ -65380,13 +65380,13 @@
         <v>5</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G28" s="1">
         <v>1</v>
@@ -65400,13 +65400,13 @@
         <v>6</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>153</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G29" s="1">
         <v>1</v>
@@ -65420,10 +65420,10 @@
         <v>167</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>154</v>
@@ -65440,13 +65440,13 @@
         <v>5</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G31" s="1">
         <v>1</v>
@@ -65463,10 +65463,10 @@
         <v>156</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G32" s="1">
         <v>1</v>
@@ -65483,10 +65483,10 @@
         <v>156</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G33" s="1">
         <v>1</v>
@@ -65500,10 +65500,10 @@
         <v>167</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>172</v>
@@ -65514,19 +65514,19 @@
     </row>
     <row r="35" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G35" s="1">
         <v>1</v>
@@ -65534,19 +65534,19 @@
     </row>
     <row r="36" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G36" s="1">
         <v>1</v>
@@ -65554,19 +65554,19 @@
     </row>
     <row r="37" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="G37" s="1">
         <v>1</v>
@@ -65574,7 +65574,7 @@
     </row>
     <row r="38" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>5</v>
@@ -65583,10 +65583,10 @@
         <v>157</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G38" s="1">
         <v>1</v>
@@ -65594,7 +65594,7 @@
     </row>
     <row r="39" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>6</v>
@@ -65603,10 +65603,10 @@
         <v>157</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G39" s="1">
         <v>1</v>
@@ -65620,13 +65620,13 @@
         <v>5</v>
       </c>
       <c r="C40" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G40" s="1">
         <v>1</v>
@@ -65640,13 +65640,13 @@
         <v>6</v>
       </c>
       <c r="C41" s="10" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G41" s="1">
         <v>1</v>
@@ -65660,13 +65660,13 @@
         <v>5</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E42" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G42" s="1">
         <v>1</v>
@@ -65680,13 +65680,13 @@
         <v>6</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G43" s="1">
         <v>1</v>
@@ -65700,13 +65700,13 @@
         <v>5</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G44" s="1">
         <v>1</v>
@@ -65720,13 +65720,13 @@
         <v>6</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G45" s="1">
         <v>1</v>
@@ -65743,10 +65743,10 @@
         <v>158</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="G46" s="1">
         <v>1</v>
@@ -65760,13 +65760,13 @@
         <v>6</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G47" s="1">
         <v>1</v>
@@ -65780,13 +65780,13 @@
         <v>5</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G48" s="1">
         <v>1</v>
@@ -65800,13 +65800,13 @@
         <v>6</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G49" s="1">
         <v>1</v>
@@ -65820,13 +65820,13 @@
         <v>167</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="F50" s="1" t="s">
         <v>38</v>
@@ -65843,13 +65843,13 @@
         <v>5</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G51" s="1">
         <v>1</v>
@@ -65863,13 +65863,13 @@
         <v>6</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G52" s="1">
         <v>1</v>
@@ -65883,13 +65883,13 @@
         <v>5</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="D53" s="1" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="G53" s="1">
         <v>1</v>
@@ -65903,13 +65903,13 @@
         <v>6</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E54" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G54" s="1">
         <v>1</v>
@@ -65923,13 +65923,13 @@
         <v>6</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G55" s="1">
         <v>1</v>
@@ -65943,13 +65943,13 @@
         <v>6</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="G56" s="1">
         <v>1</v>
@@ -65963,13 +65963,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G57" s="1">
         <v>1</v>
@@ -65986,10 +65986,10 @@
         <v>169</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="G58" s="1">
         <v>1</v>
@@ -66003,13 +66003,13 @@
         <v>6</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="G59" s="1">
         <v>1</v>
@@ -66023,13 +66023,13 @@
         <v>5</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D60" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E60" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G60" s="1">
         <v>1</v>
@@ -66043,13 +66043,13 @@
         <v>6</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G61" s="1">
         <v>1</v>
@@ -66063,13 +66063,13 @@
         <v>6</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="G62" s="1">
         <v>1</v>
@@ -66086,10 +66086,10 @@
         <v>170</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G63" s="1">
         <v>1</v>
@@ -66106,10 +66106,10 @@
         <v>170</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G64" s="1">
         <v>1</v>
@@ -66123,13 +66123,13 @@
         <v>5</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G65" s="1">
         <v>1</v>
@@ -66143,13 +66143,13 @@
         <v>5</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D66" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G66" s="1">
         <v>1</v>
@@ -66163,13 +66163,13 @@
         <v>6</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="D67" s="10" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G67" s="1">
         <v>1</v>
@@ -66183,13 +66183,13 @@
         <v>6</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D68" s="1" t="s">
         <v>159</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="G68" s="1">
         <v>1</v>
@@ -66203,13 +66203,13 @@
         <v>5</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="D69" s="1" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="G69" s="1">
         <v>1</v>
@@ -66223,13 +66223,13 @@
         <v>167</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="G70" s="1">
         <v>1</v>
@@ -66243,13 +66243,13 @@
         <v>5</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G71" s="1">
         <v>1</v>
@@ -66266,10 +66266,10 @@
         <v>29</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="G72" s="1">
         <v>1</v>
@@ -66283,13 +66283,13 @@
         <v>5</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G73" s="1">
         <v>1</v>
@@ -66303,13 +66303,13 @@
         <v>6</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G74" s="1">
         <v>1</v>
@@ -66326,10 +66326,10 @@
         <v>40</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="F75" s="1" t="s">
         <v>41</v>
@@ -66346,13 +66346,13 @@
         <v>6</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G76" s="1">
         <v>1</v>
@@ -66366,16 +66366,16 @@
         <v>167</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="E77" s="3" t="s">
         <v>171</v>
       </c>
       <c r="G77" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -66386,13 +66386,13 @@
         <v>5</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E78" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G78" s="1">
         <v>1</v>
@@ -66406,13 +66406,13 @@
         <v>6</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G79" s="1">
         <v>1</v>
@@ -66426,13 +66426,13 @@
         <v>5</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G80" s="1">
         <v>1</v>
@@ -66446,13 +66446,13 @@
         <v>6</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="D81" s="1" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E81" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G81" s="1">
         <v>1</v>
@@ -66460,16 +66460,16 @@
     </row>
     <row r="82" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B82" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="D82" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>172</v>
@@ -66486,13 +66486,13 @@
         <v>167</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="G83" s="1">
         <v>1</v>
@@ -66506,10 +66506,10 @@
         <v>167</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D84" s="1" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>172</v>
@@ -66529,10 +66529,10 @@
         <v>173</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G85" s="1">
         <v>1</v>
@@ -66549,10 +66549,10 @@
         <v>173</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G86" s="1">
         <v>1</v>
@@ -66566,13 +66566,13 @@
         <v>5</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G87" s="1">
         <v>1</v>
@@ -66586,13 +66586,13 @@
         <v>6</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G88" s="1">
         <v>1</v>
@@ -66600,14 +66600,14 @@
     </row>
     <row r="89" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B89" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C89" s="9"/>
       <c r="D89" s="9" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="E89" s="9"/>
       <c r="G89" s="1">
@@ -66622,13 +66622,13 @@
         <v>5</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E90" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G90" s="1">
         <v>1</v>
@@ -66642,13 +66642,13 @@
         <v>6</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G91" s="1">
         <v>1</v>
@@ -66662,13 +66662,13 @@
         <v>5</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D92" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E92" s="1" t="s">
         <v>390</v>
-      </c>
-      <c r="E92" s="1" t="s">
-        <v>392</v>
       </c>
       <c r="G92" s="1">
         <v>1</v>
@@ -66682,13 +66682,13 @@
         <v>6</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="E93" s="1" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="G93" s="1">
         <v>1</v>
@@ -66702,10 +66702,10 @@
         <v>167</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E94" s="1" t="s">
         <v>174</v>
@@ -66722,13 +66722,13 @@
         <v>5</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G95" s="1">
         <v>1</v>
@@ -66742,13 +66742,13 @@
         <v>6</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G96" s="1">
         <v>1</v>
@@ -66762,13 +66762,13 @@
         <v>167</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="E97" s="1" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="G97" s="1">
         <v>1</v>
@@ -66782,10 +66782,10 @@
         <v>167</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E98" s="1" t="s">
         <v>175</v>
@@ -66802,13 +66802,13 @@
         <v>5</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G99" s="1">
         <v>1</v>
@@ -66822,13 +66822,13 @@
         <v>6</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G100" s="1">
         <v>1</v>
@@ -66842,13 +66842,13 @@
         <v>5</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="G101" s="1">
         <v>1</v>
@@ -66862,10 +66862,10 @@
         <v>155</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="E102" s="1" t="s">
         <v>176</v>
@@ -66882,13 +66882,13 @@
         <v>5</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G103" s="1">
         <v>1</v>
@@ -66902,13 +66902,13 @@
         <v>6</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G104" s="1">
         <v>1</v>
@@ -66922,13 +66922,13 @@
         <v>5</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G105" s="1">
         <v>1</v>
@@ -66942,13 +66942,13 @@
         <v>6</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G106" s="1">
         <v>1</v>
@@ -66962,10 +66962,10 @@
         <v>167</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>177</v>
@@ -66976,19 +66976,19 @@
     </row>
     <row r="108" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="D108" s="1" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="E108" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G108" s="1">
         <v>1</v>
@@ -67002,13 +67002,13 @@
         <v>6</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="D109" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="E109" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G109" s="1">
         <v>1</v>
@@ -67016,14 +67016,14 @@
     </row>
     <row r="110" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B110" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C110" s="9"/>
       <c r="D110" s="9" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="E110" s="9"/>
       <c r="G110" s="1">
@@ -67032,19 +67032,19 @@
     </row>
     <row r="111" spans="1:7" s="1" customFormat="1" ht="40" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B111" s="1" t="s">
         <v>167</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="G111" s="1">
         <v>1</v>
@@ -67058,13 +67058,13 @@
         <v>5</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D112" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E112" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G112" s="1">
         <v>1</v>
@@ -67078,13 +67078,13 @@
         <v>6</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G113" s="1">
         <v>1</v>
@@ -67098,13 +67098,13 @@
         <v>5</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E114" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G114" s="1">
         <v>1</v>
@@ -67118,13 +67118,13 @@
         <v>6</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="D115" s="1" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="E115" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G115" s="1">
         <v>1</v>
@@ -67138,10 +67138,10 @@
         <v>167</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E116" s="1" t="s">
         <v>178</v>
@@ -67158,13 +67158,13 @@
         <v>5</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D117" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G117" s="1">
         <v>1</v>
@@ -67178,13 +67178,13 @@
         <v>6</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D118" s="1" t="s">
         <v>179</v>
       </c>
       <c r="E118" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G118" s="1">
         <v>1</v>
@@ -67198,10 +67198,10 @@
         <v>167</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E119" s="1" t="s">
         <v>28</v>
@@ -67218,13 +67218,13 @@
         <v>167</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E120" s="1" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="G120" s="1">
         <v>1</v>
@@ -67238,10 +67238,10 @@
         <v>167</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E121" s="1" t="s">
         <v>180</v>
@@ -67258,13 +67258,13 @@
         <v>167</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="D122" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="E122" s="1" t="s">
         <v>401</v>
-      </c>
-      <c r="E122" s="1" t="s">
-        <v>403</v>
       </c>
       <c r="G122" s="1">
         <v>1</v>
@@ -67278,13 +67278,13 @@
         <v>5</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E123" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G123" s="1">
         <v>1</v>
@@ -67298,13 +67298,13 @@
         <v>6</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="E124" s="2" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G124" s="1">
         <v>1</v>
@@ -67318,13 +67318,13 @@
         <v>5</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E125" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G125" s="1">
         <v>1</v>
@@ -67338,13 +67338,13 @@
         <v>6</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="E126" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G126" s="1">
         <v>1</v>
@@ -67358,13 +67358,13 @@
         <v>5</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E127" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G127" s="1">
         <v>1</v>
@@ -67378,13 +67378,13 @@
         <v>6</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="E128" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G128" s="1">
         <v>1</v>
@@ -67398,13 +67398,13 @@
         <v>167</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="E129" s="1" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="G129" s="1">
         <v>1</v>
@@ -67418,13 +67418,13 @@
         <v>5</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E130" s="2" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="G130" s="1">
         <v>1</v>
@@ -67438,13 +67438,13 @@
         <v>5</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="E131" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G131" s="1">
         <v>1</v>
@@ -67458,13 +67458,13 @@
         <v>5</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D132" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E132" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G132" s="1">
         <v>1</v>
@@ -67478,13 +67478,13 @@
         <v>6</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D133" s="1" t="s">
         <v>181</v>
       </c>
       <c r="E133" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G133" s="1">
         <v>1</v>
@@ -67498,13 +67498,13 @@
         <v>167</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="G134" s="1">
         <v>1</v>
@@ -67518,13 +67518,13 @@
         <v>5</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E135" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G135" s="1">
         <v>1</v>
@@ -67538,13 +67538,13 @@
         <v>6</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="E136" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G136" s="1">
         <v>1</v>
@@ -67558,13 +67558,13 @@
         <v>5</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E137" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G137" s="1">
         <v>1</v>
@@ -67578,13 +67578,13 @@
         <v>6</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="E138" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G138" s="1">
         <v>1</v>
@@ -67598,13 +67598,13 @@
         <v>5</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G139" s="1">
         <v>1</v>
@@ -67618,13 +67618,13 @@
         <v>6</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G140" s="1">
         <v>1</v>
@@ -67638,16 +67638,16 @@
         <v>5</v>
       </c>
       <c r="C141" s="10" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E141" s="1" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="G141" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -67658,13 +67658,13 @@
         <v>5</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E142" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="G142" s="1">
         <v>1</v>
@@ -67678,13 +67678,13 @@
         <v>167</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="D143" s="1" t="s">
         <v>182</v>
       </c>
       <c r="E143" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G143" s="1">
         <v>1</v>
@@ -67698,13 +67698,13 @@
         <v>5</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E144" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G144" s="1">
         <v>1</v>
@@ -67718,13 +67718,13 @@
         <v>6</v>
       </c>
       <c r="C145" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="E145" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G145" s="1">
         <v>1</v>
@@ -67738,10 +67738,10 @@
         <v>167</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="E146" s="1" t="s">
         <v>183</v>
@@ -67758,13 +67758,13 @@
         <v>5</v>
       </c>
       <c r="C147" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E147" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G147" s="1">
         <v>1</v>
@@ -67778,13 +67778,13 @@
         <v>6</v>
       </c>
       <c r="C148" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="E148" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G148" s="1">
         <v>1</v>
@@ -67798,13 +67798,13 @@
         <v>6</v>
       </c>
       <c r="C149" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="E149" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G149" s="1">
         <v>1</v>
@@ -67818,13 +67818,13 @@
         <v>167</v>
       </c>
       <c r="C150" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E150" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G150" s="1">
         <v>1</v>
@@ -67838,13 +67838,13 @@
         <v>5</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E151" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G151" s="1">
         <v>1</v>
@@ -67858,13 +67858,13 @@
         <v>6</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="E152" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G152" s="1">
         <v>1</v>
@@ -67878,13 +67878,13 @@
         <v>5</v>
       </c>
       <c r="C153" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E153" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G153" s="1">
         <v>1</v>
@@ -67898,13 +67898,13 @@
         <v>6</v>
       </c>
       <c r="C154" s="1" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="E154" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G154" s="1">
         <v>1</v>
@@ -67918,13 +67918,13 @@
         <v>6</v>
       </c>
       <c r="C155" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="D155" s="2" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="E155" s="2" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="G155" s="1">
         <v>1</v>
@@ -67938,13 +67938,13 @@
         <v>6</v>
       </c>
       <c r="C156" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="E156" s="2" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="G156" s="1">
         <v>1</v>
@@ -67958,16 +67958,16 @@
         <v>6</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E157" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G157" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="158" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
@@ -67978,10 +67978,10 @@
         <v>167</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E158" s="1" t="s">
         <v>184</v>
@@ -67998,13 +67998,13 @@
         <v>167</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E159" s="2" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="G159" s="1">
         <v>1</v>
@@ -68018,10 +68018,10 @@
         <v>167</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E160" s="1" t="s">
         <v>185</v>
@@ -68038,10 +68038,10 @@
         <v>167</v>
       </c>
       <c r="C161" s="10" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E161" s="1" t="s">
         <v>186</v>
@@ -68058,13 +68058,13 @@
         <v>167</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="G162" s="1">
         <v>1</v>
@@ -68078,13 +68078,13 @@
         <v>5</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E163" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G163" s="1">
         <v>1</v>
@@ -68098,13 +68098,13 @@
         <v>6</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E164" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G164" s="1">
         <v>1</v>
@@ -68118,13 +68118,13 @@
         <v>5</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E165" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G165" s="1">
         <v>1</v>
@@ -68138,13 +68138,13 @@
         <v>6</v>
       </c>
       <c r="C166" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="E166" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G166" s="1">
         <v>1</v>
@@ -68158,13 +68158,13 @@
         <v>5</v>
       </c>
       <c r="C167" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E167" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G167" s="1">
         <v>1</v>
@@ -68178,13 +68178,13 @@
         <v>6</v>
       </c>
       <c r="C168" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="E168" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G168" s="1">
         <v>1</v>
@@ -68198,13 +68198,13 @@
         <v>5</v>
       </c>
       <c r="C169" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E169" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G169" s="1">
         <v>1</v>
@@ -68218,13 +68218,13 @@
         <v>6</v>
       </c>
       <c r="C170" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E170" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G170" s="1">
         <v>1</v>
@@ -68238,13 +68238,13 @@
         <v>167</v>
       </c>
       <c r="C171" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E171" s="1" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="G171" s="1">
         <v>1</v>
@@ -68258,13 +68258,13 @@
         <v>6</v>
       </c>
       <c r="C172" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D172" s="10" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="E172" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G172" s="1">
         <v>1</v>
@@ -68278,13 +68278,13 @@
         <v>5</v>
       </c>
       <c r="C173" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>187</v>
+        <v>508</v>
       </c>
       <c r="E173" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G173" s="1">
         <v>1</v>
@@ -68298,13 +68298,13 @@
         <v>6</v>
       </c>
       <c r="C174" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>188</v>
+        <v>509</v>
       </c>
       <c r="E174" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G174" s="1">
         <v>1</v>
@@ -68318,13 +68318,13 @@
         <v>167</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E175" s="1" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="G175" s="1">
         <v>1</v>
@@ -68338,13 +68338,13 @@
         <v>167</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E176" s="1" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="G176" s="1">
         <v>1</v>
@@ -68358,13 +68358,13 @@
         <v>167</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E177" s="1" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="G177" s="1">
         <v>1</v>
@@ -68378,13 +68378,13 @@
         <v>167</v>
       </c>
       <c r="C178" s="10" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E178" s="1" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="G178" s="1">
         <v>1</v>
@@ -68392,19 +68392,19 @@
     </row>
     <row r="179" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B179" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C179" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E179" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G179" s="1">
         <v>1</v>
@@ -68412,19 +68412,19 @@
     </row>
     <row r="180" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B180" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C180" s="1" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E180" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G180" s="1">
         <v>1</v>
@@ -68438,7 +68438,7 @@
         <v>46</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G181" s="1">
         <v>1</v>
@@ -68452,13 +68452,13 @@
         <v>5</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E182" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G182" s="1">
         <v>1</v>
@@ -68472,13 +68472,13 @@
         <v>6</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E183" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G183" s="1">
         <v>1</v>
@@ -68492,13 +68492,13 @@
         <v>5</v>
       </c>
       <c r="C184" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E184" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G184" s="1">
         <v>1</v>
@@ -68512,13 +68512,13 @@
         <v>6</v>
       </c>
       <c r="C185" s="1" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G185" s="1">
         <v>1</v>
@@ -68532,13 +68532,13 @@
         <v>6</v>
       </c>
       <c r="C186" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="E186" s="1" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="G186" s="1">
         <v>1</v>
@@ -68552,13 +68552,13 @@
         <v>5</v>
       </c>
       <c r="C187" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D187" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E187" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G187" s="1">
         <v>1</v>
@@ -68572,13 +68572,13 @@
         <v>6</v>
       </c>
       <c r="C188" s="4" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="D188" s="10" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G188" s="1">
         <v>1</v>
@@ -68586,19 +68586,19 @@
     </row>
     <row r="189" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A189" s="7" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B189" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D189" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G189" s="1">
         <v>1</v>
@@ -68606,19 +68606,19 @@
     </row>
     <row r="190" spans="1:7" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B190" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D190" s="1" t="s">
         <v>151</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G190" s="1">
         <v>1</v>
@@ -68632,13 +68632,13 @@
         <v>167</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="G191" s="1">
         <v>1</v>
@@ -68652,13 +68652,13 @@
         <v>5</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G192" s="1">
         <v>1</v>
@@ -68672,13 +68672,13 @@
         <v>5</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G193" s="1">
         <v>1</v>
@@ -68692,13 +68692,13 @@
         <v>6</v>
       </c>
       <c r="C194" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="E194" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G194" s="1">
         <v>1</v>
@@ -68712,13 +68712,13 @@
         <v>5</v>
       </c>
       <c r="C195" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D195" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E195" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G195" s="1">
         <v>1</v>
@@ -68732,13 +68732,13 @@
         <v>6</v>
       </c>
       <c r="C196" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D196" s="10" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="E196" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G196" s="1">
         <v>1</v>
@@ -68752,13 +68752,13 @@
         <v>167</v>
       </c>
       <c r="C197" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E197" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G197" s="1">
         <v>1</v>
@@ -68772,13 +68772,13 @@
         <v>167</v>
       </c>
       <c r="C198" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D198" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="G198" s="1">
         <v>1</v>
@@ -68792,13 +68792,13 @@
         <v>5</v>
       </c>
       <c r="C199" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E199" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G199" s="1">
         <v>1</v>
@@ -68812,13 +68812,13 @@
         <v>6</v>
       </c>
       <c r="C200" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E200" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G200" s="1">
         <v>1</v>
@@ -68832,13 +68832,13 @@
         <v>5</v>
       </c>
       <c r="C201" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E201" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="G201" s="1">
         <v>1</v>
@@ -68852,13 +68852,13 @@
         <v>6</v>
       </c>
       <c r="C202" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E202" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G202" s="1">
         <v>1</v>
@@ -68872,13 +68872,13 @@
         <v>167</v>
       </c>
       <c r="C203" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E203" s="1" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="G203" s="1">
         <v>1</v>
@@ -68892,13 +68892,13 @@
         <v>6</v>
       </c>
       <c r="C204" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E204" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="G204" s="1">
         <v>1</v>
@@ -68906,19 +68906,19 @@
     </row>
     <row r="205" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B205" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C205" s="1" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="E205" s="1" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="F205"/>
       <c r="G205" s="1">
@@ -68927,19 +68927,19 @@
     </row>
     <row r="206" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B206" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C206" s="1" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="E206" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F206"/>
       <c r="G206" s="1">
@@ -68954,13 +68954,13 @@
         <v>160</v>
       </c>
       <c r="C207" s="1" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="E207" s="1" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="G207" s="1">
         <v>1</v>
@@ -68969,19 +68969,19 @@
     </row>
     <row r="208" spans="1:8" s="1" customFormat="1" ht="19" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B208" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D208" s="10" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="F208"/>
       <c r="G208" s="1">
@@ -68990,19 +68990,19 @@
     </row>
     <row r="209" spans="1:7" ht="19" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B209" s="1" t="s">
         <v>155</v>
       </c>
       <c r="C209" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="E209" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F209" s="1"/>
       <c r="G209" s="1">
